--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\ITA2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\SpecificheIndicatori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$68</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -783,11 +783,14 @@
   <si>
     <t>in attesa di requisiti. Impatti sia su indicatori che su BR</t>
   </si>
+  <si>
+    <t>STATO PROD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1109,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1299,11 +1302,364 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="56">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1824,25 +2180,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AE125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="9.8984375" customWidth="1"/>
-    <col min="3" max="3" width="83.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.69921875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="73.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -1859,17 +2217,20 @@
       <c r="F1" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="71" t="s">
+        <v>243</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -1886,17 +2247,20 @@
       <c r="F2" s="13">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="13">
         <v>1</v>
       </c>
       <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -1914,18 +2278,21 @@
       <c r="F3" s="13">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="13">
         <v>1</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="I3" s="8"/>
-      <c r="AD3" s="9" t="s">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8"/>
+      <c r="AE3" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B78" si="0">+B3+1</f>
@@ -1943,16 +2310,19 @@
       <c r="F4" s="13">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="AD4" s="9"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="AE4" s="9"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -1970,16 +2340,17 @@
       <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="13"/>
+      <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="AD5" s="9"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="AE5" s="9"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -1995,17 +2366,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
+      <c r="G6" s="13"/>
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2023,15 +2395,18 @@
       <c r="F7" s="13">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2049,15 +2424,18 @@
       <c r="F8" s="13">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="13">
         <v>1</v>
       </c>
       <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I8" s="5">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2075,15 +2453,18 @@
       <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="13">
         <v>1</v>
       </c>
       <c r="H9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2101,15 +2482,18 @@
       <c r="F10" s="13">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="13">
         <v>1</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2127,15 +2511,18 @@
       <c r="F11" s="13">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
-        <v>2</v>
+      <c r="G11" s="13">
+        <v>1</v>
       </c>
       <c r="H11" s="5">
         <v>2</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I11" s="5">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2153,17 +2540,20 @@
       <c r="F12" s="13">
         <v>1</v>
       </c>
-      <c r="G12" s="5">
-        <v>2</v>
+      <c r="G12" s="13">
+        <v>1</v>
       </c>
       <c r="H12" s="5">
         <v>2</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="5">
+        <v>2</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2181,15 +2571,18 @@
       <c r="F13" s="13">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
         <v>2</v>
       </c>
-      <c r="H13" s="5">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -2207,15 +2600,18 @@
       <c r="F14" s="13">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="H14" s="5">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -2233,15 +2629,18 @@
       <c r="F15" s="13">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="13">
         <v>1</v>
       </c>
       <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
         <v>3</v>
       </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -2259,15 +2658,18 @@
       <c r="F16" s="13">
         <v>1</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="13">
         <v>1</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -2285,17 +2687,20 @@
       <c r="F17" s="13">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="13">
         <v>1</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -2313,15 +2718,18 @@
       <c r="F18" s="13">
         <v>1</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
         <v>2</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>3</v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -2339,15 +2747,18 @@
       <c r="F19" s="13">
         <v>1</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
         <v>2</v>
       </c>
-      <c r="H19" s="5">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -2365,17 +2776,20 @@
       <c r="F20" s="13">
         <v>1</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="13">
         <v>1</v>
       </c>
       <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -2393,15 +2807,18 @@
       <c r="F21" s="13">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
         <v>3</v>
       </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -2419,15 +2836,18 @@
       <c r="F22" s="13">
         <v>1</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
         <v>3</v>
       </c>
-      <c r="H22" s="5">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="5">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -2445,15 +2865,18 @@
       <c r="F23" s="13">
         <v>1</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
         <v>3</v>
       </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="5">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -2471,15 +2894,18 @@
       <c r="F24" s="13">
         <v>1</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
         <v>3</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>2</v>
       </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -2497,15 +2923,18 @@
       <c r="F25" s="13">
         <v>1</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="13">
         <v>1</v>
       </c>
       <c r="H25" s="5">
         <v>1</v>
       </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="5">
+        <v>1</v>
+      </c>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -2523,15 +2952,18 @@
       <c r="F26" s="13">
         <v>1</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
         <v>2</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>3</v>
       </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -2549,15 +2981,18 @@
       <c r="F27" s="13">
         <v>1</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
         <v>2</v>
       </c>
-      <c r="H27" s="5">
+      <c r="I27" s="5">
         <v>3</v>
       </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -2575,15 +3010,18 @@
       <c r="F28" s="13">
         <v>1</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5">
         <v>2</v>
       </c>
-      <c r="H28" s="5">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -2601,15 +3039,18 @@
       <c r="F29" s="13">
         <v>1</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
         <v>2</v>
       </c>
-      <c r="H29" s="5">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="5">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -2627,15 +3068,18 @@
       <c r="F30" s="13">
         <v>1</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5">
         <v>2</v>
       </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="5">
+        <v>1</v>
+      </c>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -2653,15 +3097,18 @@
       <c r="F31" s="13">
         <v>1</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="13">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
         <v>2</v>
       </c>
-      <c r="H31" s="5">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="5">
+        <v>1</v>
+      </c>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -2679,17 +3126,20 @@
       <c r="F32" s="13">
         <v>1</v>
       </c>
-      <c r="G32" s="5">
-        <v>2</v>
+      <c r="G32" s="13">
+        <v>1</v>
       </c>
       <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="5">
+        <v>2</v>
+      </c>
+      <c r="J32" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -2707,15 +3157,18 @@
       <c r="F33" s="13">
         <v>1</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="13">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5">
         <v>2</v>
       </c>
-      <c r="H33" s="5">
+      <c r="I33" s="5">
         <v>3</v>
       </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -2733,15 +3186,18 @@
       <c r="F34" s="13">
         <v>1</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="13">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5">
         <v>3</v>
       </c>
-      <c r="H34" s="5">
-        <v>1</v>
-      </c>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="5">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -2759,15 +3215,18 @@
       <c r="F35" s="13">
         <v>1</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="13">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
         <v>3</v>
       </c>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="5">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -2785,15 +3244,18 @@
       <c r="F36" s="13">
         <v>1</v>
       </c>
-      <c r="G36" s="5">
-        <v>2</v>
+      <c r="G36" s="13">
+        <v>1</v>
       </c>
       <c r="H36" s="5">
         <v>2</v>
       </c>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="5">
+        <v>2</v>
+      </c>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -2811,15 +3273,18 @@
       <c r="F37" s="13">
         <v>1</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="13">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
         <v>2</v>
       </c>
-      <c r="H37" s="5">
-        <v>1</v>
-      </c>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="5">
+        <v>1</v>
+      </c>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -2837,15 +3302,18 @@
       <c r="F38" s="13">
         <v>1</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="13">
         <v>1</v>
       </c>
       <c r="H38" s="5">
+        <v>1</v>
+      </c>
+      <c r="I38" s="5">
         <v>2</v>
       </c>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -2863,15 +3331,18 @@
       <c r="F39" s="13">
         <v>1</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="13">
         <v>1</v>
       </c>
       <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5">
         <v>2</v>
       </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -2889,15 +3360,18 @@
       <c r="F40" s="13">
         <v>1</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="13">
         <v>1</v>
       </c>
       <c r="H40" s="5">
+        <v>1</v>
+      </c>
+      <c r="I40" s="5">
         <v>2</v>
       </c>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -2915,17 +3389,20 @@
       <c r="F41" s="13">
         <v>1</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="13">
+        <v>1</v>
+      </c>
+      <c r="H41" s="5">
         <v>3</v>
       </c>
-      <c r="H41" s="5">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" s="5">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -2943,15 +3420,18 @@
       <c r="F42" s="13">
         <v>1</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="13">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5">
         <v>3</v>
       </c>
-      <c r="H42" s="5">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I42" s="5">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -2969,17 +3449,20 @@
       <c r="F43" s="13">
         <v>1</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="13">
         <v>1</v>
       </c>
       <c r="H43" s="5">
         <v>1</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="5">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -2997,17 +3480,20 @@
       <c r="F44" s="13">
         <v>1</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="13">
         <v>1</v>
       </c>
       <c r="H44" s="5">
+        <v>1</v>
+      </c>
+      <c r="I44" s="5">
         <v>2</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3020,20 +3506,21 @@
         <v>85</v>
       </c>
       <c r="E45" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F45" s="13"/>
-      <c r="G45" s="5">
-        <v>3</v>
-      </c>
+      <c r="G45" s="13"/>
       <c r="H45" s="5">
         <v>3</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="5">
+        <v>3</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3051,17 +3538,20 @@
       <c r="F46" s="13">
         <v>1</v>
       </c>
-      <c r="G46" s="5">
-        <v>2</v>
+      <c r="G46" s="13">
+        <v>1</v>
       </c>
       <c r="H46" s="5">
         <v>2</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" s="5">
+        <v>2</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="7">
         <f t="shared" si="0"/>
@@ -3075,17 +3565,18 @@
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
-      <c r="G47" s="5">
+      <c r="G47" s="13"/>
+      <c r="H47" s="5">
         <v>2</v>
       </c>
-      <c r="H47" s="5">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" s="5">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="7">
         <f t="shared" si="0"/>
@@ -3101,13 +3592,14 @@
         <v>173</v>
       </c>
       <c r="F48" s="13"/>
-      <c r="G48" s="5">
+      <c r="G48" s="13"/>
+      <c r="H48" s="5">
         <v>3</v>
       </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I48" s="5"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -3125,17 +3617,20 @@
       <c r="F49" s="13">
         <v>1</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="13">
         <v>1</v>
       </c>
       <c r="H49" s="5">
+        <v>1</v>
+      </c>
+      <c r="I49" s="5">
         <v>2</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="J49" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -3153,17 +3648,20 @@
       <c r="F50" s="13">
         <v>1</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="13">
         <v>1</v>
       </c>
       <c r="H50" s="5">
         <v>1</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" s="5">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -3181,17 +3679,20 @@
       <c r="F51" s="13">
         <v>1</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="13">
         <v>1</v>
       </c>
       <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
         <v>2</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="J51" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3208,17 +3709,20 @@
       <c r="F52" s="13">
         <v>1</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="13">
         <v>1</v>
       </c>
       <c r="H52" s="5">
+        <v>1</v>
+      </c>
+      <c r="I52" s="5">
         <v>2</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3235,17 +3739,18 @@
       <c r="F53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G53" s="5">
-        <v>1</v>
-      </c>
+      <c r="G53" s="13"/>
       <c r="H53" s="5">
+        <v>1</v>
+      </c>
+      <c r="I53" s="5">
         <v>2</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="J53" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B54" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3260,17 +3765,18 @@
         <v>173</v>
       </c>
       <c r="F54" s="13"/>
-      <c r="G54" s="5">
+      <c r="G54" s="13"/>
+      <c r="H54" s="5">
         <v>3</v>
       </c>
-      <c r="H54" s="5">
+      <c r="I54" s="5">
         <v>2</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3285,17 +3791,18 @@
         <v>173</v>
       </c>
       <c r="F55" s="13"/>
-      <c r="G55" s="5">
-        <v>3</v>
-      </c>
+      <c r="G55" s="13"/>
       <c r="H55" s="5">
         <v>3</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" s="5">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3312,17 +3819,20 @@
       <c r="F56" s="13">
         <v>1</v>
       </c>
-      <c r="G56" s="5">
-        <v>2</v>
+      <c r="G56" s="13">
+        <v>1</v>
       </c>
       <c r="H56" s="5">
         <v>2</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3339,17 +3849,20 @@
       <c r="F57" s="13">
         <v>1</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57" s="13">
         <v>1</v>
       </c>
       <c r="H57" s="5">
+        <v>1</v>
+      </c>
+      <c r="I57" s="5">
         <v>2</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="J57" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3366,15 +3879,16 @@
       <c r="F58" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="5">
-        <v>1</v>
-      </c>
+      <c r="G58" s="13"/>
       <c r="H58" s="5">
+        <v>1</v>
+      </c>
+      <c r="I58" s="5">
         <v>2</v>
       </c>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3391,15 +3905,16 @@
       <c r="F59" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59" s="13"/>
+      <c r="H59" s="5">
         <v>2</v>
       </c>
-      <c r="H59" s="5">
+      <c r="I59" s="5">
         <v>3</v>
       </c>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3416,15 +3931,16 @@
       <c r="F60" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60" s="13"/>
+      <c r="H60" s="5">
         <v>3</v>
       </c>
-      <c r="H60" s="5">
-        <v>1</v>
-      </c>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I60" s="5">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3438,20 +3954,23 @@
       <c r="E61" s="13">
         <v>1</v>
       </c>
-      <c r="F61" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13">
+        <v>1</v>
+      </c>
+      <c r="H61" s="5">
         <v>3</v>
       </c>
-      <c r="H61" s="5">
-        <v>1</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" s="5">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3468,15 +3987,16 @@
       <c r="F62" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62" s="13"/>
+      <c r="H62" s="5">
         <v>3</v>
       </c>
-      <c r="H62" s="5">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I62" s="5">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3493,15 +4013,16 @@
       <c r="F63" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63" s="13"/>
+      <c r="H63" s="5">
         <v>3</v>
       </c>
-      <c r="H63" s="5">
-        <v>1</v>
-      </c>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I63" s="5">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3518,17 +4039,18 @@
       <c r="F64" s="13">
         <v>1</v>
       </c>
-      <c r="G64" s="5">
-        <v>1</v>
-      </c>
+      <c r="G64" s="13"/>
       <c r="H64" s="5">
         <v>1</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3542,20 +4064,23 @@
       <c r="E65" s="13">
         <v>1</v>
       </c>
-      <c r="F65" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13">
         <v>1</v>
       </c>
       <c r="H65" s="5">
         <v>1</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3570,17 +4095,18 @@
       <c r="F66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="5">
-        <v>1</v>
-      </c>
+      <c r="G66" s="13"/>
       <c r="H66" s="5">
         <v>1</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" s="5">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3595,15 +4121,16 @@
       <c r="F67" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="5">
-        <v>3</v>
-      </c>
+      <c r="G67" s="13"/>
       <c r="H67" s="5">
         <v>3</v>
       </c>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="5">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3620,15 +4147,16 @@
       <c r="F68" s="13">
         <v>1</v>
       </c>
-      <c r="G68" s="5">
-        <v>1</v>
-      </c>
+      <c r="G68" s="13"/>
       <c r="H68" s="5">
         <v>1</v>
       </c>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I68" s="5">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3645,15 +4173,16 @@
       <c r="F69" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G69" s="5">
-        <v>1</v>
-      </c>
+      <c r="G69" s="13"/>
       <c r="H69" s="5">
         <v>1</v>
       </c>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I69" s="5">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" s="7">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -3666,17 +4195,18 @@
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="5">
-        <v>3</v>
-      </c>
+      <c r="G70" s="13"/>
       <c r="H70" s="5">
         <v>3</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" s="5">
+        <v>3</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -3689,17 +4219,18 @@
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
-      <c r="G71" s="5">
-        <v>1</v>
-      </c>
+      <c r="G71" s="13"/>
       <c r="H71" s="5">
+        <v>1</v>
+      </c>
+      <c r="I71" s="5">
         <v>2</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -3712,17 +4243,18 @@
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
-      <c r="G72" s="5">
-        <v>1</v>
-      </c>
+      <c r="G72" s="13"/>
       <c r="H72" s="5">
         <v>1</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" s="5">
+        <v>1</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -3735,17 +4267,18 @@
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
-      <c r="G73" s="5">
-        <v>1</v>
-      </c>
+      <c r="G73" s="13"/>
       <c r="H73" s="5">
         <v>1</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -3760,17 +4293,18 @@
         <v>231</v>
       </c>
       <c r="F74" s="13"/>
-      <c r="G74" s="5">
-        <v>1</v>
-      </c>
+      <c r="G74" s="13"/>
       <c r="H74" s="5">
         <v>1</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="7">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -3783,17 +4317,18 @@
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
-      <c r="G75" s="5">
-        <v>1</v>
-      </c>
+      <c r="G75" s="13"/>
       <c r="H75" s="5">
         <v>1</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" s="5">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -3806,15 +4341,16 @@
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="5">
-        <v>2</v>
-      </c>
+      <c r="G76" s="13"/>
       <c r="H76" s="5">
         <v>2</v>
       </c>
-      <c r="I76" s="1"/>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I76" s="5">
+        <v>2</v>
+      </c>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" s="7">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -3829,17 +4365,18 @@
       <c r="F77" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G77" s="5">
-        <v>2</v>
-      </c>
+      <c r="G77" s="13"/>
       <c r="H77" s="5">
         <v>2</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" s="5">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" s="7">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -3852,17 +4389,18 @@
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
-      <c r="G78" s="5">
-        <v>3</v>
-      </c>
+      <c r="G78" s="13"/>
       <c r="H78" s="5">
         <v>3</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" s="5">
+        <v>3</v>
+      </c>
+      <c r="J78" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>210</v>
       </c>
@@ -3870,7 +4408,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="69">
         <v>42668</v>
       </c>
@@ -3884,7 +4422,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="69">
         <v>42669</v>
       </c>
@@ -3898,7 +4436,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" s="69">
         <v>42670</v>
       </c>
@@ -3912,7 +4450,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="67">
         <v>42676</v>
       </c>
@@ -3926,7 +4464,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="67">
         <v>42671</v>
       </c>
@@ -3938,7 +4476,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="69">
         <v>42668</v>
       </c>
@@ -3952,115 +4490,135 @@
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I68"/>
-  <conditionalFormatting sqref="E1:F16 E18:F68 F2:F70">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+  <autoFilter ref="A1:J68"/>
+  <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="55" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:F17">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="54" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:F69">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="53" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:F70">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="52" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:F71">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="E71:G71">
+    <cfRule type="cellIs" dxfId="50" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="cellIs" dxfId="49" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:F72">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="E72:G72">
+    <cfRule type="cellIs" dxfId="48" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="F73:G73">
+    <cfRule type="cellIs" dxfId="47" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:F73">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+  <conditionalFormatting sqref="E73:G73">
+    <cfRule type="cellIs" dxfId="46" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="F74:G74">
+    <cfRule type="cellIs" dxfId="45" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:F74">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="E74:G74">
+    <cfRule type="cellIs" dxfId="44" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="F75:G75">
+    <cfRule type="cellIs" dxfId="43" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:F75">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="E75:G75">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="F76:G76">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:F76">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="E76:G76">
+    <cfRule type="cellIs" dxfId="40" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="F77:G77">
+    <cfRule type="cellIs" dxfId="38" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:F77">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+  <conditionalFormatting sqref="E77:G77">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="F78:G78">
+    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:F78">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="E78:G78">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G52">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4077,14 +4635,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
+    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -4092,7 +4650,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -4103,7 +4661,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -4114,7 +4672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -4125,7 +4683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -4136,7 +4694,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -4147,7 +4705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -4158,7 +4716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -4169,7 +4727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -4180,7 +4738,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>33</v>
@@ -4205,21 +4763,21 @@
       <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="2.69921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.09765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.125" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.09765625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.19921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.69921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.69921875" style="27"/>
+    <col min="11" max="12" width="8.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.75" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.75" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>170</v>
       </c>
@@ -4260,7 +4818,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="28">
         <v>23</v>
@@ -4295,7 +4853,7 @@
       <c r="L3" s="33"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>171</v>
       </c>
@@ -4334,7 +4892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
@@ -4357,7 +4915,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A6" s="34"/>
       <c r="B6" s="34">
         <v>3</v>
@@ -4392,7 +4950,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="44"/>
@@ -4409,7 +4967,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="34">
         <v>4</v>
@@ -4444,7 +5002,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="44"/>
@@ -4461,7 +5019,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="25"/>
     </row>
-    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="34"/>
       <c r="B10" s="34">
         <v>26</v>
@@ -4496,7 +5054,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
@@ -4513,7 +5071,7 @@
       <c r="L11" s="46"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
@@ -4530,7 +5088,7 @@
       <c r="L12" s="46"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
@@ -4547,7 +5105,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="34"/>
       <c r="B14" s="34">
         <v>2</v>
@@ -4582,7 +5140,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
@@ -4603,7 +5161,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="28">
         <v>24</v>
@@ -4640,7 +5198,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
         <v>171</v>
       </c>
@@ -4679,7 +5237,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
@@ -4702,7 +5260,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="34"/>
       <c r="B19" s="34">
         <v>22</v>
@@ -4735,7 +5293,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="29" t="s">
@@ -4752,7 +5310,7 @@
       <c r="L20" s="38"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A21" s="34"/>
       <c r="B21" s="34">
         <v>20</v>
@@ -4787,7 +5345,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
@@ -4804,7 +5362,7 @@
       <c r="L22" s="38"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="34" t="s">
         <v>171</v>
       </c>
@@ -4843,7 +5401,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
@@ -4868,7 +5426,7 @@
       <c r="L24" s="46"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47"/>
@@ -4885,7 +5443,7 @@
       <c r="L25" s="46"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="47"/>
@@ -4902,7 +5460,7 @@
       <c r="L26" s="46"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="47"/>
@@ -4919,7 +5477,7 @@
       <c r="L27" s="46"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
@@ -4936,7 +5494,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="34"/>
       <c r="B29" s="34">
         <v>7</v>
@@ -4971,7 +5529,7 @@
       <c r="L29" s="34"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
@@ -4988,7 +5546,7 @@
       <c r="L30" s="46"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
@@ -5005,7 +5563,7 @@
       <c r="L31" s="46"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
@@ -5022,7 +5580,7 @@
       <c r="L32" s="46"/>
       <c r="M32" s="26"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="C33" s="47"/>
@@ -5039,7 +5597,7 @@
       <c r="L33" s="46"/>
       <c r="M33" s="26"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="47"/>
@@ -5056,7 +5614,7 @@
       <c r="L34" s="46"/>
       <c r="M34" s="26"/>
     </row>
-    <row r="35" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
@@ -5073,7 +5631,7 @@
       <c r="L35" s="38"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>171</v>
       </c>
@@ -5112,7 +5670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
       <c r="B37" s="34">
         <v>9</v>
@@ -5147,7 +5705,7 @@
       <c r="L37" s="34"/>
       <c r="M37" s="24"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
@@ -5164,7 +5722,7 @@
       <c r="L38" s="46"/>
       <c r="M38" s="26"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
@@ -5181,7 +5739,7 @@
       <c r="L39" s="46"/>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="47"/>
@@ -5198,7 +5756,7 @@
       <c r="L40" s="46"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="47"/>
@@ -5215,7 +5773,7 @@
       <c r="L41" s="46"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
@@ -5232,7 +5790,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
       <c r="B43" s="28">
         <v>10</v>
@@ -5267,7 +5825,7 @@
       <c r="L43" s="33"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28">
         <v>16</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\SpecificheIndicatori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\SpecificheIndicatori\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$80</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="246">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -718,9 +719,6 @@
     <t>UAT</t>
   </si>
   <si>
-    <t>rinviata al 2017</t>
-  </si>
-  <si>
     <t>override NOPG</t>
   </si>
   <si>
@@ -736,12 +734,6 @@
     <t>entro 11/11 ci mandano dati (MOL e Null) - entro il 23/11 - rinviato al 13/01 l'UAT</t>
   </si>
   <si>
-    <t>4 indicatori e 4 BR - UAT entro il 07/12</t>
-  </si>
-  <si>
-    <t>rilascio del 16/12 - rinviato al 13/01</t>
-  </si>
-  <si>
     <t>Spostamento 2 Notizie Pregiudiziali dal colore del ROSSO al BLU SCURO</t>
   </si>
   <si>
@@ -785,12 +777,27 @@
   </si>
   <si>
     <t>STATO PROD</t>
+  </si>
+  <si>
+    <t>rilascio il 20/01</t>
+  </si>
+  <si>
+    <t>FM/MD</t>
+  </si>
+  <si>
+    <t>override ind.36</t>
+  </si>
+  <si>
+    <t>rilascio il 20/02</t>
+  </si>
+  <si>
+    <t>Finanziamenti esteri: inserimento floor per calcolo giorni scaduto su indicatori importo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1309,277 +1316,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="29">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2180,27 +1917,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE125"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="83.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.8984375" customWidth="1"/>
+    <col min="3" max="3" width="83.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.8984375" style="6" customWidth="1"/>
     <col min="6" max="6" width="11" style="6" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -2218,7 +1956,7 @@
         <v>220</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -2230,7 +1968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -2260,7 +1998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -2292,10 +2030,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
-        <f t="shared" ref="B4:B78" si="0">+B3+1</f>
+        <f t="shared" ref="B4:B79" si="0">+B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -2322,7 +2060,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -2340,7 +2078,9 @@
       <c r="F5" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
       <c r="H5" s="5">
         <v>2</v>
       </c>
@@ -2350,7 +2090,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -2365,8 +2105,12 @@
       <c r="E6" s="13">
         <v>1</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
       <c r="H6" s="5">
         <v>3</v>
       </c>
@@ -2374,10 +2118,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2406,7 +2150,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2435,7 +2179,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2464,7 +2208,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2493,7 +2237,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2522,7 +2266,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2553,7 +2297,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2582,7 +2326,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -2611,7 +2355,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -2640,7 +2384,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -2669,7 +2413,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -2700,7 +2444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -2729,7 +2473,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -2758,7 +2502,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -2789,7 +2533,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -2818,7 +2562,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -2847,7 +2591,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -2876,7 +2620,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -2905,7 +2649,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -2934,7 +2678,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -2963,7 +2707,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -2992,7 +2736,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -3021,7 +2765,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -3050,7 +2794,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -3079,7 +2823,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -3108,7 +2852,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -3139,7 +2883,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -3168,7 +2912,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -3197,7 +2941,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -3226,7 +2970,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -3255,7 +2999,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -3284,7 +3028,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -3313,7 +3057,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -3342,7 +3086,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -3371,7 +3115,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -3402,7 +3146,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -3431,7 +3175,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -3462,7 +3206,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -3493,7 +3237,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3508,8 +3252,12 @@
       <c r="E45" s="13">
         <v>1</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
+      <c r="F45" s="13">
+        <v>1</v>
+      </c>
+      <c r="G45" s="13">
+        <v>1</v>
+      </c>
       <c r="H45" s="5">
         <v>3</v>
       </c>
@@ -3517,10 +3265,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3551,7 +3299,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="7">
         <f t="shared" si="0"/>
@@ -3563,9 +3311,15 @@
       <c r="D47" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
+      <c r="E47" s="13">
+        <v>1</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <v>0</v>
+      </c>
       <c r="H47" s="5">
         <v>2</v>
       </c>
@@ -3573,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="7">
         <f t="shared" si="0"/>
@@ -3588,9 +3342,7 @@
       <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="5">
@@ -3599,7 +3351,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -3630,7 +3382,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -3661,7 +3413,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -3692,7 +3444,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3722,7 +3474,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3739,7 +3491,9 @@
       <c r="F53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G53" s="13"/>
+      <c r="G53" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H53" s="5">
         <v>1</v>
       </c>
@@ -3750,7 +3504,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B54" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3761,9 +3515,7 @@
       <c r="D54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="13" t="s">
-        <v>173</v>
-      </c>
+      <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="5">
@@ -3776,7 +3528,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3785,10 +3537,10 @@
         <v>182</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>173</v>
+        <v>242</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.15</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -3799,10 +3551,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3832,7 +3584,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3862,7 +3614,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3888,7 +3640,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3914,7 +3666,7 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3940,7 +3692,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3970,7 +3722,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3996,7 +3748,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4013,7 +3765,9 @@
       <c r="F63" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G63" s="13"/>
+      <c r="G63" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H63" s="5">
         <v>3</v>
       </c>
@@ -4022,7 +3776,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4039,7 +3793,9 @@
       <c r="F64" s="13">
         <v>1</v>
       </c>
-      <c r="G64" s="13"/>
+      <c r="G64" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H64" s="5">
         <v>1</v>
       </c>
@@ -4050,7 +3806,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4080,7 +3836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -4106,7 +3862,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B67" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -4130,7 +3886,7 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -4147,7 +3903,9 @@
       <c r="F68" s="13">
         <v>1</v>
       </c>
-      <c r="G68" s="13"/>
+      <c r="G68" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H68" s="5">
         <v>1</v>
       </c>
@@ -4156,7 +3914,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -4173,7 +3931,9 @@
       <c r="F69" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G69" s="13"/>
+      <c r="G69" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="H69" s="5">
         <v>1</v>
       </c>
@@ -4182,7 +3942,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B70" s="7">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -4191,9 +3951,11 @@
         <v>219</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E70" s="13"/>
+        <v>242</v>
+      </c>
+      <c r="E70" s="13">
+        <v>0.15</v>
+      </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
       <c r="H70" s="5">
@@ -4203,21 +3965,23 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B71" s="7">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="7">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="13"/>
+      <c r="E71" s="13">
+        <v>0.15</v>
+      </c>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
       <c r="H71" s="5">
@@ -4227,23 +3991,29 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="13"/>
+      <c r="E72" s="13">
+        <v>1</v>
+      </c>
+      <c r="F72" s="13">
+        <v>1</v>
+      </c>
+      <c r="G72" s="13">
+        <v>1</v>
+      </c>
       <c r="H72" s="5">
         <v>1</v>
       </c>
@@ -4251,23 +4021,29 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="7">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="13">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
       <c r="H73" s="5">
         <v>1</v>
       </c>
@@ -4275,22 +4051,22 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D74" s="70" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
@@ -4301,16 +4077,16 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B75" s="7">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D75" s="70" t="s">
         <v>24</v>
@@ -4325,16 +4101,16 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B76" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D76" s="70" t="s">
         <v>24</v>
@@ -4350,16 +4126,16 @@
       </c>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D77" s="70" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
@@ -4373,16 +4149,16 @@
         <v>2</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D78" s="70" t="s">
         <v>25</v>
@@ -4397,65 +4173,87 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="7">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D79" s="70" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+      <c r="E79" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="5">
+        <v>2</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B80" s="7">
+        <f>+B79+1</f>
+        <v>79</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D80" s="70" t="s">
+        <v>242</v>
+      </c>
+      <c r="E80" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="5">
+        <v>3</v>
+      </c>
+      <c r="I80" s="5">
+        <v>2</v>
+      </c>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
         <v>210</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D82" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B81" s="69">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B83" s="69">
         <v>42668</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>197</v>
       </c>
-      <c r="D81" s="68">
+      <c r="D83" s="68">
         <v>42678</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E83" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B82" s="69">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="69">
         <v>42669</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>198</v>
-      </c>
-      <c r="D82" s="68">
-        <v>42691</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" s="69">
-        <v>42670</v>
-      </c>
-      <c r="C83" t="s">
-        <v>200</v>
-      </c>
-      <c r="D83" s="68">
-        <v>42691</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B84" s="67">
-        <v>42676</v>
-      </c>
-      <c r="C84" t="s">
-        <v>199</v>
       </c>
       <c r="D84" s="68">
         <v>42691</v>
@@ -4464,161 +4262,216 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B85" s="67">
-        <v>42671</v>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="69">
+        <v>42670</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="68"/>
+        <v>200</v>
+      </c>
+      <c r="D85" s="68">
+        <v>42691</v>
+      </c>
       <c r="E85" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B86" s="69">
-        <v>42668</v>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="67">
+        <v>42676</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D86" s="68">
-        <v>42671</v>
+        <v>42691</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B87" s="67">
+        <v>42671</v>
+      </c>
+      <c r="C87" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="68"/>
+      <c r="E87" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B88" s="69">
+        <v>42668</v>
+      </c>
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" s="68">
+        <v>42671</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J68"/>
+  <autoFilter ref="A1:J80">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="0%"/>
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
-    <cfRule type="cellIs" dxfId="55" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="54" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="53" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="52" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="51" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="50" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="49" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="48" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="47" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="46" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="45" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="44" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="43" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="42" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="40" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="38" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:G80">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:G79 F80:G80">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4635,14 +4488,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="28.875" customWidth="1"/>
+    <col min="1" max="1" width="5.69921875" customWidth="1"/>
+    <col min="2" max="2" width="28.8984375" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -4650,7 +4503,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -4661,7 +4514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -4672,7 +4525,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -4683,7 +4536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -4694,7 +4547,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -4705,7 +4558,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -4716,7 +4569,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -4727,7 +4580,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -4738,7 +4591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>33</v>
@@ -4763,21 +4616,21 @@
       <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="2.75" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="2.69921875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.09765625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.09765625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.25" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.75" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.75" style="27"/>
+    <col min="11" max="12" width="8.19921875" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.69921875" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>170</v>
       </c>
@@ -4818,7 +4671,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28"/>
       <c r="B3" s="28">
         <v>23</v>
@@ -4853,7 +4706,7 @@
       <c r="L3" s="33"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
         <v>171</v>
       </c>
@@ -4892,7 +4745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
@@ -4915,7 +4768,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A6" s="34"/>
       <c r="B6" s="34">
         <v>3</v>
@@ -4950,7 +4803,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="44"/>
@@ -4967,7 +4820,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A8" s="34"/>
       <c r="B8" s="34">
         <v>4</v>
@@ -5002,7 +4855,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="44"/>
@@ -5019,7 +4872,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="25"/>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34"/>
       <c r="B10" s="34">
         <v>26</v>
@@ -5054,7 +4907,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
@@ -5071,7 +4924,7 @@
       <c r="L11" s="46"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
@@ -5088,7 +4941,7 @@
       <c r="L12" s="46"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
@@ -5105,7 +4958,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="34">
         <v>2</v>
@@ -5140,7 +4993,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
@@ -5161,7 +5014,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="28"/>
       <c r="B16" s="28">
         <v>24</v>
@@ -5198,7 +5051,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>171</v>
       </c>
@@ -5237,7 +5090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
@@ -5260,7 +5113,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="34">
         <v>22</v>
@@ -5293,7 +5146,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="29" t="s">
@@ -5310,7 +5163,7 @@
       <c r="L20" s="38"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A21" s="34"/>
       <c r="B21" s="34">
         <v>20</v>
@@ -5345,7 +5198,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
@@ -5362,7 +5215,7 @@
       <c r="L22" s="38"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
         <v>171</v>
       </c>
@@ -5401,7 +5254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
@@ -5426,7 +5279,7 @@
       <c r="L24" s="46"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47"/>
@@ -5443,7 +5296,7 @@
       <c r="L25" s="46"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="47"/>
@@ -5460,7 +5313,7 @@
       <c r="L26" s="46"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="47"/>
@@ -5477,7 +5330,7 @@
       <c r="L27" s="46"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
@@ -5494,7 +5347,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="34"/>
       <c r="B29" s="34">
         <v>7</v>
@@ -5529,7 +5382,7 @@
       <c r="L29" s="34"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
@@ -5546,7 +5399,7 @@
       <c r="L30" s="46"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
@@ -5563,7 +5416,7 @@
       <c r="L31" s="46"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
@@ -5580,7 +5433,7 @@
       <c r="L32" s="46"/>
       <c r="M32" s="26"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="C33" s="47"/>
@@ -5597,7 +5450,7 @@
       <c r="L33" s="46"/>
       <c r="M33" s="26"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="47"/>
@@ -5614,7 +5467,7 @@
       <c r="L34" s="46"/>
       <c r="M34" s="26"/>
     </row>
-    <row r="35" spans="1:13" ht="68.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
@@ -5631,7 +5484,7 @@
       <c r="L35" s="38"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="28" t="s">
         <v>171</v>
       </c>
@@ -5670,7 +5523,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="34"/>
       <c r="B37" s="34">
         <v>9</v>
@@ -5705,7 +5558,7 @@
       <c r="L37" s="34"/>
       <c r="M37" s="24"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="46"/>
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
@@ -5722,7 +5575,7 @@
       <c r="L38" s="46"/>
       <c r="M38" s="26"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
@@ -5739,7 +5592,7 @@
       <c r="L39" s="46"/>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="47"/>
@@ -5756,7 +5609,7 @@
       <c r="L40" s="46"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="47"/>
@@ -5773,7 +5626,7 @@
       <c r="L41" s="46"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
@@ -5790,7 +5643,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:13" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="28"/>
       <c r="B43" s="28">
         <v>10</v>
@@ -5825,7 +5678,7 @@
       <c r="L43" s="33"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:13" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="28"/>
       <c r="B44" s="28">
         <v>16</v>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$80</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="245">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -605,9 +604,6 @@
     <t xml:space="preserve">Gestione BR Override Rosso / Arancio </t>
   </si>
   <si>
-    <t>rilascio a dicembre</t>
-  </si>
-  <si>
     <t>KOPER</t>
   </si>
   <si>
@@ -767,9 +763,6 @@
     <t>NDC/MC</t>
   </si>
   <si>
-    <t>inizio 2017</t>
-  </si>
-  <si>
     <t>inserimento soglia differenziata per indicatore 36</t>
   </si>
   <si>
@@ -792,6 +785,9 @@
   </si>
   <si>
     <t>Finanziamenti esteri: inserimento floor per calcolo giorni scaduto su indicatori importo</t>
+  </si>
+  <si>
+    <t>a giugno?</t>
   </si>
 </sst>
 </file>
@@ -1917,11 +1913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1953,10 +1948,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -1968,7 +1963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -1998,7 +1993,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -2030,7 +2025,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
@@ -2060,7 +2055,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -2090,7 +2085,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -2118,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2150,7 +2145,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2179,7 +2174,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2208,7 +2203,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2237,7 +2232,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2266,7 +2261,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2297,7 +2292,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2326,7 +2321,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -2355,7 +2350,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -2384,7 +2379,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -2413,7 +2408,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -2444,7 +2439,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -2473,7 +2468,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -2502,7 +2497,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -2533,7 +2528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -2562,7 +2557,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -2591,7 +2586,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -2620,7 +2615,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -2649,7 +2644,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -2678,7 +2673,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -2707,7 +2702,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -2736,7 +2731,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -2765,7 +2760,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -2794,7 +2789,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -2823,7 +2818,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -2852,7 +2847,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -2883,7 +2878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -2912,7 +2907,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -2941,7 +2936,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -2970,7 +2965,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -2999,7 +2994,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -3028,7 +3023,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -3057,7 +3052,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -3086,7 +3081,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -3115,7 +3110,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -3143,10 +3138,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -3175,7 +3170,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -3206,7 +3201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -3237,7 +3232,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3265,10 +3260,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3327,7 +3322,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3342,7 +3337,9 @@
       <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E48" s="13"/>
+      <c r="E48" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
       <c r="H48" s="5">
@@ -3351,7 +3348,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -3382,7 +3379,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -3413,7 +3410,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -3444,7 +3441,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3471,7 +3468,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -3480,7 +3477,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>26</v>
@@ -3515,7 +3512,9 @@
       <c r="D54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E54" s="13"/>
+      <c r="E54" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
       <c r="H54" s="5">
@@ -3524,9 +3523,7 @@
       <c r="I54" s="5">
         <v>2</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="J54" s="1"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B55" s="7">
@@ -3537,7 +3534,7 @@
         <v>182</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E55" s="13">
         <v>0.15</v>
@@ -3551,46 +3548,46 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2</v>
+      </c>
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="E56" s="13">
-        <v>1</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2</v>
-      </c>
-      <c r="I56" s="5">
-        <v>2</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="7">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>24</v>
@@ -3611,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -3620,7 +3617,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>24</v>
@@ -3646,7 +3643,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>24</v>
@@ -3672,7 +3669,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>24</v>
@@ -3692,16 +3689,16 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E61" s="13">
         <v>1</v>
@@ -3719,7 +3716,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -3728,7 +3725,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>25</v>
@@ -3754,7 +3751,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>26</v>
@@ -3782,10 +3779,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
@@ -3803,16 +3800,16 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>83</v>
@@ -3833,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.3">
@@ -3842,7 +3839,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>25</v>
@@ -3859,7 +3856,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.3">
@@ -3868,7 +3865,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>83</v>
@@ -3892,7 +3889,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>24</v>
@@ -3920,7 +3917,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>26</v>
@@ -3948,10 +3945,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E70" s="13">
         <v>0.15</v>
@@ -3965,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -3974,7 +3971,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>25</v>
@@ -3991,16 +3988,16 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>81</v>
@@ -4021,16 +4018,16 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B73" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="7">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
@@ -4051,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.3">
@@ -4060,13 +4057,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D74" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="E74" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="F74" s="13"/>
       <c r="G74" s="13"/>
@@ -4077,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.3">
@@ -4086,7 +4083,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D75" s="70" t="s">
         <v>24</v>
@@ -4101,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.3">
@@ -4110,7 +4107,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D76" s="70" t="s">
         <v>24</v>
@@ -4124,7 +4121,9 @@
       <c r="I76" s="5">
         <v>2</v>
       </c>
-      <c r="J76" s="1"/>
+      <c r="J76" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B77" s="7">
@@ -4132,10 +4131,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="70" t="s">
         <v>235</v>
-      </c>
-      <c r="D77" s="70" t="s">
-        <v>236</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
@@ -4148,9 +4147,7 @@
       <c r="I77" s="5">
         <v>2</v>
       </c>
-      <c r="J77" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="J77" s="1"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B78" s="7">
@@ -4158,7 +4155,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D78" s="70" t="s">
         <v>25</v>
@@ -4173,7 +4170,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.3">
@@ -4182,10 +4179,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E79" s="13">
         <v>0.15</v>
@@ -4199,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
@@ -4208,10 +4205,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D80" s="70" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E80" s="13">
         <v>0.15</v>
@@ -4228,10 +4225,10 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
@@ -4239,13 +4236,13 @@
         <v>42668</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D83" s="68">
         <v>42678</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.3">
@@ -4253,13 +4250,13 @@
         <v>42669</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D84" s="68">
         <v>42691</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.3">
@@ -4267,13 +4264,13 @@
         <v>42670</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D85" s="68">
         <v>42691</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.3">
@@ -4281,13 +4278,13 @@
         <v>42676</v>
       </c>
       <c r="C86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D86" s="68">
         <v>42691</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.3">
@@ -4295,11 +4292,11 @@
         <v>42671</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D87" s="68"/>
       <c r="E87" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
@@ -4307,13 +4304,13 @@
         <v>42668</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D88" s="68">
         <v>42671</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.3">
@@ -4322,14 +4319,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J80">
-    <filterColumn colId="6">
-      <filters blank="1">
-        <filter val="0%"/>
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
       <formula>1</formula>
@@ -5467,7 +5456,7 @@
       <c r="L34" s="46"/>
       <c r="M34" s="26"/>
     </row>
-    <row r="35" spans="1:13" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$81</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="249">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -772,22 +772,34 @@
     <t>STATO PROD</t>
   </si>
   <si>
-    <t>rilascio il 20/01</t>
-  </si>
-  <si>
     <t>FM/MD</t>
   </si>
   <si>
     <t>override ind.36</t>
   </si>
   <si>
-    <t>rilascio il 20/02</t>
-  </si>
-  <si>
     <t>Finanziamenti esteri: inserimento floor per calcolo giorni scaduto su indicatori importo</t>
   </si>
   <si>
     <t>a giugno?</t>
+  </si>
+  <si>
+    <t>testare AQR per Banca BIB</t>
+  </si>
+  <si>
+    <t>AC/MD</t>
+  </si>
+  <si>
+    <t>11/01 inizio UAT e rilascio in prod 20/01</t>
+  </si>
+  <si>
+    <t>16/01 inizio UAT e rilascio il 20/01</t>
+  </si>
+  <si>
+    <t>06/02 inizio UAT e rilascio il 20/02</t>
+  </si>
+  <si>
+    <t>10/01 inizio UAT e rilascio il 20/01</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1324,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1913,10 +1955,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE127"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1963,7 +2006,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -1993,7 +2036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -2025,7 +2068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
@@ -2055,7 +2098,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -2085,7 +2128,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -2116,7 +2159,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2145,7 +2188,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2174,7 +2217,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2203,7 +2246,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2232,7 +2275,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2261,7 +2304,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2292,7 +2335,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2321,7 +2364,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -2350,7 +2393,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -2379,7 +2422,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -2408,7 +2451,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -2439,7 +2482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -2468,7 +2511,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -2497,7 +2540,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -2528,7 +2571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -2557,7 +2600,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -2586,7 +2629,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -2615,7 +2658,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -2644,7 +2687,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -2673,7 +2716,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -2702,7 +2745,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -2731,7 +2774,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -2760,7 +2803,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -2789,7 +2832,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -2818,7 +2861,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -2847,7 +2890,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -2878,7 +2921,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -2907,7 +2950,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -2936,7 +2979,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -2965,7 +3008,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -2994,7 +3037,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -3023,7 +3066,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -3052,7 +3095,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -3081,7 +3124,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -3110,7 +3153,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -3141,7 +3184,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -3170,7 +3213,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -3201,7 +3244,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -3232,7 +3275,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3263,7 +3306,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3309,12 +3352,8 @@
       <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="F47" s="13">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="5">
         <v>2</v>
       </c>
@@ -3322,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -3348,7 +3387,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -3379,7 +3418,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -3410,7 +3449,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -3441,7 +3480,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3471,7 +3510,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3534,7 +3573,7 @@
         <v>182</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E55" s="13">
         <v>0.15</v>
@@ -3548,10 +3587,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3581,7 +3620,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3611,7 +3650,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3628,7 +3667,9 @@
       <c r="F58" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="13"/>
+      <c r="G58" s="13">
+        <v>1</v>
+      </c>
       <c r="H58" s="5">
         <v>1</v>
       </c>
@@ -3689,7 +3730,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3745,7 +3786,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3773,7 +3814,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3803,7 +3844,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3883,7 +3924,7 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3911,7 +3952,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3948,7 +3989,7 @@
         <v>218</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E70" s="13">
         <v>0.15</v>
@@ -3962,7 +4003,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.3">
@@ -3988,10 +4029,10 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -4021,7 +4062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -4051,7 +4092,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -4065,8 +4106,12 @@
       <c r="E74" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="13"/>
+      <c r="F74" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G74" s="13">
+        <v>1</v>
+      </c>
       <c r="H74" s="5">
         <v>1</v>
       </c>
@@ -4122,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.3">
@@ -4160,7 +4205,9 @@
       <c r="D78" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="13"/>
+      <c r="E78" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="5">
@@ -4179,10 +4226,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E79" s="13">
         <v>0.15</v>
@@ -4196,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.3">
@@ -4205,10 +4252,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D80" s="70" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E80" s="13">
         <v>0.15</v>
@@ -4223,48 +4270,58 @@
       </c>
       <c r="J80" s="1"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C82" t="s">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B81" s="7">
+        <f>+B80+1</f>
+        <v>80</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D81" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="5">
+        <v>1</v>
+      </c>
+      <c r="I81" s="5">
+        <v>2</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
         <v>209</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D83" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B83" s="69">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B84" s="69">
         <v>42668</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C84" t="s">
         <v>196</v>
       </c>
-      <c r="D83" s="68">
+      <c r="D84" s="68">
         <v>42678</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E84" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B84" s="69">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B85" s="69">
         <v>42669</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C85" t="s">
         <v>197</v>
-      </c>
-      <c r="D84" s="68">
-        <v>42691</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B85" s="69">
-        <v>42670</v>
-      </c>
-      <c r="C85" t="s">
-        <v>199</v>
       </c>
       <c r="D85" s="68">
         <v>42691</v>
@@ -4273,12 +4330,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B86" s="67">
-        <v>42676</v>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B86" s="69">
+        <v>42670</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D86" s="68">
         <v>42691</v>
@@ -4287,180 +4344,216 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B87" s="67">
-        <v>42671</v>
+        <v>42676</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D87" s="68"/>
+        <v>198</v>
+      </c>
+      <c r="D87" s="68">
+        <v>42691</v>
+      </c>
       <c r="E87" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="69">
-        <v>42668</v>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B88" s="67">
+        <v>42671</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" s="68">
-        <v>42671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="D88" s="68"/>
       <c r="E88" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="69">
+        <v>42668</v>
+      </c>
+      <c r="C89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="68">
+        <v>42671</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:J81">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="0%"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="F71:G71">
     <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E71:G71">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="15" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
+  <conditionalFormatting sqref="F81:G81">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="F81:G81">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="E81">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4599,7 +4692,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C35" sqref="C35"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Plan DEV" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$87</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="262">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -801,12 +802,51 @@
   <si>
     <t>10/01 inizio UAT e rilascio il 20/01</t>
   </si>
+  <si>
+    <t>motore ALEX BANK</t>
+  </si>
+  <si>
+    <t>27/02 inizio UAT e go live 31/03</t>
+  </si>
+  <si>
+    <t>file test e TCK ALEX BANK</t>
+  </si>
+  <si>
+    <t>entro il 17/02</t>
+  </si>
+  <si>
+    <t>Italia</t>
+  </si>
+  <si>
+    <t>BIB</t>
+  </si>
+  <si>
+    <t>Alex Bank</t>
+  </si>
+  <si>
+    <t>motore CIB BANK</t>
+  </si>
+  <si>
+    <t>file test e TCK CIB BANK</t>
+  </si>
+  <si>
+    <t>03/04 inizio UAT e go live 30/04</t>
+  </si>
+  <si>
+    <t>AFU ALEX BANK</t>
+  </si>
+  <si>
+    <t>AFU CIB BANK</t>
+  </si>
+  <si>
+    <t>CIB Bank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -902,8 +942,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Bookshelf Symbol 7"/>
+      <charset val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -970,8 +1023,46 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="225">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="7"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="225">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="5" tint="-0.25098422193060094"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1123,11 +1214,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1320,11 +1471,175 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="47">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1956,27 +2271,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="9.8984375" customWidth="1"/>
-    <col min="3" max="3" width="83.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.09765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.8984375" style="6" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="73.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>18</v>
@@ -2006,7 +2321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" hidden="1">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -2036,7 +2351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" hidden="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -2068,7 +2383,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" hidden="1">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
@@ -2098,7 +2413,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" hidden="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -2128,7 +2443,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" hidden="1">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -2159,7 +2474,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" hidden="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2188,7 +2503,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" hidden="1">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2217,7 +2532,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" hidden="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2246,7 +2561,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" hidden="1">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2275,7 +2590,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" hidden="1">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2304,7 +2619,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" hidden="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2335,7 +2650,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" hidden="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2364,7 +2679,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" hidden="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -2393,7 +2708,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" hidden="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -2422,7 +2737,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" hidden="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -2451,7 +2766,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -2482,7 +2797,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -2511,7 +2826,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -2540,7 +2855,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -2571,7 +2886,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -2600,7 +2915,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -2629,7 +2944,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -2658,7 +2973,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -2687,7 +3002,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -2716,7 +3031,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -2745,7 +3060,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -2774,7 +3089,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -2803,7 +3118,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -2832,7 +3147,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -2861,7 +3176,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -2890,7 +3205,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -2921,7 +3236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -2950,7 +3265,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -2979,7 +3294,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -3008,7 +3323,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -3037,7 +3352,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -3066,7 +3381,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -3095,7 +3410,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -3124,7 +3439,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -3153,7 +3468,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -3184,7 +3499,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -3213,7 +3528,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -3244,7 +3559,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -3275,7 +3590,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3306,7 +3621,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3337,7 +3652,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47" s="1"/>
       <c r="B47" s="7">
         <f t="shared" si="0"/>
@@ -3364,7 +3679,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48" s="1"/>
       <c r="B48" s="7">
         <f t="shared" si="0"/>
@@ -3387,7 +3702,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -3418,7 +3733,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -3449,7 +3764,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -3480,7 +3795,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" hidden="1">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3510,7 +3825,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" hidden="1">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -3540,7 +3855,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="B54" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3564,7 +3879,7 @@
       </c>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="B55" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3590,7 +3905,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" hidden="1">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3620,7 +3935,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" hidden="1">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3650,7 +3965,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" hidden="1">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3678,7 +3993,7 @@
       </c>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="B59" s="7">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3704,7 +4019,7 @@
       </c>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="B60" s="7">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3730,7 +4045,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" hidden="1">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3760,7 +4075,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="B62" s="7">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3786,7 +4101,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" hidden="1">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3814,7 +4129,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" hidden="1">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3844,7 +4159,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:10" hidden="1">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3874,7 +4189,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:10">
       <c r="B66" s="7">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3885,7 +4200,9 @@
       <c r="D66" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="13"/>
+      <c r="E66" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="F66" s="13" t="s">
         <v>49</v>
       </c>
@@ -3900,7 +4217,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:10">
       <c r="B67" s="7">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -3911,7 +4228,9 @@
       <c r="D67" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="13"/>
+      <c r="E67" s="13" t="s">
+        <v>173</v>
+      </c>
       <c r="F67" s="13" t="s">
         <v>49</v>
       </c>
@@ -3924,7 +4243,7 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:10" hidden="1">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -3952,7 +4271,7 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:10" hidden="1">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -3980,7 +4299,7 @@
       </c>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:10">
       <c r="B70" s="7">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -4006,7 +4325,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:10">
       <c r="B71" s="7">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -4032,7 +4351,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:10" hidden="1">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -4062,7 +4381,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:10" hidden="1">
       <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -4092,7 +4411,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="74" spans="2:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:10" hidden="1">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -4122,7 +4441,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:10">
       <c r="B75" s="7">
         <f t="shared" si="0"/>
         <v>74</v>
@@ -4146,7 +4465,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:10">
       <c r="B76" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
@@ -4170,7 +4489,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:10">
       <c r="B77" s="7">
         <f t="shared" si="0"/>
         <v>76</v>
@@ -4194,7 +4513,7 @@
       </c>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:10">
       <c r="B78" s="7">
         <f t="shared" si="0"/>
         <v>77</v>
@@ -4220,7 +4539,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:10">
       <c r="B79" s="7">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -4246,7 +4565,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:10">
       <c r="B80" s="7">
         <f>+B79+1</f>
         <v>79</v>
@@ -4270,7 +4589,7 @@
       </c>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:10">
       <c r="B81" s="7">
         <f>+B80+1</f>
         <v>80</v>
@@ -4294,265 +4613,484 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C83" t="s">
+    <row r="82" spans="2:10">
+      <c r="B82" s="7">
+        <f t="shared" ref="B82:B87" si="1">+B81+1</f>
+        <v>81</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="D82" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H82" s="5">
+        <v>1</v>
+      </c>
+      <c r="I82" s="5">
+        <v>2</v>
+      </c>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="7">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="G83" s="13"/>
+      <c r="H83" s="5">
+        <v>1</v>
+      </c>
+      <c r="I83" s="5">
+        <v>3</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="7">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="5">
+        <v>1</v>
+      </c>
+      <c r="I84" s="5">
+        <v>3</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="7">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85" s="70" t="s">
+        <v>26</v>
+      </c>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1</v>
+      </c>
+      <c r="I85" s="5">
+        <v>2</v>
+      </c>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="7">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="5">
+        <v>1</v>
+      </c>
+      <c r="I86" s="5">
+        <v>3</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="7">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" s="70" t="s">
+        <v>244</v>
+      </c>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="5">
+        <v>1</v>
+      </c>
+      <c r="I87" s="5">
+        <v>3</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="C89" t="s">
         <v>209</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D89" s="6" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="69">
+    <row r="90" spans="2:10">
+      <c r="B90" s="69">
         <v>42668</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="D84" s="68">
+      <c r="D90" s="68">
         <v>42678</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E90" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B85" s="69">
+    <row r="91" spans="2:10">
+      <c r="B91" s="69">
         <v>42669</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="D85" s="68">
+      <c r="D91" s="68">
         <v>42691</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="E91" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="69">
+    <row r="92" spans="2:10">
+      <c r="B92" s="69">
         <v>42670</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C92" t="s">
         <v>199</v>
       </c>
-      <c r="D86" s="68">
+      <c r="D92" s="68">
         <v>42691</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E92" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B87" s="67">
+    <row r="93" spans="2:10">
+      <c r="B93" s="67">
         <v>42676</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C93" t="s">
         <v>198</v>
       </c>
-      <c r="D87" s="68">
+      <c r="D93" s="68">
         <v>42691</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E93" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B88" s="67">
+    <row r="94" spans="2:10">
+      <c r="B94" s="67">
         <v>42671</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="D88" s="68"/>
-      <c r="E88" s="6" t="s">
+      <c r="D94" s="68"/>
+      <c r="E94" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B89" s="69">
+    <row r="95" spans="2:10">
+      <c r="B95" s="69">
         <v>42668</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="D89" s="68">
+      <c r="D95" s="68">
         <v>42671</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E95" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J81">
+  <autoFilter ref="B1:J87">
     <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="0%"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:G71">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:G72">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:G73">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:G73">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74:G74">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:G74">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:G75">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:G75">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:G76">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="lessThan">
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="lessThan">
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="F87:G87">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+  <conditionalFormatting sqref="F87:G87">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G81">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G81">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -4570,14 +5108,14 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="5.69921875" customWidth="1"/>
     <col min="2" max="2" width="28.8984375" customWidth="1"/>
     <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>44</v>
       </c>
@@ -4585,7 +5123,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>41</v>
       </c>
@@ -4596,7 +5134,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>42</v>
       </c>
@@ -4607,7 +5145,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>43</v>
       </c>
@@ -4618,7 +5156,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>43</v>
       </c>
@@ -4629,7 +5167,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -4640,7 +5178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>43</v>
       </c>
@@ -4651,7 +5189,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>43</v>
       </c>
@@ -4662,7 +5200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -4673,7 +5211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" t="s">
         <v>33</v>
@@ -4698,7 +5236,7 @@
       <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="2" width="2.69921875" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.09765625" style="22" bestFit="1" customWidth="1"/>
@@ -4711,8 +5249,8 @@
     <col min="14" max="16384" width="8.69921875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:13" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.4" thickBot="1"/>
+    <row r="2" spans="1:13" ht="55.8" thickBot="1">
       <c r="A2" s="16" t="s">
         <v>170</v>
       </c>
@@ -4753,7 +5291,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="42" thickBot="1">
       <c r="A3" s="28"/>
       <c r="B3" s="28">
         <v>23</v>
@@ -4788,7 +5326,7 @@
       <c r="L3" s="33"/>
       <c r="M3" s="23"/>
     </row>
-    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="51">
       <c r="A4" s="34" t="s">
         <v>171</v>
       </c>
@@ -4827,7 +5365,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="14.4" thickBot="1">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="39"/>
@@ -4850,7 +5388,7 @@
       <c r="L5" s="38"/>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="30.6">
       <c r="A6" s="34"/>
       <c r="B6" s="34">
         <v>3</v>
@@ -4885,7 +5423,7 @@
       <c r="L6" s="34"/>
       <c r="M6" s="24"/>
     </row>
-    <row r="7" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="14.4" thickBot="1">
       <c r="A7" s="38"/>
       <c r="B7" s="38"/>
       <c r="C7" s="44"/>
@@ -4902,7 +5440,7 @@
       <c r="L7" s="38"/>
       <c r="M7" s="25"/>
     </row>
-    <row r="8" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="40.799999999999997">
       <c r="A8" s="34"/>
       <c r="B8" s="34">
         <v>4</v>
@@ -4937,7 +5475,7 @@
       <c r="L8" s="34"/>
       <c r="M8" s="24"/>
     </row>
-    <row r="9" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.4" thickBot="1">
       <c r="A9" s="38"/>
       <c r="B9" s="38"/>
       <c r="C9" s="44"/>
@@ -4954,7 +5492,7 @@
       <c r="L9" s="38"/>
       <c r="M9" s="25"/>
     </row>
-    <row r="10" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="27.6">
       <c r="A10" s="34"/>
       <c r="B10" s="34">
         <v>26</v>
@@ -4989,7 +5527,7 @@
       <c r="L10" s="34"/>
       <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11" s="46"/>
       <c r="B11" s="46"/>
       <c r="C11" s="47"/>
@@ -5006,7 +5544,7 @@
       <c r="L11" s="46"/>
       <c r="M11" s="26"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" s="46"/>
       <c r="B12" s="46"/>
       <c r="C12" s="47"/>
@@ -5023,7 +5561,7 @@
       <c r="L12" s="46"/>
       <c r="M12" s="26"/>
     </row>
-    <row r="13" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="21" thickBot="1">
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="39"/>
@@ -5040,7 +5578,7 @@
       <c r="L13" s="38"/>
       <c r="M13" s="25"/>
     </row>
-    <row r="14" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="20.399999999999999">
       <c r="A14" s="34"/>
       <c r="B14" s="34">
         <v>2</v>
@@ -5075,7 +5613,7 @@
       <c r="L14" s="34"/>
       <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14.4" thickBot="1">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="39"/>
@@ -5096,7 +5634,7 @@
       <c r="L15" s="38"/>
       <c r="M15" s="25"/>
     </row>
-    <row r="16" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="42" thickBot="1">
       <c r="A16" s="28"/>
       <c r="B16" s="28">
         <v>24</v>
@@ -5133,7 +5671,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="27.6">
       <c r="A17" s="34" t="s">
         <v>171</v>
       </c>
@@ -5172,7 +5710,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.4" thickBot="1">
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="39"/>
@@ -5195,7 +5733,7 @@
       <c r="L18" s="38"/>
       <c r="M18" s="25"/>
     </row>
-    <row r="19" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="27.6">
       <c r="A19" s="34"/>
       <c r="B19" s="34">
         <v>22</v>
@@ -5228,7 +5766,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="28.2" thickBot="1">
       <c r="A20" s="38"/>
       <c r="B20" s="38"/>
       <c r="C20" s="29" t="s">
@@ -5245,7 +5783,7 @@
       <c r="L20" s="38"/>
       <c r="M20" s="25"/>
     </row>
-    <row r="21" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="40.799999999999997">
       <c r="A21" s="34"/>
       <c r="B21" s="34">
         <v>20</v>
@@ -5280,7 +5818,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="24"/>
     </row>
-    <row r="22" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="14.4" thickBot="1">
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="39"/>
@@ -5297,7 +5835,7 @@
       <c r="L22" s="38"/>
       <c r="M22" s="25"/>
     </row>
-    <row r="23" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="27.6">
       <c r="A23" s="34" t="s">
         <v>171</v>
       </c>
@@ -5336,7 +5874,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="20.399999999999999">
       <c r="A24" s="46"/>
       <c r="B24" s="46"/>
       <c r="C24" s="47"/>
@@ -5361,7 +5899,7 @@
       <c r="L24" s="46"/>
       <c r="M24" s="26"/>
     </row>
-    <row r="25" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="20.399999999999999">
       <c r="A25" s="46"/>
       <c r="B25" s="46"/>
       <c r="C25" s="47"/>
@@ -5378,7 +5916,7 @@
       <c r="L25" s="46"/>
       <c r="M25" s="26"/>
     </row>
-    <row r="26" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="20.399999999999999">
       <c r="A26" s="46"/>
       <c r="B26" s="46"/>
       <c r="C26" s="47"/>
@@ -5395,7 +5933,7 @@
       <c r="L26" s="46"/>
       <c r="M26" s="26"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27" s="46"/>
       <c r="B27" s="46"/>
       <c r="C27" s="47"/>
@@ -5412,7 +5950,7 @@
       <c r="L27" s="46"/>
       <c r="M27" s="26"/>
     </row>
-    <row r="28" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="14.4" thickBot="1">
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39"/>
@@ -5429,7 +5967,7 @@
       <c r="L28" s="38"/>
       <c r="M28" s="25"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="34"/>
       <c r="B29" s="34">
         <v>7</v>
@@ -5464,7 +6002,7 @@
       <c r="L29" s="34"/>
       <c r="M29" s="24"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30" s="46"/>
       <c r="B30" s="46"/>
       <c r="C30" s="47"/>
@@ -5481,7 +6019,7 @@
       <c r="L30" s="46"/>
       <c r="M30" s="26"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31" s="46"/>
       <c r="B31" s="46"/>
       <c r="C31" s="47"/>
@@ -5498,7 +6036,7 @@
       <c r="L31" s="46"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32" s="46"/>
       <c r="B32" s="46"/>
       <c r="C32" s="47"/>
@@ -5515,7 +6053,7 @@
       <c r="L32" s="46"/>
       <c r="M32" s="26"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="46"/>
       <c r="B33" s="46"/>
       <c r="C33" s="47"/>
@@ -5532,7 +6070,7 @@
       <c r="L33" s="46"/>
       <c r="M33" s="26"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34" s="46"/>
       <c r="B34" s="46"/>
       <c r="C34" s="47"/>
@@ -5549,7 +6087,7 @@
       <c r="L34" s="46"/>
       <c r="M34" s="26"/>
     </row>
-    <row r="35" spans="1:13" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="51.6" thickBot="1">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="39"/>
@@ -5566,7 +6104,7 @@
       <c r="L35" s="38"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="28.2" thickBot="1">
       <c r="A36" s="28" t="s">
         <v>171</v>
       </c>
@@ -5605,7 +6143,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="34"/>
       <c r="B37" s="34">
         <v>9</v>
@@ -5640,7 +6178,7 @@
       <c r="L37" s="34"/>
       <c r="M37" s="24"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="46"/>
       <c r="B38" s="46"/>
       <c r="C38" s="47"/>
@@ -5657,7 +6195,7 @@
       <c r="L38" s="46"/>
       <c r="M38" s="26"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="46"/>
       <c r="B39" s="46"/>
       <c r="C39" s="47"/>
@@ -5674,7 +6212,7 @@
       <c r="L39" s="46"/>
       <c r="M39" s="26"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="46"/>
       <c r="B40" s="46"/>
       <c r="C40" s="47"/>
@@ -5691,7 +6229,7 @@
       <c r="L40" s="46"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="46"/>
       <c r="B41" s="46"/>
       <c r="C41" s="47"/>
@@ -5708,7 +6246,7 @@
       <c r="L41" s="46"/>
       <c r="M41" s="26"/>
     </row>
-    <row r="42" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="14.4" thickBot="1">
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="39"/>
@@ -5725,7 +6263,7 @@
       <c r="L42" s="38"/>
       <c r="M42" s="25"/>
     </row>
-    <row r="43" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="21" thickBot="1">
       <c r="A43" s="28"/>
       <c r="B43" s="28">
         <v>10</v>
@@ -5760,7 +6298,7 @@
       <c r="L43" s="33"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:13" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="41.4" thickBot="1">
       <c r="A44" s="28"/>
       <c r="B44" s="28">
         <v>16</v>
@@ -5794,6 +6332,718 @@
       </c>
       <c r="L44" s="33"/>
       <c r="M44" s="23"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="1.796875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.8984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="5.19921875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="5.69921875" style="27" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="5.3984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="6" style="27" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="6.19921875" style="27" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="5.296875" style="27" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.796875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:34" ht="15.6">
+      <c r="D1" s="80" t="str">
+        <f ca="1">IF(TODAY()&gt;D2,IF(TODAY()&lt;E2,"p",""),"")</f>
+        <v/>
+      </c>
+      <c r="E1" s="80" t="str">
+        <f t="shared" ref="E1:AH1" ca="1" si="0">IF(TODAY()&gt;E2,IF(TODAY()&lt;F2,"p",""),"")</f>
+        <v/>
+      </c>
+      <c r="F1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>p</v>
+      </c>
+      <c r="H1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="K1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="L1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="M1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="N1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="O1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="P1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Q1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="R1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="S1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="T1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="U1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="V1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="W1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="X1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Y1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="Z1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AA1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AB1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AC1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AD1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AE1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AF1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AG1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="AH1" s="80" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="2:34">
+      <c r="B2" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74">
+        <v>42702</v>
+      </c>
+      <c r="E2" s="74">
+        <f>7+D2</f>
+        <v>42709</v>
+      </c>
+      <c r="F2" s="74">
+        <f t="shared" ref="F2:AH2" si="1">7+E2</f>
+        <v>42716</v>
+      </c>
+      <c r="G2" s="74">
+        <f t="shared" si="1"/>
+        <v>42723</v>
+      </c>
+      <c r="H2" s="74">
+        <f t="shared" si="1"/>
+        <v>42730</v>
+      </c>
+      <c r="I2" s="74">
+        <f t="shared" si="1"/>
+        <v>42737</v>
+      </c>
+      <c r="J2" s="74">
+        <f t="shared" si="1"/>
+        <v>42744</v>
+      </c>
+      <c r="K2" s="74">
+        <f t="shared" si="1"/>
+        <v>42751</v>
+      </c>
+      <c r="L2" s="74">
+        <f t="shared" si="1"/>
+        <v>42758</v>
+      </c>
+      <c r="M2" s="74">
+        <f t="shared" si="1"/>
+        <v>42765</v>
+      </c>
+      <c r="N2" s="74">
+        <f t="shared" si="1"/>
+        <v>42772</v>
+      </c>
+      <c r="O2" s="74">
+        <f t="shared" si="1"/>
+        <v>42779</v>
+      </c>
+      <c r="P2" s="74">
+        <f t="shared" si="1"/>
+        <v>42786</v>
+      </c>
+      <c r="Q2" s="74">
+        <f t="shared" si="1"/>
+        <v>42793</v>
+      </c>
+      <c r="R2" s="74">
+        <f t="shared" si="1"/>
+        <v>42800</v>
+      </c>
+      <c r="S2" s="74">
+        <f t="shared" si="1"/>
+        <v>42807</v>
+      </c>
+      <c r="T2" s="74">
+        <f t="shared" si="1"/>
+        <v>42814</v>
+      </c>
+      <c r="U2" s="74">
+        <f t="shared" si="1"/>
+        <v>42821</v>
+      </c>
+      <c r="V2" s="74">
+        <f t="shared" si="1"/>
+        <v>42828</v>
+      </c>
+      <c r="W2" s="74">
+        <f t="shared" si="1"/>
+        <v>42835</v>
+      </c>
+      <c r="X2" s="74">
+        <f t="shared" si="1"/>
+        <v>42842</v>
+      </c>
+      <c r="Y2" s="74">
+        <f t="shared" si="1"/>
+        <v>42849</v>
+      </c>
+      <c r="Z2" s="74">
+        <f t="shared" si="1"/>
+        <v>42856</v>
+      </c>
+      <c r="AA2" s="74">
+        <f t="shared" si="1"/>
+        <v>42863</v>
+      </c>
+      <c r="AB2" s="74">
+        <f t="shared" si="1"/>
+        <v>42870</v>
+      </c>
+      <c r="AC2" s="74">
+        <f t="shared" si="1"/>
+        <v>42877</v>
+      </c>
+      <c r="AD2" s="74">
+        <f t="shared" si="1"/>
+        <v>42884</v>
+      </c>
+      <c r="AE2" s="74">
+        <f t="shared" si="1"/>
+        <v>42891</v>
+      </c>
+      <c r="AF2" s="74">
+        <f t="shared" si="1"/>
+        <v>42898</v>
+      </c>
+      <c r="AG2" s="74">
+        <f t="shared" si="1"/>
+        <v>42905</v>
+      </c>
+      <c r="AH2" s="74">
+        <f t="shared" si="1"/>
+        <v>42912</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34">
+      <c r="B3" s="75">
+        <v>46</v>
+      </c>
+      <c r="C3" s="76" t="str">
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>indicatori esperenziali</v>
+      </c>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+    </row>
+    <row r="4" spans="2:34">
+      <c r="B4" s="75">
+        <v>54</v>
+      </c>
+      <c r="C4" s="76" t="str">
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
+      </c>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+    </row>
+    <row r="5" spans="2:34">
+      <c r="B5" s="75">
+        <v>69</v>
+      </c>
+      <c r="C5" s="76" t="str">
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="76"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+    </row>
+    <row r="6" spans="2:34">
+      <c r="B6" s="75">
+        <v>70</v>
+      </c>
+      <c r="C6" s="76" t="str">
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>override NOPG</v>
+      </c>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+    </row>
+    <row r="7" spans="2:34">
+      <c r="B7" s="75">
+        <v>78</v>
+      </c>
+      <c r="C7" s="76" t="str">
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>override ind.36</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="76"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+    </row>
+    <row r="8" spans="2:34">
+      <c r="B8" s="75">
+        <v>80</v>
+      </c>
+      <c r="C8" s="76" t="str">
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>testare AQR per Banca BIB</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+    </row>
+    <row r="9" spans="2:34">
+      <c r="B9" s="75">
+        <v>82</v>
+      </c>
+      <c r="C9" s="76" t="str">
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>motore ALEX BANK</v>
+      </c>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+    </row>
+    <row r="10" spans="2:34">
+      <c r="B10" s="75">
+        <v>83</v>
+      </c>
+      <c r="C10" s="76" t="str">
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>file test e TCK ALEX BANK</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+    </row>
+    <row r="11" spans="2:34">
+      <c r="B11" s="75">
+        <v>85</v>
+      </c>
+      <c r="C11" s="76" t="str">
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>motore CIB BANK</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
+      <c r="S11" s="82"/>
+      <c r="T11" s="82"/>
+      <c r="U11" s="82"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+    </row>
+    <row r="12" spans="2:34">
+      <c r="B12" s="75">
+        <v>86</v>
+      </c>
+      <c r="C12" s="76" t="str">
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <v>file test e TCK CIB BANK</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
+      <c r="R12" s="82"/>
+      <c r="S12" s="82"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+    </row>
+    <row r="14" spans="2:34">
+      <c r="B14" s="77"/>
+      <c r="C14" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34">
+      <c r="B15" s="78"/>
+      <c r="C15" s="27" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34">
+      <c r="B16" s="79"/>
+      <c r="C16" s="27" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="81"/>
+      <c r="C17" s="27" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="263">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -677,9 +677,6 @@
     <t>AC/FM</t>
   </si>
   <si>
-    <t>inserire nel nodo WOE la scrittura di campo categoriale alfanumerico</t>
-  </si>
-  <si>
     <t>Rilascio</t>
   </si>
   <si>
@@ -840,6 +837,12 @@
   </si>
   <si>
     <t>CIB Bank</t>
+  </si>
+  <si>
+    <t>VM - inserire nel nodo WOE la scrittura di campo categoriale alfanumerico</t>
+  </si>
+  <si>
+    <t>proporre di non passare le BR bis e ter nell'output visto che il campo BR le condensa tutte</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1492,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2270,11 +2303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AE135"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2306,10 +2338,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G1" s="71" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -2321,7 +2353,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:31" hidden="1">
+    <row r="2" spans="1:31">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -2351,7 +2383,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1">
+    <row r="3" spans="1:31">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -2383,7 +2415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1">
+    <row r="4" spans="1:31">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
@@ -2413,7 +2445,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" hidden="1">
+    <row r="5" spans="1:31">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -2443,7 +2475,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" hidden="1">
+    <row r="6" spans="1:31">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -2471,10 +2503,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" hidden="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2503,7 +2535,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31" hidden="1">
+    <row r="8" spans="1:31">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2532,7 +2564,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31" hidden="1">
+    <row r="9" spans="1:31">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2561,7 +2593,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31" hidden="1">
+    <row r="10" spans="1:31">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2590,7 +2622,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31" hidden="1">
+    <row r="11" spans="1:31">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2619,7 +2651,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31" hidden="1">
+    <row r="12" spans="1:31">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2650,7 +2682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1">
+    <row r="13" spans="1:31">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2679,7 +2711,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31" hidden="1">
+    <row r="14" spans="1:31">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -2708,7 +2740,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31" hidden="1">
+    <row r="15" spans="1:31">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -2737,7 +2769,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31" hidden="1">
+    <row r="16" spans="1:31">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -2766,7 +2798,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -2797,7 +2829,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1">
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -2826,7 +2858,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -2855,7 +2887,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -2886,7 +2918,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1">
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -2915,7 +2947,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -2944,7 +2976,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -2973,7 +3005,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -3002,7 +3034,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -3031,7 +3063,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -3060,7 +3092,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -3089,7 +3121,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -3118,7 +3150,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -3147,7 +3179,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -3176,7 +3208,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -3205,7 +3237,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -3236,7 +3268,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1">
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -3265,7 +3297,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -3294,7 +3326,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -3323,7 +3355,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -3352,7 +3384,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -3381,7 +3413,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -3410,7 +3442,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -3439,7 +3471,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -3468,7 +3500,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -3496,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -3528,7 +3560,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -3559,7 +3591,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1">
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -3590,7 +3622,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1">
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3618,10 +3650,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3676,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3702,7 +3734,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -3733,7 +3765,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1">
+    <row r="50" spans="1:10">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -3764,7 +3796,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1">
+    <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -3795,7 +3827,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1">
+    <row r="52" spans="1:10">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3825,13 +3857,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1">
+    <row r="53" spans="1:10">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>26</v>
@@ -3888,7 +3920,7 @@
         <v>182</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" s="13">
         <v>0.15</v>
@@ -3902,10 +3934,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3932,10 +3964,10 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3965,7 +3997,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1">
+    <row r="58" spans="1:10">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4045,7 +4077,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4101,7 +4133,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4129,7 +4161,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4156,10 +4188,10 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" hidden="1">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4223,7 +4255,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>83</v>
@@ -4243,13 +4275,13 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" hidden="1">
+    <row r="68" spans="2:10">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>24</v>
@@ -4271,13 +4303,13 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" hidden="1">
+    <row r="69" spans="2:10">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>26</v>
@@ -4305,10 +4337,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E70" s="13">
         <v>0.15</v>
@@ -4322,7 +4354,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4331,7 +4363,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>25</v>
@@ -4348,16 +4380,16 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" hidden="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>81</v>
@@ -4378,16 +4410,16 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" hidden="1">
-      <c r="B73" s="7">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>222</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
@@ -4408,22 +4440,22 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" hidden="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="D74" s="70" t="s">
+      <c r="E74" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>49</v>
@@ -4438,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4447,7 +4479,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="70" t="s">
         <v>24</v>
@@ -4462,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4471,7 +4503,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D76" s="70" t="s">
         <v>24</v>
@@ -4486,7 +4518,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -4495,10 +4527,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" s="70" t="s">
         <v>234</v>
-      </c>
-      <c r="D77" s="70" t="s">
-        <v>235</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
@@ -4519,7 +4551,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="70" t="s">
         <v>25</v>
@@ -4536,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -4545,10 +4577,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E79" s="13">
         <v>0.15</v>
@@ -4562,7 +4594,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -4571,10 +4603,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" s="70" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E80" s="13">
         <v>0.15</v>
@@ -4595,10 +4627,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D81" s="70" t="s">
         <v>243</v>
-      </c>
-      <c r="D81" s="70" t="s">
-        <v>244</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
@@ -4610,16 +4642,16 @@
         <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="7">
-        <f t="shared" ref="B82:B87" si="1">+B81+1</f>
+        <f t="shared" ref="B82:B88" si="1">+B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D82" s="70" t="s">
         <v>26</v>
@@ -4645,10 +4677,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13"/>
@@ -4660,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4669,10 +4701,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -4684,16 +4716,16 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="2:10">
       <c r="B85" s="7">
-        <f t="shared" si="1"/>
+        <f>+B84+1</f>
         <v>84</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D85" s="70" t="s">
         <v>26</v>
@@ -4717,10 +4749,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -4732,7 +4764,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -4741,10 +4773,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D87" s="70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -4756,341 +4788,376 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10">
-      <c r="C89" t="s">
-        <v>209</v>
-      </c>
-      <c r="D89" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="7">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="5">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5">
+        <v>3</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="C90" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="B90" s="69">
-        <v>42668</v>
-      </c>
-      <c r="C90" t="s">
-        <v>196</v>
-      </c>
-      <c r="D90" s="68">
-        <v>42678</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>214</v>
+      <c r="D90" s="6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="2:10">
       <c r="B91" s="69">
-        <v>42669</v>
+        <v>42668</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D91" s="68">
-        <v>42691</v>
+        <v>42678</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="2:10">
       <c r="B92" s="69">
-        <v>42670</v>
+        <v>42669</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D92" s="68">
         <v>42691</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="2:10">
-      <c r="B93" s="67">
-        <v>42676</v>
+      <c r="B93" s="69">
+        <v>42670</v>
       </c>
       <c r="C93" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D93" s="68">
         <v>42691</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="2:10">
       <c r="B94" s="67">
+        <v>42676</v>
+      </c>
+      <c r="C94" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" s="68">
+        <v>42691</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="67">
         <v>42671</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C95" t="s">
         <v>200</v>
       </c>
-      <c r="D94" s="68"/>
-      <c r="E94" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="69">
+      <c r="D95" s="68"/>
+      <c r="E95" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="69">
         <v>42668</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>201</v>
       </c>
-      <c r="D95" s="68">
+      <c r="D96" s="68">
         <v>42671</v>
       </c>
-      <c r="E95" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" t="s">
+      <c r="E96" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J87">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:J87"/>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
     <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="F71:G71">
     <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E71:G71">
     <cfRule type="cellIs" dxfId="44" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="42" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="20" priority="24" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -6343,11 +6410,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6626,7 +6693,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="76" t="str">
-        <f>VLOOKUP(B3,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="76"/>
@@ -6666,7 +6733,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="76" t="str">
-        <f>VLOOKUP(B4,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="76"/>
@@ -6706,7 +6773,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="76" t="str">
-        <f>VLOOKUP(B5,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="76"/>
@@ -6746,7 +6813,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="76" t="str">
-        <f>VLOOKUP(B6,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="76"/>
@@ -6786,7 +6853,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="76" t="str">
-        <f>VLOOKUP(B7,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="76"/>
@@ -6826,7 +6893,7 @@
         <v>80</v>
       </c>
       <c r="C8" s="76" t="str">
-        <f>VLOOKUP(B8,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D8" s="76"/>
@@ -6866,7 +6933,7 @@
         <v>82</v>
       </c>
       <c r="C9" s="76" t="str">
-        <f>VLOOKUP(B9,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
       <c r="D9" s="76"/>
@@ -6906,7 +6973,7 @@
         <v>83</v>
       </c>
       <c r="C10" s="76" t="str">
-        <f>VLOOKUP(B10,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D10" s="76"/>
@@ -6946,14 +7013,14 @@
         <v>85</v>
       </c>
       <c r="C11" s="76" t="str">
-        <f>VLOOKUP(B11,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
       <c r="D11" s="76"/>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
       <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
+      <c r="H11" s="82"/>
       <c r="I11" s="76"/>
       <c r="J11" s="76"/>
       <c r="K11" s="76"/>
@@ -6986,7 +7053,7 @@
         <v>86</v>
       </c>
       <c r="C12" s="76" t="str">
-        <f>VLOOKUP(B12,Sheet1!$B$47:$C$285,2,FALSE)</f>
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$286,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D12" s="76"/>
@@ -7024,25 +7091,25 @@
     <row r="14" spans="2:34">
       <c r="B14" s="77"/>
       <c r="C14" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="78"/>
       <c r="C15" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="79"/>
       <c r="C16" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="81"/>
       <c r="C17" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -18,7 +18,7 @@
     <sheet name="Plan DEV" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$91</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="262">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -644,24 +644,6 @@
     <t>BIR - fare excel UNIT TEST (ex TCK)</t>
   </si>
   <si>
-    <t>rilascio Fitch - chiediamo dati x test</t>
-  </si>
-  <si>
-    <t>rilascio moduli, sottomoduli e query - definitiva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rilascio semaforo di gruppo - ufficializziamo campi </t>
-  </si>
-  <si>
-    <t>rilascio colore verde carta commerciale - ufficializziamo campi</t>
-  </si>
-  <si>
-    <t>TCK per BIR</t>
-  </si>
-  <si>
-    <t>chiusura fix</t>
-  </si>
-  <si>
     <t>matrice ITA togliere il keep null su asse x per avere una sola riga</t>
   </si>
   <si>
@@ -677,12 +659,6 @@
     <t>AC/FM</t>
   </si>
   <si>
-    <t>Rilascio</t>
-  </si>
-  <si>
-    <t>Comunicazioni</t>
-  </si>
-  <si>
     <t>aggiornamento AFU (Fitch, ind_36, semaforo di gruppo)</t>
   </si>
   <si>
@@ -695,12 +671,6 @@
     <t>entro 27/10 -  - go live 11/11</t>
   </si>
   <si>
-    <t>IND in prod</t>
-  </si>
-  <si>
-    <t>tutto in prod</t>
-  </si>
-  <si>
     <t>primi casi (indicatori con numero di giorni)</t>
   </si>
   <si>
@@ -827,9 +797,6 @@
     <t>file test e TCK CIB BANK</t>
   </si>
   <si>
-    <t>03/04 inizio UAT e go live 30/04</t>
-  </si>
-  <si>
     <t>AFU ALEX BANK</t>
   </si>
   <si>
@@ -843,6 +810,36 @@
   </si>
   <si>
     <t>proporre di non passare le BR bis e ter nell'output visto che il campo BR le condensa tutte</t>
+  </si>
+  <si>
+    <t>ISPRO</t>
+  </si>
+  <si>
+    <t>ISBA</t>
+  </si>
+  <si>
+    <t>AFU ISPRO BANK</t>
+  </si>
+  <si>
+    <t>motore ISPRO BANK</t>
+  </si>
+  <si>
+    <t>file test e TCK ISPRO BANK</t>
+  </si>
+  <si>
+    <t>cambiare static di Alex Bank e modifica excel</t>
+  </si>
+  <si>
+    <t>05/04 inizio UAT e go live 05/05</t>
+  </si>
+  <si>
+    <t>entro 15/03</t>
+  </si>
+  <si>
+    <t>entro 15/04</t>
+  </si>
+  <si>
+    <t>05/05 inizio UAT e go live 05/06</t>
   </si>
 </sst>
 </file>
@@ -959,7 +956,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1063,6 +1060,18 @@
           <color theme="5" tint="-0.25098422193060094"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -1281,7 +1290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1463,11 +1472,6 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1488,11 +1492,133 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2303,10 +2429,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE135"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AE131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2338,10 +2465,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>237</v>
+        <v>208</v>
+      </c>
+      <c r="G1" s="68" t="s">
+        <v>227</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -2353,7 +2480,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" hidden="1">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -2383,7 +2510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" hidden="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -2415,7 +2542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" hidden="1">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
@@ -2445,7 +2572,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" hidden="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -2475,7 +2602,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" hidden="1">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -2503,10 +2630,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" hidden="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2535,7 +2662,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" hidden="1">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2564,7 +2691,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" hidden="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2593,7 +2720,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" hidden="1">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2622,7 +2749,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" hidden="1">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2651,7 +2778,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" hidden="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2682,7 +2809,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" hidden="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2711,7 +2838,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" hidden="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -2740,7 +2867,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" hidden="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -2769,7 +2896,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" hidden="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -2798,7 +2925,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" hidden="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -2829,7 +2956,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" hidden="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -2858,7 +2985,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" hidden="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -2887,7 +3014,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" hidden="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -2918,7 +3045,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" hidden="1">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -2947,7 +3074,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" hidden="1">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -2976,7 +3103,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" hidden="1">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -3005,7 +3132,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" hidden="1">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -3034,7 +3161,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" hidden="1">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -3063,7 +3190,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" hidden="1">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -3092,7 +3219,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" hidden="1">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -3121,7 +3248,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" hidden="1">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -3150,7 +3277,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" hidden="1">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -3179,7 +3306,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" hidden="1">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -3208,7 +3335,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" hidden="1">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -3237,7 +3364,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" hidden="1">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -3268,7 +3395,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" hidden="1">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -3297,7 +3424,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" hidden="1">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -3326,7 +3453,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" hidden="1">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -3355,7 +3482,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" hidden="1">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -3384,7 +3511,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" hidden="1">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -3413,7 +3540,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" hidden="1">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -3442,7 +3569,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" hidden="1">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -3471,7 +3598,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" hidden="1">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -3500,7 +3627,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" hidden="1">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -3528,10 +3655,10 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -3560,7 +3687,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" hidden="1">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -3591,7 +3718,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" hidden="1">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -3622,7 +3749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" hidden="1">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3650,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3699,7 +3826,9 @@
       <c r="E47" s="13">
         <v>1</v>
       </c>
-      <c r="F47" s="13"/>
+      <c r="F47" s="13">
+        <v>1</v>
+      </c>
       <c r="G47" s="13"/>
       <c r="H47" s="5">
         <v>2</v>
@@ -3708,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3734,7 +3863,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" hidden="1">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -3765,7 +3894,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" hidden="1">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -3796,7 +3925,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" hidden="1">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -3827,7 +3956,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" hidden="1">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3857,13 +3986,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" hidden="1">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>26</v>
@@ -3920,7 +4049,7 @@
         <v>182</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E55" s="13">
         <v>0.15</v>
@@ -3934,10 +4063,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3964,10 +4093,10 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" hidden="1">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -3997,7 +4126,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" hidden="1">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4077,7 +4206,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" hidden="1">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4133,7 +4262,7 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -4161,7 +4290,7 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -4170,7 +4299,7 @@
         <v>195</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
@@ -4188,16 +4317,16 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" hidden="1">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>83</v>
@@ -4218,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="2:10">
@@ -4227,7 +4356,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>25</v>
@@ -4246,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -4255,7 +4384,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>83</v>
@@ -4275,13 +4404,13 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" hidden="1">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>24</v>
@@ -4303,13 +4432,13 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" hidden="1">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>26</v>
@@ -4337,13 +4466,13 @@
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E70" s="13">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
@@ -4354,7 +4483,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4363,13 +4492,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E71" s="13">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -4380,16 +4509,16 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" hidden="1">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>81</v>
@@ -4410,16 +4539,16 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" hidden="1">
       <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
@@ -4440,22 +4569,22 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" hidden="1">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" s="70" t="s">
-        <v>225</v>
+        <v>214</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>215</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>49</v>
@@ -4470,7 +4599,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4479,9 +4608,9 @@
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D75" s="70" t="s">
+        <v>219</v>
+      </c>
+      <c r="D75" s="67" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="13"/>
@@ -4494,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4503,9 +4632,9 @@
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="D76" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="D76" s="67" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="13"/>
@@ -4518,7 +4647,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -4527,10 +4656,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="D77" s="70" t="s">
-        <v>234</v>
+        <v>223</v>
+      </c>
+      <c r="D77" s="67" t="s">
+        <v>224</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
@@ -4551,9 +4680,9 @@
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="D78" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="67" t="s">
         <v>25</v>
       </c>
       <c r="E78" s="13" t="s">
@@ -4568,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -4577,10 +4706,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="D79" s="70" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="D79" s="67" t="s">
+        <v>228</v>
       </c>
       <c r="E79" s="13">
         <v>0.15</v>
@@ -4594,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -4603,10 +4732,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D80" s="70" t="s">
-        <v>238</v>
+        <v>230</v>
+      </c>
+      <c r="D80" s="67" t="s">
+        <v>228</v>
       </c>
       <c r="E80" s="13">
         <v>0.15</v>
@@ -4627,12 +4756,14 @@
         <v>80</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D81" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="E81" s="13"/>
+        <v>232</v>
+      </c>
+      <c r="D81" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1</v>
+      </c>
       <c r="F81" s="13"/>
       <c r="G81" s="13"/>
       <c r="H81" s="5">
@@ -4642,18 +4773,18 @@
         <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" hidden="1">
       <c r="B82" s="7">
-        <f t="shared" ref="B82:B88" si="1">+B81+1</f>
+        <f t="shared" ref="B82:B92" si="1">+B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D82" s="70" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" s="67" t="s">
         <v>26</v>
       </c>
       <c r="E82" s="13">
@@ -4677,12 +4808,14 @@
         <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="70" t="s">
-        <v>243</v>
-      </c>
-      <c r="E83" s="13"/>
+        <v>238</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0.5</v>
+      </c>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
       <c r="H83" s="5">
@@ -4692,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4701,10 +4834,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="D84" s="70" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="D84" s="67" t="s">
+        <v>233</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -4716,18 +4849,18 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" hidden="1">
       <c r="B85" s="7">
         <f>+B84+1</f>
         <v>84</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="D85" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="67" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="13"/>
@@ -4749,10 +4882,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D86" s="70" t="s">
-        <v>243</v>
+        <v>245</v>
+      </c>
+      <c r="D86" s="67" t="s">
+        <v>233</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -4764,7 +4897,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -4773,10 +4906,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D87" s="70" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="D87" s="67" t="s">
+        <v>233</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -4788,7 +4921,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -4797,10 +4930,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" s="70" t="s">
-        <v>243</v>
+        <v>251</v>
+      </c>
+      <c r="D88" s="67" t="s">
+        <v>233</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -4811,353 +4944,421 @@
       <c r="I88" s="5">
         <v>3</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" spans="2:10" hidden="1">
+      <c r="B89" s="7">
+        <f>+B88+1</f>
+        <v>88</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="5">
+        <v>1</v>
+      </c>
+      <c r="I89" s="5">
+        <v>2</v>
+      </c>
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="7">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="5">
+        <v>1</v>
+      </c>
+      <c r="I90" s="5">
+        <v>3</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10">
+      <c r="B91" s="7">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D91" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="5">
+        <v>1</v>
+      </c>
+      <c r="I91" s="5">
+        <v>3</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10">
+      <c r="B92" s="7">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="C92" s="10" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="90" spans="2:10">
-      <c r="C90" t="s">
-        <v>208</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10">
-      <c r="B91" s="69">
-        <v>42668</v>
-      </c>
-      <c r="C91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D91" s="68">
-        <v>42678</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10">
-      <c r="B92" s="69">
-        <v>42669</v>
-      </c>
-      <c r="C92" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" s="68">
-        <v>42691</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10">
-      <c r="B93" s="69">
-        <v>42670</v>
-      </c>
-      <c r="C93" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93" s="68">
-        <v>42691</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10">
-      <c r="B94" s="67">
-        <v>42676</v>
-      </c>
-      <c r="C94" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" s="68">
-        <v>42691</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10">
-      <c r="B95" s="67">
-        <v>42671</v>
-      </c>
-      <c r="C95" t="s">
-        <v>200</v>
-      </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10">
-      <c r="B96" s="69">
-        <v>42668</v>
-      </c>
-      <c r="C96" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="68">
-        <v>42671</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" t="s">
+      <c r="D92" s="67" t="s">
+        <v>233</v>
+      </c>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="I92" s="5">
+        <v>1</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J87"/>
+  <autoFilter ref="B1:J91">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:G71">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:G72">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:G73">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:G73">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74:G74">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:G74">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="48" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="44" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="42" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F89:G89">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F89:G89">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -6408,13 +6609,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH17"/>
+  <dimension ref="B1:AH19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6434,682 +6635,694 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="15.6">
-      <c r="D1" s="80" t="str">
+      <c r="D1" s="77" t="str">
         <f ca="1">IF(TODAY()&gt;D2,IF(TODAY()&lt;E2,"p",""),"")</f>
         <v/>
       </c>
-      <c r="E1" s="80" t="str">
+      <c r="E1" s="77" t="str">
         <f t="shared" ref="E1:AH1" ca="1" si="0">IF(TODAY()&gt;E2,IF(TODAY()&lt;F2,"p",""),"")</f>
         <v/>
       </c>
-      <c r="F1" s="80" t="str">
+      <c r="F1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G1" s="80" t="str">
+      <c r="G1" s="77" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H1" s="77" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I1" s="77" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>p</v>
       </c>
-      <c r="H1" s="80" t="str">
+      <c r="K1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I1" s="80" t="str">
+      <c r="L1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J1" s="80" t="str">
+      <c r="M1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="K1" s="80" t="str">
+      <c r="N1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="L1" s="80" t="str">
+      <c r="O1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="M1" s="80" t="str">
+      <c r="P1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="N1" s="80" t="str">
+      <c r="Q1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="O1" s="80" t="str">
+      <c r="R1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="P1" s="80" t="str">
+      <c r="S1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="Q1" s="80" t="str">
+      <c r="T1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="R1" s="80" t="str">
+      <c r="U1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="S1" s="80" t="str">
+      <c r="V1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="T1" s="80" t="str">
+      <c r="W1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="U1" s="80" t="str">
+      <c r="X1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="V1" s="80" t="str">
+      <c r="Y1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="W1" s="80" t="str">
+      <c r="Z1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="X1" s="80" t="str">
+      <c r="AA1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="Y1" s="80" t="str">
+      <c r="AB1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="Z1" s="80" t="str">
+      <c r="AC1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AA1" s="80" t="str">
+      <c r="AD1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB1" s="80" t="str">
+      <c r="AE1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AC1" s="80" t="str">
+      <c r="AF1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AD1" s="80" t="str">
+      <c r="AG1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AE1" s="80" t="str">
+      <c r="AH1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AF1" s="80" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AG1" s="80" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="AH1" s="80" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="74">
+      <c r="C2" s="70"/>
+      <c r="D2" s="71">
         <v>42702</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="71">
         <f>7+D2</f>
         <v>42709</v>
       </c>
-      <c r="F2" s="74">
+      <c r="F2" s="71">
         <f t="shared" ref="F2:AH2" si="1">7+E2</f>
         <v>42716</v>
       </c>
-      <c r="G2" s="74">
+      <c r="G2" s="71">
         <f t="shared" si="1"/>
         <v>42723</v>
       </c>
-      <c r="H2" s="74">
+      <c r="H2" s="71">
         <f t="shared" si="1"/>
         <v>42730</v>
       </c>
-      <c r="I2" s="74">
+      <c r="I2" s="71">
         <f t="shared" si="1"/>
         <v>42737</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="71">
         <f t="shared" si="1"/>
         <v>42744</v>
       </c>
-      <c r="K2" s="74">
+      <c r="K2" s="71">
         <f t="shared" si="1"/>
         <v>42751</v>
       </c>
-      <c r="L2" s="74">
+      <c r="L2" s="71">
         <f t="shared" si="1"/>
         <v>42758</v>
       </c>
-      <c r="M2" s="74">
+      <c r="M2" s="71">
         <f t="shared" si="1"/>
         <v>42765</v>
       </c>
-      <c r="N2" s="74">
+      <c r="N2" s="71">
         <f t="shared" si="1"/>
         <v>42772</v>
       </c>
-      <c r="O2" s="74">
+      <c r="O2" s="71">
         <f t="shared" si="1"/>
         <v>42779</v>
       </c>
-      <c r="P2" s="74">
+      <c r="P2" s="71">
         <f t="shared" si="1"/>
         <v>42786</v>
       </c>
-      <c r="Q2" s="74">
+      <c r="Q2" s="71">
         <f t="shared" si="1"/>
         <v>42793</v>
       </c>
-      <c r="R2" s="74">
+      <c r="R2" s="71">
         <f t="shared" si="1"/>
         <v>42800</v>
       </c>
-      <c r="S2" s="74">
+      <c r="S2" s="71">
         <f t="shared" si="1"/>
         <v>42807</v>
       </c>
-      <c r="T2" s="74">
+      <c r="T2" s="71">
         <f t="shared" si="1"/>
         <v>42814</v>
       </c>
-      <c r="U2" s="74">
+      <c r="U2" s="71">
         <f t="shared" si="1"/>
         <v>42821</v>
       </c>
-      <c r="V2" s="74">
+      <c r="V2" s="71">
         <f t="shared" si="1"/>
         <v>42828</v>
       </c>
-      <c r="W2" s="74">
+      <c r="W2" s="71">
         <f t="shared" si="1"/>
         <v>42835</v>
       </c>
-      <c r="X2" s="74">
+      <c r="X2" s="71">
         <f t="shared" si="1"/>
         <v>42842</v>
       </c>
-      <c r="Y2" s="74">
+      <c r="Y2" s="71">
         <f t="shared" si="1"/>
         <v>42849</v>
       </c>
-      <c r="Z2" s="74">
+      <c r="Z2" s="71">
         <f t="shared" si="1"/>
         <v>42856</v>
       </c>
-      <c r="AA2" s="74">
+      <c r="AA2" s="71">
         <f t="shared" si="1"/>
         <v>42863</v>
       </c>
-      <c r="AB2" s="74">
+      <c r="AB2" s="71">
         <f t="shared" si="1"/>
         <v>42870</v>
       </c>
-      <c r="AC2" s="74">
+      <c r="AC2" s="71">
         <f t="shared" si="1"/>
         <v>42877</v>
       </c>
-      <c r="AD2" s="74">
+      <c r="AD2" s="71">
         <f t="shared" si="1"/>
         <v>42884</v>
       </c>
-      <c r="AE2" s="74">
+      <c r="AE2" s="71">
         <f t="shared" si="1"/>
         <v>42891</v>
       </c>
-      <c r="AF2" s="74">
+      <c r="AF2" s="71">
         <f t="shared" si="1"/>
         <v>42898</v>
       </c>
-      <c r="AG2" s="74">
+      <c r="AG2" s="71">
         <f t="shared" si="1"/>
         <v>42905</v>
       </c>
-      <c r="AH2" s="74">
+      <c r="AH2" s="71">
         <f t="shared" si="1"/>
         <v>42912</v>
       </c>
     </row>
     <row r="3" spans="2:34">
-      <c r="B3" s="75">
+      <c r="B3" s="72">
         <v>46</v>
       </c>
-      <c r="C3" s="76" t="str">
-        <f>VLOOKUP(B3,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C3" s="73" t="str">
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" s="75">
+      <c r="B4" s="72">
         <v>54</v>
       </c>
-      <c r="C4" s="76" t="str">
-        <f>VLOOKUP(B4,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C4" s="73" t="str">
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="73"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
     </row>
     <row r="5" spans="2:34">
-      <c r="B5" s="75">
+      <c r="B5" s="72">
         <v>69</v>
       </c>
-      <c r="C5" s="76" t="str">
-        <f>VLOOKUP(B5,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C5" s="73" t="str">
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="76"/>
-      <c r="AE5" s="76"/>
-      <c r="AF5" s="76"/>
-      <c r="AG5" s="76"/>
-      <c r="AH5" s="76"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
+      <c r="AB5" s="73"/>
+      <c r="AC5" s="73"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="75">
+      <c r="B6" s="72">
         <v>70</v>
       </c>
-      <c r="C6" s="76" t="str">
-        <f>VLOOKUP(B6,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C6" s="73" t="str">
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
+      <c r="AB6" s="73"/>
+      <c r="AC6" s="73"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="75">
+      <c r="B7" s="72">
         <v>78</v>
       </c>
-      <c r="C7" s="76" t="str">
-        <f>VLOOKUP(B7,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C7" s="73" t="str">
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="76"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="75">
+      <c r="B8" s="72">
         <v>80</v>
       </c>
-      <c r="C8" s="76" t="str">
-        <f>VLOOKUP(B8,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C8" s="73" t="str">
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="75">
+      <c r="B9" s="72">
         <v>82</v>
       </c>
-      <c r="C9" s="76" t="str">
-        <f>VLOOKUP(B9,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C9" s="73" t="str">
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="75">
+      <c r="B10" s="72">
         <v>83</v>
       </c>
-      <c r="C10" s="76" t="str">
-        <f>VLOOKUP(B10,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C10" s="73" t="str">
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="75">
+      <c r="B11" s="72">
         <v>85</v>
       </c>
-      <c r="C11" s="76" t="str">
-        <f>VLOOKUP(B11,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C11" s="73" t="str">
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="73"/>
+      <c r="AA11" s="73"/>
+      <c r="AB11" s="73"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="75">
+      <c r="B12" s="72">
         <v>86</v>
       </c>
-      <c r="C12" s="76" t="str">
-        <f>VLOOKUP(B12,Sheet1!$B$47:$C$286,2,FALSE)</f>
+      <c r="C12" s="73" t="str">
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$282,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="77"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34">
+      <c r="B15" s="75"/>
+      <c r="C15" s="27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34">
+      <c r="B16" s="76"/>
+      <c r="C16" s="27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="78"/>
+      <c r="C17" s="27" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="81"/>
+      <c r="C18" s="27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="2:34">
-      <c r="B15" s="78"/>
-      <c r="C15" s="27" t="s">
+    <row r="19" spans="2:3">
+      <c r="B19" s="82"/>
+      <c r="C19" s="27" t="s">
         <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="2:34">
-      <c r="B16" s="79"/>
-      <c r="C16" s="27" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="81"/>
-      <c r="C17" s="27" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="272">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -841,12 +841,225 @@
   <si>
     <t>05/05 inizio UAT e go live 05/06</t>
   </si>
+  <si>
+    <t>override 25 525 e 512</t>
+  </si>
+  <si>
+    <t>override 36 e 536</t>
+  </si>
+  <si>
+    <t>spegnimento BR 143 e 543 di Fitch in prod</t>
+  </si>
+  <si>
+    <t>override Fitch Rosso</t>
+  </si>
+  <si>
+    <t>rilascio il 27/01</t>
+  </si>
+  <si>
+    <r>
+      <t>1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">override NOPG </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file xls già inviato. Rimane da inserire </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>entro lunedì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in output i nuovi campi (indicatori override, br bis, ecc…)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">override 512 (Segnalazione a sofferenze) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> così chiudiamo il filone delle Segnalazione a sofferenze (BR12, BR212, prolungamento, ecc…).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>override 25 e 525 (Cds con spread 5Y)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>override 36 e 536 (Avvio procedura concorsuale)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">override Fitch (solo segmento banche) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al momento solo rosso. Prossimamente blu chiaro. </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -953,6 +1166,39 @@
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Bookshelf Symbol 7"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
       <charset val="2"/>
     </font>
   </fonts>
@@ -1290,7 +1536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1494,11 +1740,114 @@
     <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2432,8 +2781,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99:C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4778,7 +5127,7 @@
     </row>
     <row r="82" spans="2:10" hidden="1">
       <c r="B82" s="7">
-        <f t="shared" ref="B82:B92" si="1">+B81+1</f>
+        <f t="shared" ref="B82:B96" si="1">+B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
@@ -5040,6 +5389,133 @@
       </c>
       <c r="J92" s="1" t="s">
         <v>241</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10">
+      <c r="B93" s="7">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="5">
+        <v>1</v>
+      </c>
+      <c r="I93" s="5">
+        <v>3</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10">
+      <c r="B94" s="7">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E94" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="5">
+        <v>2</v>
+      </c>
+      <c r="I94" s="5">
+        <v>2</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10">
+      <c r="B95" s="7">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="5">
+        <v>2</v>
+      </c>
+      <c r="I95" s="5">
+        <v>2</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10">
+      <c r="B96" s="7">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="5">
+        <v>2</v>
+      </c>
+      <c r="I96" s="5">
+        <v>2</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="83" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="83" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101" s="83" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" s="83" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103" s="83" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="2:2">
@@ -5054,311 +5530,361 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
-    <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="70" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="50" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="48" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="35" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="31" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="23" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:G91">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:G91">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89:G89">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F89:G89">
+    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E89">
+    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:G92">
+    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:G92">
+    <cfRule type="cellIs" dxfId="11" priority="18" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="cellIs" dxfId="10" priority="17" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F93:G93">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="E93:G93">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F94:G94">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="F94:G94">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89:G89">
+  <conditionalFormatting sqref="F95:G95">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89:G89">
+  <conditionalFormatting sqref="E95:G95">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -5373,7 +5899,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6615,7 +7141,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6636,11 +7162,11 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.6">
       <c r="D1" s="77" t="str">
-        <f ca="1">IF(TODAY()&gt;D2,IF(TODAY()&lt;E2,"p",""),"")</f>
+        <f ca="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"p",""),"")</f>
         <v/>
       </c>
       <c r="E1" s="77" t="str">
-        <f t="shared" ref="E1:AH1" ca="1" si="0">IF(TODAY()&gt;E2,IF(TODAY()&lt;F2,"p",""),"")</f>
+        <f t="shared" ref="E1:AH1" ca="1" si="0">IF(TODAY()&gt;=E2,IF(TODAY()&lt;F2,"p",""),"")</f>
         <v/>
       </c>
       <c r="F1" s="77" t="str">
@@ -6661,11 +7187,11 @@
       </c>
       <c r="J1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>p</v>
+        <v/>
       </c>
       <c r="K1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>p</v>
       </c>
       <c r="L1" s="77" t="str">
         <f t="shared" ca="1" si="0"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Plan DEV" sheetId="4" r:id="rId4"/>
+    <sheet name="Rilascio 2701" sheetId="5" r:id="rId2"/>
+    <sheet name="Plan DEV" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$104</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="206">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -131,42 +130,6 @@
     <t>Verificare/Cambiare tutte le formule indeterminate (solo numeratore) SIMULATIVI</t>
   </si>
   <si>
-    <t>indicatori doppi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> blu scuro?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> segmento other?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> quali segmenti?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> procedura concorsuale (gruppi consolidati)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sofferenze (IND12bis) PRIVATI = OTHER?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> gestione override</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avere dati per simulazione</t>
-  </si>
-  <si>
-    <t xml:space="preserve">covenant </t>
-  </si>
-  <si>
-    <t xml:space="preserve">digital factory </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nuovi judgemental </t>
-  </si>
-  <si>
-    <t>forme di errore</t>
-  </si>
-  <si>
     <t>NOTE</t>
   </si>
   <si>
@@ -176,24 +139,9 @@
     <t>Confrontare nodi Visual modeling (VM) con AFU (es. &gt;= diverso da &gt;)</t>
   </si>
   <si>
-    <t>VIA</t>
-  </si>
-  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>TUTTI</t>
-  </si>
-  <si>
-    <t>inviata mail FP e AB</t>
-  </si>
-  <si>
-    <t>attendere FP</t>
-  </si>
-  <si>
     <t>MD/AC</t>
   </si>
   <si>
@@ -206,12 +154,6 @@
     <t>Implementare indicatori Covenant (IND_29)</t>
   </si>
   <si>
-    <t xml:space="preserve"> sofferenze (IND12bis) 12 o 12over?</t>
-  </si>
-  <si>
-    <t>ind_12</t>
-  </si>
-  <si>
     <t>inserire BR12bis</t>
   </si>
   <si>
@@ -306,270 +248,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>Nome Req.</t>
-  </si>
-  <si>
-    <t>Descrizione Req.</t>
-  </si>
-  <si>
-    <t>Priorità</t>
-  </si>
-  <si>
-    <t>Blocco di Rilascio</t>
-  </si>
-  <si>
-    <t>Completamento SystemTest (dev+test)</t>
-  </si>
-  <si>
-    <t>Start UAT</t>
-  </si>
-  <si>
-    <t>End UAT</t>
-  </si>
-  <si>
-    <t>Rilascio Prod</t>
-  </si>
-  <si>
-    <t>AVANZAMENTO ANALISI</t>
-  </si>
-  <si>
-    <t>AVANZAMENTO ETL</t>
-  </si>
-  <si>
-    <t>AVANZAMENTO APP</t>
-  </si>
-  <si>
-    <t>Covenant: Esclusione momentanea del flusso di input</t>
-  </si>
-  <si>
-    <t>Inibizione calcolo lato ETL</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>N/A </t>
-  </si>
-  <si>
-    <t>REQB10 - Digital Factory</t>
-  </si>
-  <si>
-    <t>indicatore per group bankruptcy, per propagare verticalmente il segnale di rischiosità sulla società controllate nel caso venga aperta una procedura concorsuale (accensione colore blu scuro) sulla capogruppo/subcapogruppo fallita.</t>
-  </si>
-  <si>
-    <t> 90%</t>
-  </si>
-  <si>
-    <t>In attesa convalida processo proposto per il calcolo e i nomi dei campi</t>
-  </si>
-  <si>
-    <t>MIR Limite Temporale</t>
-  </si>
-  <si>
-    <t>introduzione di un Limite temporale (differenziato su equity bond e cds) per evitare di selezionare valori troppo vecchi per il rating</t>
-  </si>
-  <si>
-    <t>(mail Grande 22/09 14:51)</t>
-  </si>
-  <si>
-    <t> 100%</t>
-  </si>
-  <si>
-    <t>GDI</t>
-  </si>
-  <si>
-    <t>Introduzione di un limite temporale a 30gg ed effettuazione della media al fine dell'aggregazione a livello di red_code per il recupero dell'indicatore spread5y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOPG Notizie Pregiudizievoli: Introduzione 2 nuovi campi </t>
-  </si>
-  <si>
-    <t>Introduzione 2 nuovi campi:</t>
-  </si>
-  <si>
-    <t>-numero identificativo</t>
-  </si>
-  <si>
-    <t>-classe</t>
-  </si>
-  <si>
-    <t>(attività di inclusione in STAGING, T_CAR e modelli successivi da considerare in seconda battuta)</t>
-  </si>
-  <si>
-    <t>CDS fonte Credit Edge</t>
-  </si>
-  <si>
-    <t>Acquisizione dell'indicatore del CDS fonte Credit Edge, gestione di un nuovo flusso</t>
-  </si>
-  <si>
-    <t>Fix rispetto workaround attualmente adottato per Disallineamenti di Semaforo</t>
-  </si>
-  <si>
-    <t>Workaround (Piano B)</t>
-  </si>
-  <si>
-    <t>70% - Primo test avvenuto ieri con esito positivo. In attesa nuovi dati (almeno 100k di dati per 3 gg)</t>
-  </si>
-  <si>
-    <t>Indicatori Fitch</t>
-  </si>
-  <si>
-    <t>Introduzione dei bilanci Fitch per il perimetro banche</t>
-  </si>
-  <si>
-    <t> 30%</t>
-  </si>
-  <si>
-    <t>Richiesta di maggiori informazioni (mail Francesca)</t>
-  </si>
-  <si>
-    <t>Correzione perimetro preammortamenti</t>
-  </si>
-  <si>
-    <t>(filtro su &lt; 36m) - Implementazione</t>
-  </si>
-  <si>
-    <t>Modello Corporate Banche NBFI Enti pubblici: Correttiva</t>
-  </si>
-  <si>
-    <t>Semaforo integrazione CR e XRA (Corporate, NBFI): adottato work-around per anomalia di mancata valorizzazione semaforo in caso di assenza CR. Correttiva da pianificare post rilascio (lato APP)</t>
-  </si>
-  <si>
-    <t> N/A</t>
-  </si>
-  <si>
-    <t>REQB44 - Valorizzazione semaforo di gruppo</t>
-  </si>
-  <si>
-    <t>Calcolo semaforo di gruppo per ciascuna controparte, in base ai gruppi economici di cui fa parte.</t>
-  </si>
-  <si>
-    <t>- Integrazione set informativo variabili elementari utili al calcolo</t>
-  </si>
-  <si>
-    <t>- calcolo quote percentuali di esposizione per ciascuna controparte del gruppo</t>
-  </si>
-  <si>
-    <t>- determinazione pesi dei semafori calcolati su ciascuna controparte del gruppo</t>
-  </si>
-  <si>
-    <t>- aggregazione quote e verifica soglie</t>
-  </si>
-  <si>
-    <t>- assegnazione semaforo di gruppo</t>
-  </si>
-  <si>
-    <t> 10%</t>
-  </si>
-  <si>
-    <t>In attesa convalida processo proposto</t>
-  </si>
-  <si>
-    <t>ABI su alcuni sottomoduli</t>
-  </si>
-  <si>
-    <t>Per i sottomodui:</t>
-  </si>
-  <si>
-    <t>a. Finanziamento Esteri</t>
-  </si>
-  <si>
-    <t>b. Anticipo Fatture</t>
-  </si>
-  <si>
-    <t>c. Fatture Factoring</t>
-  </si>
-  <si>
-    <t>d. Effetti Insoluti</t>
-  </si>
-  <si>
-    <t>e. Preammortamenti</t>
-  </si>
-  <si>
-    <t>è richiesto riportare gli ABI dell’SNDG di riferimento, nel caso un SNDG abbia più ABI di riferimento i valori dovranno essere concatenati e separati da un carattere separatore. L’informazione dell’ABI dovrà essere riportata sulla T_CAR_EW e sulle T_CAR dei seguenti sottomoduli</t>
-  </si>
-  <si>
-    <t>5% </t>
-  </si>
-  <si>
-    <t>Semaforo per sottomoduli e integrazione</t>
-  </si>
-  <si>
-    <t>Introduzione di semafori a livello di sottomoduli e di integrazione</t>
-  </si>
-  <si>
-    <t> 20% - In sviluppo</t>
-  </si>
-  <si>
-    <t>Indicatori simulativi</t>
-  </si>
-  <si>
-    <t>Completamento sviluppi App per indicatori con MOL su:</t>
-  </si>
-  <si>
-    <t>- Anticpo Fatture</t>
-  </si>
-  <si>
-    <t>- Fatture Factoring</t>
-  </si>
-  <si>
-    <t>- Insoluti</t>
-  </si>
-  <si>
-    <t>- Finanziamenti Esteri</t>
-  </si>
-  <si>
-    <t>+ UAT Utente</t>
-  </si>
-  <si>
-    <t> 0%</t>
-  </si>
-  <si>
-    <t>Automazione check flussi</t>
-  </si>
-  <si>
-    <t>rendere automatico il controllo giornaliero dei flussi notturni</t>
-  </si>
-  <si>
-    <t>Adeguamento flusso vetrina alla versione v28</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Flusso vetrina, variazione campi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(ANTEXPORT e FINIMPORT)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">--&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ref. Requisito Semaforo per sottomoduli e integrazione</t>
-    </r>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>in UAT</t>
@@ -1012,6 +690,102 @@
     </r>
   </si>
   <si>
+    <t>MC/MD</t>
+  </si>
+  <si>
+    <t>Retail: nodo Riempimento in VM</t>
+  </si>
+  <si>
+    <t>Retail: AFU</t>
+  </si>
+  <si>
+    <t>rilascio 30/06. inizio UAT 01/06</t>
+  </si>
+  <si>
+    <t>Retail: dashboard o workspace?</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>BR145</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>BR146</t>
+  </si>
+  <si>
+    <t>BR147</t>
+  </si>
+  <si>
+    <t>BR148</t>
+  </si>
+  <si>
+    <t>BR212</t>
+  </si>
+  <si>
+    <t>BR143</t>
+  </si>
+  <si>
+    <t>BR543</t>
+  </si>
+  <si>
+    <t>IND_12_CHANGE</t>
+  </si>
+  <si>
+    <t>IND_12_DELTA_DT</t>
+  </si>
+  <si>
+    <t>IND_212_FL_OVERRIDE</t>
+  </si>
+  <si>
+    <t>MODIF.</t>
+  </si>
+  <si>
+    <t>IND_84</t>
+  </si>
+  <si>
+    <t>IND_85</t>
+  </si>
+  <si>
+    <t>IND_86</t>
+  </si>
+  <si>
+    <t>IND_87</t>
+  </si>
+  <si>
+    <t>Retail: costruzione file excel interno e verifica presenza Corporate</t>
+  </si>
+  <si>
+    <t>Retail: test di performance (2 mio di dati)</t>
+  </si>
+  <si>
+    <t>comunicare al CT e cliente (effort e motivazioni)</t>
+  </si>
+  <si>
+    <t>Retail: sviluppo indicatori</t>
+  </si>
+  <si>
+    <t>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</t>
+  </si>
+  <si>
+    <t>Retail: configurazione start-up app (excel)</t>
+  </si>
+  <si>
+    <t>dati?</t>
+  </si>
+  <si>
+    <t>AFU</t>
+  </si>
+  <si>
+    <t>override Fitch Blu chiaro</t>
+  </si>
+  <si>
     <r>
       <t>5)</t>
     </r>
@@ -1051,7 +825,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> al momento solo rosso. Prossimamente blu chiaro. </t>
+      <t xml:space="preserve"> rosso.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">override Fitch (solo segmento banche) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Wingdings"/>
+        <charset val="2"/>
+      </rPr>
+      <t>à</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blu chiaro. </t>
     </r>
   </si>
 </sst>
@@ -1059,7 +876,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1075,85 +892,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1201,8 +944,22 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1247,36 +1004,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D08E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1309,18 +1036,34 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF0066FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="225">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1341,135 +1084,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1536,7 +1150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1567,187 +1181,318 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="99">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2470,6 +2215,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0066FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2779,10 +2529,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE131"/>
+  <dimension ref="A1:AE139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99:C103"/>
+    <sheetView topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2814,10 +2564,10 @@
         <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="68" t="s">
-        <v>227</v>
+        <v>109</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>128</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>17</v>
@@ -2826,7 +2576,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:31" hidden="1">
@@ -2838,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -2869,7 +2619,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -2901,7 +2651,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -2931,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -2958,10 +2708,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
@@ -2979,7 +2729,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:31" hidden="1">
@@ -3050,7 +2800,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
@@ -3076,10 +2826,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
@@ -3108,7 +2858,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -3137,7 +2887,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
@@ -3155,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:31" hidden="1">
@@ -3165,10 +2915,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
@@ -3194,10 +2944,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E14" s="13">
         <v>1</v>
@@ -3223,10 +2973,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
@@ -3252,10 +3002,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E16" s="13">
         <v>1</v>
@@ -3281,10 +3031,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E17" s="13">
         <v>1</v>
@@ -3302,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:10" hidden="1">
@@ -3315,7 +3065,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E18" s="13">
         <v>1</v>
@@ -3344,7 +3094,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
@@ -3370,10 +3120,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E20" s="13">
         <v>1</v>
@@ -3391,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:10" hidden="1">
@@ -3404,7 +3154,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
@@ -3433,7 +3183,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
@@ -3517,10 +3267,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E25" s="13">
         <v>1</v>
@@ -3549,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E26" s="13">
         <v>1</v>
@@ -3578,7 +3328,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E27" s="13">
         <v>1</v>
@@ -3604,10 +3354,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E28" s="13">
         <v>1</v>
@@ -3633,10 +3383,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E29" s="13">
         <v>1</v>
@@ -3662,10 +3412,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E30" s="13">
         <v>1</v>
@@ -3691,10 +3441,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E31" s="13">
         <v>1</v>
@@ -3741,7 +3491,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:10" hidden="1">
@@ -3809,10 +3559,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E35" s="13">
         <v>1</v>
@@ -3841,7 +3591,7 @@
         <v>29</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E36" s="13">
         <v>1</v>
@@ -3867,10 +3617,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E37" s="13">
         <v>1</v>
@@ -3896,10 +3646,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E38" s="13">
         <v>1</v>
@@ -3925,10 +3675,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E39" s="13">
         <v>1</v>
@@ -3954,10 +3704,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E40" s="13">
         <v>1</v>
@@ -3983,10 +3733,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E41" s="13">
         <v>1</v>
@@ -4004,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>205</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:10" hidden="1">
@@ -4014,10 +3764,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E42" s="13">
         <v>1</v>
@@ -4043,10 +3793,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E43" s="13">
         <v>1</v>
@@ -4064,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>172</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:10" hidden="1">
@@ -4074,10 +3824,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E44" s="13">
         <v>1</v>
@@ -4095,7 +3845,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1">
@@ -4105,10 +3855,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E45" s="13">
         <v>1</v>
@@ -4126,7 +3876,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1">
@@ -4136,10 +3886,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E46" s="13">
         <v>1</v>
@@ -4157,7 +3907,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -4167,7 +3917,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>25</v>
@@ -4186,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>237</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4196,13 +3946,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -4219,7 +3969,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>24</v>
@@ -4240,7 +3990,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:10" hidden="1">
@@ -4250,10 +4000,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E50" s="13">
         <v>1</v>
@@ -4271,7 +4021,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:10" hidden="1">
@@ -4281,7 +4031,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>24</v>
@@ -4302,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:10" hidden="1">
@@ -4311,10 +4061,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E52" s="13">
         <v>1</v>
@@ -4332,16 +4082,16 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" hidden="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>26</v>
@@ -4350,10 +4100,10 @@
         <v>1</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -4362,7 +4112,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4371,13 +4121,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -4395,10 +4145,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E55" s="13">
         <v>0.15</v>
@@ -4412,7 +4162,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:10" hidden="1">
@@ -4421,10 +4171,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="E56" s="13">
         <v>1</v>
@@ -4442,7 +4192,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:10" hidden="1">
@@ -4451,7 +4201,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>185</v>
+        <v>86</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>24</v>
@@ -4472,7 +4222,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>194</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:10" hidden="1">
@@ -4481,7 +4231,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>24</v>
@@ -4490,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G58" s="13">
         <v>1</v>
@@ -4509,16 +4259,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="5">
@@ -4535,7 +4285,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>24</v>
@@ -4544,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="5">
@@ -4561,10 +4311,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="E61" s="13">
         <v>1</v>
@@ -4582,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>187</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4591,16 +4341,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>192</v>
+        <v>93</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="5">
@@ -4611,13 +4361,13 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10" hidden="1">
+    <row r="63" spans="1:10">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>26</v>
@@ -4626,10 +4376,10 @@
         <v>1</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H63" s="5">
         <v>3</v>
@@ -4639,16 +4389,16 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10" hidden="1">
+    <row r="64" spans="1:10">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>195</v>
+        <v>96</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
@@ -4657,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
@@ -4666,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="2:10" hidden="1">
@@ -4675,10 +4425,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>196</v>
+        <v>97</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E65" s="13">
         <v>1</v>
@@ -4696,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="2:10">
@@ -4705,16 +4455,16 @@
         <v>65</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="5">
@@ -4724,7 +4474,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -4733,16 +4483,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="5">
@@ -4753,13 +4503,13 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10" hidden="1">
+    <row r="68" spans="2:10">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>24</v>
@@ -4771,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -4781,25 +4531,25 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" hidden="1">
+    <row r="69" spans="2:10">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -4815,10 +4565,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
@@ -4832,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>235</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4841,7 +4591,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>209</v>
+        <v>110</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>25</v>
@@ -4858,7 +4608,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="2:10" hidden="1">
@@ -4867,10 +4617,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
@@ -4888,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>210</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="2:10" hidden="1">
@@ -4897,7 +4647,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>24</v>
@@ -4918,7 +4668,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="2:10" hidden="1">
@@ -4927,16 +4677,16 @@
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>215</v>
+        <v>115</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>216</v>
+        <v>117</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G74" s="13">
         <v>1</v>
@@ -4948,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4957,9 +4707,9 @@
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="D75" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="13"/>
@@ -4972,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>220</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4981,9 +4731,9 @@
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D76" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E76" s="13"/>
@@ -4996,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -5005,14 +4755,14 @@
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="67" t="s">
-        <v>224</v>
+        <v>124</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="5">
@@ -5029,13 +4779,13 @@
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D78" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>173</v>
+        <v>74</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
@@ -5046,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -5055,10 +4805,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="67" t="s">
-        <v>228</v>
+        <v>130</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="E79" s="13">
         <v>0.15</v>
@@ -5072,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -5081,10 +4831,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D80" s="67" t="s">
-        <v>228</v>
+        <v>131</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="E80" s="13">
         <v>0.15</v>
@@ -5105,10 +4855,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D81" s="67" t="s">
-        <v>233</v>
+        <v>133</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
@@ -5122,18 +4872,18 @@
         <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" hidden="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10">
       <c r="B82" s="7">
-        <f t="shared" ref="B82:B96" si="1">+B81+1</f>
+        <f t="shared" ref="B82:C99" si="1">+B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D82" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="D82" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E82" s="13">
@@ -5141,7 +4891,7 @@
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -5157,10 +4907,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D83" s="67" t="s">
-        <v>233</v>
+        <v>139</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E83" s="13">
         <v>0.5</v>
@@ -5174,7 +4924,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -5183,10 +4933,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D84" s="67" t="s">
-        <v>233</v>
+        <v>141</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -5198,24 +4948,24 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" hidden="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10">
       <c r="B85" s="7">
         <f>+B84+1</f>
         <v>84</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D85" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -5231,10 +4981,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" s="67" t="s">
-        <v>233</v>
+        <v>146</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13"/>
@@ -5246,7 +4996,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>258</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -5255,10 +5005,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" s="67" t="s">
-        <v>233</v>
+        <v>147</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -5270,7 +5020,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>259</v>
+        <v>160</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -5279,10 +5029,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D88" s="67" t="s">
-        <v>233</v>
+        <v>152</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -5295,21 +5045,21 @@
       </c>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="2:10" hidden="1">
+    <row r="89" spans="2:10">
       <c r="B89" s="7">
         <f>+B88+1</f>
         <v>88</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D89" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>26</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -5325,10 +5075,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D90" s="67" t="s">
-        <v>233</v>
+        <v>156</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -5340,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>261</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -5349,10 +5099,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D91" s="67" t="s">
-        <v>233</v>
+        <v>157</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -5364,7 +5114,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -5373,10 +5123,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D92" s="67" t="s">
-        <v>233</v>
+        <v>158</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13"/>
@@ -5388,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -5397,10 +5147,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>262</v>
+        <v>163</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="E93" s="13">
         <v>0.4</v>
@@ -5414,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -5423,7 +5173,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>263</v>
+        <v>164</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>25</v>
@@ -5440,7 +5190,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -5449,10 +5199,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>264</v>
+        <v>165</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
@@ -5464,7 +5214,7 @@
         <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -5473,7 +5223,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>25</v>
@@ -5490,401 +5240,767 @@
         <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="83" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="83" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3">
-      <c r="C101" s="83" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3">
-      <c r="C102" s="83" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" s="83" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" t="s">
-        <v>75</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10">
+      <c r="B97" s="7">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2</v>
+      </c>
+      <c r="I97" s="5">
+        <v>2</v>
+      </c>
+      <c r="J97" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10">
+      <c r="B98" s="7">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H98" s="5">
+        <v>2</v>
+      </c>
+      <c r="I98" s="5">
+        <v>2</v>
+      </c>
+      <c r="J98" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10">
+      <c r="B99" s="7">
+        <f t="shared" ref="B99:C99" si="2">+B98+1</f>
+        <v>98</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H99" s="5">
+        <v>2</v>
+      </c>
+      <c r="I99" s="5">
+        <v>2</v>
+      </c>
+      <c r="J99" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10">
+      <c r="B100" s="7">
+        <f t="shared" ref="B100:C100" si="3">+B99+1</f>
+        <v>99</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="5">
+        <v>2</v>
+      </c>
+      <c r="I100" s="5">
+        <v>2</v>
+      </c>
+      <c r="J100" s="32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10">
+      <c r="B101" s="7">
+        <f t="shared" ref="B101:C105" si="4">+B100+1</f>
+        <v>100</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="5">
+        <v>2</v>
+      </c>
+      <c r="I101" s="5">
+        <v>2</v>
+      </c>
+      <c r="J101" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10">
+      <c r="B102" s="7">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="5">
+        <v>2</v>
+      </c>
+      <c r="I102" s="5">
+        <v>2</v>
+      </c>
+      <c r="J102" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10">
+      <c r="B103" s="7">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="5">
+        <v>2</v>
+      </c>
+      <c r="I103" s="5">
+        <v>2</v>
+      </c>
+      <c r="J103" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10">
+      <c r="B104" s="7">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="5">
+        <v>2</v>
+      </c>
+      <c r="I104" s="5">
+        <v>2</v>
+      </c>
+      <c r="J104" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10">
+      <c r="B105" s="7">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="5">
+        <v>2</v>
+      </c>
+      <c r="I105" s="5">
+        <v>2</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10">
+      <c r="C107" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10">
+      <c r="C108" s="31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="C109" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="C110" s="31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="C111" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="C112" s="38" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J91">
+  <autoFilter ref="B1:J104">
     <filterColumn colId="5">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="NO"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
-    <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
+    <cfRule type="cellIs" dxfId="98" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:G17 G18:G44">
-    <cfRule type="cellIs" dxfId="70" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="96" priority="109" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="95" priority="108" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="94" priority="107" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:G71">
+    <cfRule type="cellIs" dxfId="93" priority="106" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="cellIs" dxfId="92" priority="105" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:G72">
+    <cfRule type="cellIs" dxfId="91" priority="104" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:G73">
+    <cfRule type="cellIs" dxfId="90" priority="103" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:G73">
+    <cfRule type="cellIs" dxfId="89" priority="102" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74:G74">
+    <cfRule type="cellIs" dxfId="88" priority="101" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:G74">
+    <cfRule type="cellIs" dxfId="87" priority="100" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:G75">
+    <cfRule type="cellIs" dxfId="86" priority="99" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:G75">
+    <cfRule type="cellIs" dxfId="85" priority="98" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:G76">
+    <cfRule type="cellIs" dxfId="84" priority="97" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:G76">
+    <cfRule type="cellIs" dxfId="83" priority="96" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="82" priority="95" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77:G77">
+    <cfRule type="cellIs" dxfId="81" priority="94" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77:G77">
+    <cfRule type="cellIs" dxfId="80" priority="93" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:G78">
+    <cfRule type="cellIs" dxfId="79" priority="92" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:G78">
+    <cfRule type="cellIs" dxfId="78" priority="91" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="77" priority="90" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="76" priority="89" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="75" priority="88" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G52">
+    <cfRule type="cellIs" dxfId="74" priority="87" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="cellIs" dxfId="73" priority="86" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:G80">
+    <cfRule type="cellIs" dxfId="72" priority="85" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:G79 F80:G80">
+    <cfRule type="cellIs" dxfId="71" priority="84" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="cellIs" dxfId="70" priority="83" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:G82">
     <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F81:G82">
     <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E81:E82">
     <cfRule type="cellIs" dxfId="67" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="65" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="64" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="63" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="61" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="59" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="58" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="57" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="56" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="55" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="54" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="53" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="52" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="51" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="50" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="48" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="47" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="46" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="45" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="44" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="38" priority="45" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="35" priority="42" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="34" priority="41" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="33" priority="40" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="32" priority="39" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="31" priority="38" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="26" priority="33" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="23" priority="30" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F89:G89">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89:G89">
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="39" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93:G93">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93:G93">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:G95">
+    <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:G95">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96:G96">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96:G96">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F97">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99:E101">
+    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100:G101 F99">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F100:G101 F99">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:G103">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:G103">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104:G104">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104:G104">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="G99">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:G95">
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -5896,1236 +6012,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B13" sqref="B13:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" customWidth="1"/>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.296875" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6"/>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M44"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="2" width="2.69921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.09765625" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.09765625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="9.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.19921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.69921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.69921875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="14.4" thickBot="1"/>
-    <row r="2" spans="1:13" ht="55.8" thickBot="1">
-      <c r="A2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="42" thickBot="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28">
-        <v>23</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="30">
-        <v>1</v>
-      </c>
-      <c r="F3" s="30">
-        <v>1</v>
-      </c>
-      <c r="G3" s="31">
-        <v>42648</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="31">
-        <v>42649</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="51">
-      <c r="A4" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="34">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="34">
-        <v>1</v>
-      </c>
-      <c r="F4" s="36">
-        <v>2</v>
-      </c>
-      <c r="G4" s="37">
-        <v>42643</v>
-      </c>
-      <c r="H4" s="37">
-        <v>42646</v>
-      </c>
-      <c r="I4" s="37">
-        <v>42648</v>
-      </c>
-      <c r="J4" s="37">
-        <v>42649</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41">
-        <v>42657</v>
-      </c>
-      <c r="H5" s="41">
-        <v>42660</v>
-      </c>
-      <c r="I5" s="41">
-        <v>42663</v>
-      </c>
-      <c r="J5" s="41">
-        <v>42664</v>
-      </c>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="25"/>
-    </row>
-    <row r="6" spans="1:13" ht="30.6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34">
-        <v>3</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="34">
-        <v>2</v>
-      </c>
-      <c r="F6" s="34">
-        <v>2</v>
-      </c>
-      <c r="G6" s="43">
-        <v>42657</v>
-      </c>
-      <c r="H6" s="43">
-        <v>42660</v>
-      </c>
-      <c r="I6" s="43">
-        <v>42663</v>
-      </c>
-      <c r="J6" s="43">
-        <v>42664</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="24"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.799999999999997">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34">
-        <v>4</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="34">
-        <v>2</v>
-      </c>
-      <c r="F8" s="34">
-        <v>2</v>
-      </c>
-      <c r="G8" s="43">
-        <v>42657</v>
-      </c>
-      <c r="H8" s="43">
-        <v>42660</v>
-      </c>
-      <c r="I8" s="43">
-        <v>42663</v>
-      </c>
-      <c r="J8" s="43">
-        <v>42664</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="24"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="25"/>
-    </row>
-    <row r="10" spans="1:13" ht="27.6">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34">
-        <v>26</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="34">
-        <v>2</v>
-      </c>
-      <c r="F10" s="34">
-        <v>2</v>
-      </c>
-      <c r="G10" s="43">
-        <v>42657</v>
-      </c>
-      <c r="H10" s="43">
-        <v>42660</v>
-      </c>
-      <c r="I10" s="43">
-        <v>42663</v>
-      </c>
-      <c r="J10" s="43">
-        <v>42664</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13" ht="21" thickBot="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="25"/>
-    </row>
-    <row r="14" spans="1:13" ht="20.399999999999999">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34">
-        <v>2</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="34">
-        <v>2</v>
-      </c>
-      <c r="F14" s="36">
-        <v>3</v>
-      </c>
-      <c r="G14" s="43">
-        <v>42662</v>
-      </c>
-      <c r="H14" s="43">
-        <v>42663</v>
-      </c>
-      <c r="I14" s="37">
-        <v>42663</v>
-      </c>
-      <c r="J14" s="37">
-        <v>42664</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="34"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="41">
-        <v>42670</v>
-      </c>
-      <c r="J15" s="41">
-        <v>42671</v>
-      </c>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="25"/>
-    </row>
-    <row r="16" spans="1:13" ht="42" thickBot="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28">
-        <v>24</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="30">
-        <v>3</v>
-      </c>
-      <c r="F16" s="49">
-        <v>3</v>
-      </c>
-      <c r="G16" s="50">
-        <v>42662</v>
-      </c>
-      <c r="H16" s="50">
-        <v>42663</v>
-      </c>
-      <c r="I16" s="50">
-        <v>42670</v>
-      </c>
-      <c r="J16" s="50">
-        <v>42671</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="27.6">
-      <c r="A17" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="34">
-        <v>5</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E17" s="34">
-        <v>3</v>
-      </c>
-      <c r="F17" s="36">
-        <v>3</v>
-      </c>
-      <c r="G17" s="37">
-        <v>42661</v>
-      </c>
-      <c r="H17" s="37">
-        <v>42662</v>
-      </c>
-      <c r="I17" s="37">
-        <v>42663</v>
-      </c>
-      <c r="J17" s="37">
-        <v>42664</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41">
-        <v>42662</v>
-      </c>
-      <c r="H18" s="41">
-        <v>42663</v>
-      </c>
-      <c r="I18" s="41">
-        <v>42670</v>
-      </c>
-      <c r="J18" s="41">
-        <v>42671</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="25"/>
-    </row>
-    <row r="19" spans="1:13" ht="27.6">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34">
-        <v>22</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="34">
-        <v>3</v>
-      </c>
-      <c r="F19" s="52">
-        <v>3</v>
-      </c>
-      <c r="G19" s="53">
-        <v>42662</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="53">
-        <v>42671</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>114</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="24"/>
-    </row>
-    <row r="20" spans="1:13" ht="28.2" thickBot="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="65"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" spans="1:13" ht="40.799999999999997">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34">
-        <v>20</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="34">
-        <v>3</v>
-      </c>
-      <c r="F21" s="52">
-        <v>4</v>
-      </c>
-      <c r="G21" s="53">
-        <v>42683</v>
-      </c>
-      <c r="H21" s="53">
-        <v>42684</v>
-      </c>
-      <c r="I21" s="53">
-        <v>42690</v>
-      </c>
-      <c r="J21" s="53">
-        <v>42691</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="63" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="25"/>
-    </row>
-    <row r="23" spans="1:13" ht="27.6">
-      <c r="A23" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="34">
-        <v>6</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="E23" s="34">
-        <v>4</v>
-      </c>
-      <c r="F23" s="36">
-        <v>4</v>
-      </c>
-      <c r="G23" s="56">
-        <v>42668</v>
-      </c>
-      <c r="H23" s="56">
-        <v>42669</v>
-      </c>
-      <c r="I23" s="56">
-        <v>42670</v>
-      </c>
-      <c r="J23" s="56">
-        <v>42671</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="20.399999999999999">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="66" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58">
-        <v>42683</v>
-      </c>
-      <c r="H24" s="58">
-        <v>42684</v>
-      </c>
-      <c r="I24" s="58">
-        <v>42690</v>
-      </c>
-      <c r="J24" s="58">
-        <v>42691</v>
-      </c>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="26"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.399999999999999">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="66" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="26"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.399999999999999">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="46"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="26"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="46"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="26"/>
-    </row>
-    <row r="28" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="25"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34">
-        <v>7</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="34">
-        <v>5</v>
-      </c>
-      <c r="F29" s="34">
-        <v>4</v>
-      </c>
-      <c r="G29" s="43">
-        <v>42683</v>
-      </c>
-      <c r="H29" s="43">
-        <v>42684</v>
-      </c>
-      <c r="I29" s="43">
-        <v>42690</v>
-      </c>
-      <c r="J29" s="43">
-        <v>42691</v>
-      </c>
-      <c r="K29" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="66" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="26"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="66" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="66" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="26"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="26"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="26"/>
-    </row>
-    <row r="35" spans="1:13" ht="51.6" thickBot="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="63" t="s">
-        <v>152</v>
-      </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="45"/>
-      <c r="J35" s="45"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="25"/>
-    </row>
-    <row r="36" spans="1:13" ht="28.2" thickBot="1">
-      <c r="A36" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36" s="28">
-        <v>8</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>155</v>
-      </c>
-      <c r="E36" s="30">
-        <v>5</v>
-      </c>
-      <c r="F36" s="30">
-        <v>4</v>
-      </c>
-      <c r="G36" s="31">
-        <v>42683</v>
-      </c>
-      <c r="H36" s="31">
-        <v>42684</v>
-      </c>
-      <c r="I36" s="31">
-        <v>42690</v>
-      </c>
-      <c r="J36" s="31">
-        <v>42691</v>
-      </c>
-      <c r="K36" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="L36" s="33"/>
-      <c r="M36" s="23" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34">
-        <v>9</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="E37" s="34">
-        <v>6</v>
-      </c>
-      <c r="F37" s="34">
-        <v>4</v>
-      </c>
-      <c r="G37" s="43">
-        <v>42676</v>
-      </c>
-      <c r="H37" s="43">
-        <v>42677</v>
-      </c>
-      <c r="I37" s="43">
-        <v>42690</v>
-      </c>
-      <c r="J37" s="43">
-        <v>42691</v>
-      </c>
-      <c r="K37" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="24"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="48"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="26"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="66" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="46"/>
-      <c r="M39" s="26"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="48"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="26"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="26"/>
-    </row>
-    <row r="42" spans="1:13" ht="14.4" thickBot="1">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="45"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="45"/>
-      <c r="J42" s="45"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="25"/>
-    </row>
-    <row r="43" spans="1:13" ht="21" thickBot="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28">
-        <v>10</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="E43" s="30">
-        <v>7</v>
-      </c>
-      <c r="F43" s="30">
-        <v>4</v>
-      </c>
-      <c r="G43" s="31">
-        <v>42676</v>
-      </c>
-      <c r="H43" s="31">
-        <v>42677</v>
-      </c>
-      <c r="I43" s="31">
-        <v>42690</v>
-      </c>
-      <c r="J43" s="31">
-        <v>42691</v>
-      </c>
-      <c r="K43" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="L43" s="33"/>
-      <c r="M43" s="23"/>
-    </row>
-    <row r="44" spans="1:13" ht="41.4" thickBot="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28">
-        <v>16</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="30">
-        <v>8</v>
-      </c>
-      <c r="F44" s="30">
-        <v>4</v>
-      </c>
-      <c r="G44" s="31">
-        <v>42676</v>
-      </c>
-      <c r="H44" s="31">
-        <v>42677</v>
-      </c>
-      <c r="I44" s="31">
-        <v>42690</v>
-      </c>
-      <c r="J44" s="31">
-        <v>42691</v>
-      </c>
-      <c r="K44" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="23"/>
+    <row r="2" spans="2:6">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7133,722 +6185,1094 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH19"/>
+  <dimension ref="B1:AH28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="1.796875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="2.69921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.8984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.796875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.19921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="5.69921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="5.3984375" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="6" style="27" bestFit="1" customWidth="1"/>
-    <col min="22" max="25" width="5.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="26" max="30" width="6.19921875" style="27" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="5.296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="8.796875" style="27"/>
+    <col min="1" max="1" width="1.09765625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="3.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.09765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="5.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="5.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="6" style="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="5.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="5.296875" style="16" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.796875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" ht="15.6">
-      <c r="D1" s="77" t="str">
+      <c r="D1" s="26" t="str">
         <f ca="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"p",""),"")</f>
         <v/>
       </c>
-      <c r="E1" s="77" t="str">
+      <c r="E1" s="26" t="str">
         <f t="shared" ref="E1:AH1" ca="1" si="0">IF(TODAY()&gt;=E2,IF(TODAY()&lt;F2,"p",""),"")</f>
         <v/>
       </c>
-      <c r="F1" s="77" t="str">
+      <c r="F1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="G1" s="77" t="str">
+      <c r="G1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H1" s="77" t="str">
+      <c r="H1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I1" s="77" t="str">
+      <c r="I1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J1" s="77" t="str">
+      <c r="J1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="K1" s="77" t="str">
+      <c r="K1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>p</v>
       </c>
-      <c r="L1" s="77" t="str">
+      <c r="L1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="M1" s="77" t="str">
+      <c r="M1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="N1" s="77" t="str">
+      <c r="N1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="O1" s="77" t="str">
+      <c r="O1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="P1" s="77" t="str">
+      <c r="P1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="Q1" s="77" t="str">
+      <c r="Q1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="R1" s="77" t="str">
+      <c r="R1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="S1" s="77" t="str">
+      <c r="S1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="T1" s="77" t="str">
+      <c r="T1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="U1" s="77" t="str">
+      <c r="U1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="V1" s="77" t="str">
+      <c r="V1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="W1" s="77" t="str">
+      <c r="W1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="X1" s="77" t="str">
+      <c r="X1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="Y1" s="77" t="str">
+      <c r="Y1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="Z1" s="77" t="str">
+      <c r="Z1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AA1" s="77" t="str">
+      <c r="AA1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AB1" s="77" t="str">
+      <c r="AB1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AC1" s="77" t="str">
+      <c r="AC1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AD1" s="77" t="str">
+      <c r="AD1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AE1" s="77" t="str">
+      <c r="AE1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AF1" s="77" t="str">
+      <c r="AF1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AG1" s="77" t="str">
+      <c r="AG1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="AH1" s="77" t="str">
+      <c r="AH1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71">
+      <c r="B2" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21">
         <v>42702</v>
       </c>
-      <c r="E2" s="71">
+      <c r="E2" s="21">
         <f>7+D2</f>
         <v>42709</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="21">
         <f t="shared" ref="F2:AH2" si="1">7+E2</f>
         <v>42716</v>
       </c>
-      <c r="G2" s="71">
+      <c r="G2" s="21">
         <f t="shared" si="1"/>
         <v>42723</v>
       </c>
-      <c r="H2" s="71">
+      <c r="H2" s="21">
         <f t="shared" si="1"/>
         <v>42730</v>
       </c>
-      <c r="I2" s="71">
+      <c r="I2" s="21">
         <f t="shared" si="1"/>
         <v>42737</v>
       </c>
-      <c r="J2" s="71">
+      <c r="J2" s="21">
         <f t="shared" si="1"/>
         <v>42744</v>
       </c>
-      <c r="K2" s="71">
+      <c r="K2" s="21">
         <f t="shared" si="1"/>
         <v>42751</v>
       </c>
-      <c r="L2" s="71">
+      <c r="L2" s="21">
         <f t="shared" si="1"/>
         <v>42758</v>
       </c>
-      <c r="M2" s="71">
+      <c r="M2" s="21">
         <f t="shared" si="1"/>
         <v>42765</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="21">
         <f t="shared" si="1"/>
         <v>42772</v>
       </c>
-      <c r="O2" s="71">
+      <c r="O2" s="21">
         <f t="shared" si="1"/>
         <v>42779</v>
       </c>
-      <c r="P2" s="71">
+      <c r="P2" s="21">
         <f t="shared" si="1"/>
         <v>42786</v>
       </c>
-      <c r="Q2" s="71">
+      <c r="Q2" s="21">
         <f t="shared" si="1"/>
         <v>42793</v>
       </c>
-      <c r="R2" s="71">
+      <c r="R2" s="21">
         <f t="shared" si="1"/>
         <v>42800</v>
       </c>
-      <c r="S2" s="71">
+      <c r="S2" s="21">
         <f t="shared" si="1"/>
         <v>42807</v>
       </c>
-      <c r="T2" s="71">
+      <c r="T2" s="21">
         <f t="shared" si="1"/>
         <v>42814</v>
       </c>
-      <c r="U2" s="71">
+      <c r="U2" s="21">
         <f t="shared" si="1"/>
         <v>42821</v>
       </c>
-      <c r="V2" s="71">
+      <c r="V2" s="21">
         <f t="shared" si="1"/>
         <v>42828</v>
       </c>
-      <c r="W2" s="71">
+      <c r="W2" s="21">
         <f t="shared" si="1"/>
         <v>42835</v>
       </c>
-      <c r="X2" s="71">
+      <c r="X2" s="21">
         <f t="shared" si="1"/>
         <v>42842</v>
       </c>
-      <c r="Y2" s="71">
+      <c r="Y2" s="21">
         <f t="shared" si="1"/>
         <v>42849</v>
       </c>
-      <c r="Z2" s="71">
+      <c r="Z2" s="21">
         <f t="shared" si="1"/>
         <v>42856</v>
       </c>
-      <c r="AA2" s="71">
+      <c r="AA2" s="21">
         <f t="shared" si="1"/>
         <v>42863</v>
       </c>
-      <c r="AB2" s="71">
+      <c r="AB2" s="21">
         <f t="shared" si="1"/>
         <v>42870</v>
       </c>
-      <c r="AC2" s="71">
+      <c r="AC2" s="21">
         <f t="shared" si="1"/>
         <v>42877</v>
       </c>
-      <c r="AD2" s="71">
+      <c r="AD2" s="21">
         <f t="shared" si="1"/>
         <v>42884</v>
       </c>
-      <c r="AE2" s="71">
+      <c r="AE2" s="21">
         <f t="shared" si="1"/>
         <v>42891</v>
       </c>
-      <c r="AF2" s="71">
+      <c r="AF2" s="21">
         <f t="shared" si="1"/>
         <v>42898</v>
       </c>
-      <c r="AG2" s="71">
+      <c r="AG2" s="21">
         <f t="shared" si="1"/>
         <v>42905</v>
       </c>
-      <c r="AH2" s="71">
+      <c r="AH2" s="21">
         <f t="shared" si="1"/>
         <v>42912</v>
       </c>
     </row>
     <row r="3" spans="2:34">
-      <c r="B3" s="72">
+      <c r="B3" s="22">
         <v>46</v>
       </c>
-      <c r="C3" s="73" t="str">
-        <f>VLOOKUP(B3,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C3" s="23" t="str">
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" s="72">
+      <c r="B4" s="22">
         <v>54</v>
       </c>
-      <c r="C4" s="73" t="str">
-        <f>VLOOKUP(B4,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C4" s="23" t="str">
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="73"/>
-      <c r="AA4" s="73"/>
-      <c r="AB4" s="73"/>
-      <c r="AC4" s="73"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="73"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
     </row>
     <row r="5" spans="2:34">
-      <c r="B5" s="72">
+      <c r="B5" s="22">
         <v>69</v>
       </c>
-      <c r="C5" s="73" t="str">
-        <f>VLOOKUP(B5,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C5" s="23" t="str">
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-      <c r="AB5" s="73"/>
-      <c r="AC5" s="73"/>
-      <c r="AD5" s="73"/>
-      <c r="AE5" s="73"/>
-      <c r="AF5" s="73"/>
-      <c r="AG5" s="73"/>
-      <c r="AH5" s="73"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="72">
+      <c r="B6" s="22">
         <v>70</v>
       </c>
-      <c r="C6" s="73" t="str">
-        <f>VLOOKUP(B6,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C6" s="23" t="str">
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="73"/>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="73"/>
-      <c r="AH6" s="73"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+      <c r="X6" s="23"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="72">
+      <c r="B7" s="22">
         <v>78</v>
       </c>
-      <c r="C7" s="73" t="str">
-        <f>VLOOKUP(B7,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C7" s="23" t="str">
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="72">
+      <c r="B8" s="22">
+        <v>104</v>
+      </c>
+      <c r="C8" s="23" t="str">
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>override Fitch Blu chiaro</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
+    </row>
+    <row r="9" spans="2:34">
+      <c r="B9" s="22">
         <v>80</v>
       </c>
-      <c r="C8" s="73" t="str">
-        <f>VLOOKUP(B8,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C9" s="23" t="str">
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-    </row>
-    <row r="9" spans="2:34">
-      <c r="B9" s="72">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+    </row>
+    <row r="10" spans="2:34">
+      <c r="B10" s="22">
         <v>82</v>
       </c>
-      <c r="C9" s="73" t="str">
-        <f>VLOOKUP(B9,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C10" s="23" t="str">
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-    </row>
-    <row r="10" spans="2:34">
-      <c r="B10" s="72">
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+    </row>
+    <row r="11" spans="2:34">
+      <c r="B11" s="22">
         <v>83</v>
       </c>
-      <c r="C10" s="73" t="str">
-        <f>VLOOKUP(B10,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C11" s="23" t="str">
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="73"/>
-      <c r="AE10" s="73"/>
-      <c r="AF10" s="73"/>
-      <c r="AG10" s="73"/>
-      <c r="AH10" s="73"/>
-    </row>
-    <row r="11" spans="2:34">
-      <c r="B11" s="72">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+    </row>
+    <row r="12" spans="2:34">
+      <c r="B12" s="22">
         <v>85</v>
       </c>
-      <c r="C11" s="73" t="str">
-        <f>VLOOKUP(B11,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C12" s="23" t="str">
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="73"/>
-      <c r="AA11" s="73"/>
-      <c r="AB11" s="73"/>
-      <c r="AC11" s="73"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="73"/>
-      <c r="AG11" s="73"/>
-      <c r="AH11" s="73"/>
-    </row>
-    <row r="12" spans="2:34">
-      <c r="B12" s="72">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N12" s="23"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
+      <c r="AH12" s="23"/>
+    </row>
+    <row r="13" spans="2:34">
+      <c r="B13" s="22">
         <v>86</v>
       </c>
-      <c r="C12" s="73" t="str">
-        <f>VLOOKUP(B12,Sheet1!$B$47:$C$282,2,FALSE)</f>
+      <c r="C13" s="23" t="str">
+        <f>VLOOKUP(B13,Sheet1!$B$47:$C$290,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="73"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="73"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="23"/>
+      <c r="AH13" s="23"/>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="74"/>
-      <c r="C14" s="27" t="s">
-        <v>242</v>
-      </c>
+      <c r="B14" s="22">
+        <v>89</v>
+      </c>
+      <c r="C14" s="23" t="str">
+        <f>VLOOKUP(B14,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>motore ISPRO BANK</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="23"/>
+      <c r="AH14" s="23"/>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="75"/>
-      <c r="C15" s="27" t="s">
-        <v>243</v>
-      </c>
+      <c r="B15" s="22">
+        <v>90</v>
+      </c>
+      <c r="C15" s="23" t="str">
+        <f>VLOOKUP(B15,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>file test e TCK ISPRO BANK</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="23"/>
+      <c r="AH15" s="23"/>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="76"/>
-      <c r="C16" s="27" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="78"/>
-      <c r="C17" s="27" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="81"/>
-      <c r="C18" s="27" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="82"/>
-      <c r="C19" s="27" t="s">
-        <v>253</v>
+      <c r="B16" s="22">
+        <v>96</v>
+      </c>
+      <c r="C16" s="23" t="str">
+        <f>VLOOKUP(B16,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
+      <c r="Z16" s="23"/>
+      <c r="AA16" s="23"/>
+      <c r="AB16" s="23"/>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="23"/>
+      <c r="AG16" s="23"/>
+      <c r="AH16" s="23"/>
+    </row>
+    <row r="17" spans="2:34">
+      <c r="B17" s="22">
+        <v>97</v>
+      </c>
+      <c r="C17" s="23" t="str">
+        <f>VLOOKUP(B17,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>Retail: test di performance (2 mio di dati)</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="23"/>
+      <c r="AB17" s="23"/>
+      <c r="AC17" s="23"/>
+      <c r="AD17" s="23"/>
+      <c r="AE17" s="23"/>
+      <c r="AF17" s="23"/>
+      <c r="AG17" s="23"/>
+      <c r="AH17" s="23"/>
+    </row>
+    <row r="18" spans="2:34">
+      <c r="B18" s="22">
+        <v>100</v>
+      </c>
+      <c r="C18" s="23" t="str">
+        <f>VLOOKUP(B18,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>Retail: nodo Riempimento in VM</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="23"/>
+      <c r="AD18" s="23"/>
+      <c r="AE18" s="23"/>
+      <c r="AF18" s="23"/>
+      <c r="AG18" s="23"/>
+      <c r="AH18" s="23"/>
+    </row>
+    <row r="19" spans="2:34">
+      <c r="B19" s="22">
+        <v>101</v>
+      </c>
+      <c r="C19" s="23" t="str">
+        <f>VLOOKUP(B19,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>Retail: sviluppo indicatori</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="S19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="U19" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23"/>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
+      <c r="AB19" s="23"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="23"/>
+      <c r="AE19" s="23"/>
+      <c r="AF19" s="23"/>
+      <c r="AG19" s="23"/>
+      <c r="AH19" s="23"/>
+    </row>
+    <row r="20" spans="2:34">
+      <c r="B20" s="22">
+        <v>102</v>
+      </c>
+      <c r="C20" s="23" t="str">
+        <f>VLOOKUP(B20,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>Retail: configurazione start-up app (excel)</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23"/>
+      <c r="AA20" s="23"/>
+      <c r="AB20" s="23"/>
+      <c r="AC20" s="23"/>
+      <c r="AD20" s="23"/>
+      <c r="AE20" s="23"/>
+      <c r="AF20" s="23"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="23"/>
+    </row>
+    <row r="21" spans="2:34">
+      <c r="B21" s="22">
+        <v>103</v>
+      </c>
+      <c r="C21" s="23" t="str">
+        <f>VLOOKUP(B21,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="23"/>
+      <c r="AH21" s="23"/>
+    </row>
+    <row r="23" spans="2:34">
+      <c r="B23" s="35"/>
+      <c r="C23" s="16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34">
+      <c r="B24" s="24"/>
+      <c r="C24" s="16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34">
+      <c r="B25" s="25"/>
+      <c r="C25" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34">
+      <c r="B26" s="27"/>
+      <c r="C26" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34">
+      <c r="B27" s="36"/>
+      <c r="C27" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34">
+      <c r="B28" s="30"/>
+      <c r="C28" s="16" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Plan DEV" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$105</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="207">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>TEMA</t>
-  </si>
-  <si>
-    <t>STATO</t>
   </si>
   <si>
     <t>DURATA</t>
@@ -870,6 +867,12 @@
       </rPr>
       <t xml:space="preserve"> blu chiaro. </t>
     </r>
+  </si>
+  <si>
+    <t>SVILUPPO</t>
+  </si>
+  <si>
+    <t>VM - inserire simbolo &gt;= e &lt;=</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1225,57 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2528,11 +2581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE139"/>
+  <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2541,7 +2593,7 @@
     <col min="2" max="2" width="9.8984375" customWidth="1"/>
     <col min="3" max="3" width="83.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.09765625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" style="6" customWidth="1"/>
@@ -2552,34 +2604,34 @@
     <row r="1" spans="1:31">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" hidden="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -2588,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E2" s="13">
         <v>1</v>
@@ -2606,20 +2658,20 @@
         <v>3</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="13">
         <v>1</v>
@@ -2638,20 +2690,20 @@
       </c>
       <c r="J3" s="8"/>
       <c r="AE3" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" hidden="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -2671,17 +2723,17 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31" hidden="1">
+    <row r="5" spans="1:31">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="13">
         <v>1</v>
@@ -2701,17 +2753,17 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31" hidden="1">
+    <row r="6" spans="1:31">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="13">
         <v>1</v>
@@ -2729,10 +2781,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" hidden="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2742,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="13">
         <v>1</v>
@@ -2761,17 +2813,17 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31" hidden="1">
+    <row r="8" spans="1:31">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="13">
         <v>1</v>
@@ -2790,7 +2842,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31" hidden="1">
+    <row r="9" spans="1:31">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2800,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="13">
         <v>1</v>
@@ -2819,17 +2871,17 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31" hidden="1">
+    <row r="10" spans="1:31">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="13">
         <v>1</v>
@@ -2848,7 +2900,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31" hidden="1">
+    <row r="11" spans="1:31">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2858,7 +2910,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="13">
         <v>1</v>
@@ -2877,7 +2929,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31" hidden="1">
+    <row r="12" spans="1:31">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2887,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="13">
         <v>1</v>
@@ -2905,20 +2957,20 @@
         <v>2</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" hidden="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="13">
         <v>1</v>
@@ -2937,17 +2989,17 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31" hidden="1">
+    <row r="14" spans="1:31">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" s="13">
         <v>1</v>
@@ -2966,17 +3018,17 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31" hidden="1">
+    <row r="15" spans="1:31">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="13">
         <v>1</v>
@@ -2995,17 +3047,17 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31" hidden="1">
+    <row r="16" spans="1:31">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="13">
         <v>1</v>
@@ -3024,38 +3076,38 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" hidden="1">
+    <row r="17" spans="1:10">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="13">
-        <v>1</v>
-      </c>
-      <c r="F17" s="13">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -3065,7 +3117,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="13">
         <v>1</v>
@@ -3084,7 +3136,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" hidden="1">
+    <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -3094,7 +3146,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="13">
         <v>1</v>
@@ -3113,17 +3165,17 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" hidden="1">
+    <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="13">
         <v>1</v>
@@ -3141,10 +3193,10 @@
         <v>2</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" hidden="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -3154,7 +3206,7 @@
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" s="13">
         <v>1</v>
@@ -3173,7 +3225,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" hidden="1">
+    <row r="22" spans="1:10">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -3183,7 +3235,7 @@
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
@@ -3202,17 +3254,17 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" hidden="1">
+    <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="13">
         <v>1</v>
@@ -3231,7 +3283,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" hidden="1">
+    <row r="24" spans="1:10">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -3241,7 +3293,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="13">
         <v>1</v>
@@ -3260,17 +3312,17 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" hidden="1">
+    <row r="25" spans="1:10">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" s="13">
         <v>1</v>
@@ -3289,7 +3341,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" hidden="1">
+    <row r="26" spans="1:10">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -3299,7 +3351,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" s="13">
         <v>1</v>
@@ -3318,7 +3370,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" hidden="1">
+    <row r="27" spans="1:10">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -3328,7 +3380,7 @@
         <v>11</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="13">
         <v>1</v>
@@ -3347,17 +3399,17 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" hidden="1">
+    <row r="28" spans="1:10">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="13">
         <v>1</v>
@@ -3376,17 +3428,17 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" hidden="1">
+    <row r="29" spans="1:10">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E29" s="13">
         <v>1</v>
@@ -3405,17 +3457,17 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" hidden="1">
+    <row r="30" spans="1:10">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="13">
         <v>1</v>
@@ -3434,17 +3486,17 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" hidden="1">
+    <row r="31" spans="1:10">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E31" s="13">
         <v>1</v>
@@ -3463,17 +3515,17 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" hidden="1">
+    <row r="32" spans="1:10">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="13">
         <v>1</v>
@@ -3491,20 +3543,20 @@
         <v>2</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" hidden="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E33" s="13">
         <v>1</v>
@@ -3523,17 +3575,17 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" hidden="1">
+    <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="13">
         <v>1</v>
@@ -3552,17 +3604,17 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" hidden="1">
+    <row r="35" spans="1:10">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E35" s="13">
         <v>1</v>
@@ -3581,17 +3633,17 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10" hidden="1">
+    <row r="36" spans="1:10">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="13">
         <v>1</v>
@@ -3610,17 +3662,17 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10" hidden="1">
+    <row r="37" spans="1:10">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="13">
         <v>1</v>
@@ -3639,17 +3691,17 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10" hidden="1">
+    <row r="38" spans="1:10">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="13">
         <v>1</v>
@@ -3668,17 +3720,17 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10" hidden="1">
+    <row r="39" spans="1:10">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="13">
         <v>1</v>
@@ -3697,17 +3749,17 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10" hidden="1">
+    <row r="40" spans="1:10">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E40" s="13">
         <v>1</v>
@@ -3726,17 +3778,17 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10" hidden="1">
+    <row r="41" spans="1:10">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E41" s="13">
         <v>1</v>
@@ -3754,20 +3806,20 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="13">
         <v>1</v>
@@ -3786,17 +3838,17 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" hidden="1">
+    <row r="43" spans="1:10">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E43" s="13">
         <v>1</v>
@@ -3814,21 +3866,21 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="E44" s="13">
         <v>1</v>
       </c>
@@ -3845,20 +3897,20 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" hidden="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="E45" s="13">
         <v>1</v>
@@ -3876,20 +3928,20 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E46" s="13">
         <v>1</v>
@@ -3907,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3917,10 +3969,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E47" s="13">
         <v>1</v>
@@ -3936,7 +3988,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3946,13 +3998,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -3962,17 +4014,17 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" hidden="1">
+    <row r="49" spans="1:10">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E49" s="13">
         <v>1</v>
@@ -3990,20 +4042,20 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" hidden="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" s="13">
         <v>1</v>
@@ -4021,50 +4073,50 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" hidden="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13">
+        <v>1</v>
+      </c>
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1</v>
+      </c>
+      <c r="I51" s="5">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="13">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13">
-        <v>1</v>
-      </c>
-      <c r="G51" s="13">
-        <v>1</v>
-      </c>
-      <c r="H51" s="5">
-        <v>1</v>
-      </c>
-      <c r="I51" s="5">
-        <v>2</v>
-      </c>
-      <c r="J51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C52" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" hidden="1">
-      <c r="B52" s="7">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="D52" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E52" s="13">
         <v>1</v>
@@ -4082,7 +4134,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -4091,19 +4143,19 @@
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E53" s="13">
         <v>1</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -4112,7 +4164,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4121,13 +4173,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -4145,13 +4197,13 @@
         <v>54</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E55" s="13">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="13"/>
@@ -4162,49 +4214,49 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2</v>
+      </c>
+      <c r="I56" s="5">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="B57" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E56" s="13">
-        <v>1</v>
-      </c>
-      <c r="F56" s="13">
-        <v>1</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1</v>
-      </c>
-      <c r="H56" s="5">
-        <v>2</v>
-      </c>
-      <c r="I56" s="5">
-        <v>2</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" hidden="1">
-      <c r="B57" s="7">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="D57" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E57" s="13">
         <v>1</v>
@@ -4222,25 +4274,25 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" hidden="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E58" s="13">
         <v>1</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" s="13">
         <v>1</v>
@@ -4259,16 +4311,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" s="13"/>
       <c r="H59" s="5">
@@ -4285,16 +4337,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E60" s="13">
         <v>1</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60" s="13"/>
       <c r="H60" s="5">
@@ -4305,16 +4357,16 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" hidden="1">
+    <row r="61" spans="1:10">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61" s="13">
         <v>1</v>
@@ -4332,7 +4384,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4341,16 +4393,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G62" s="13"/>
       <c r="H62" s="5">
@@ -4367,19 +4419,19 @@
         <v>62</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E63" s="13">
         <v>1</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H63" s="5">
         <v>3</v>
@@ -4395,58 +4447,58 @@
         <v>63</v>
       </c>
       <c r="C64" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="13">
+        <v>1</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="5">
+        <v>1</v>
+      </c>
+      <c r="I64" s="5">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="7">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C65" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="13">
-        <v>1</v>
-      </c>
-      <c r="F64" s="13">
-        <v>1</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" s="5">
-        <v>1</v>
-      </c>
-      <c r="I64" s="5">
-        <v>1</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" hidden="1">
-      <c r="B65" s="7">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C65" s="10" t="s">
+      <c r="D65" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1</v>
+      </c>
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E65" s="13">
-        <v>1</v>
-      </c>
-      <c r="F65" s="13">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="I65" s="5">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="66" spans="2:10">
@@ -4455,16 +4507,16 @@
         <v>65</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" s="13"/>
       <c r="H66" s="5">
@@ -4474,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -4483,16 +4535,16 @@
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F67" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" s="13"/>
       <c r="H67" s="5">
@@ -4509,10 +4561,10 @@
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E68" s="13">
         <v>1</v>
@@ -4521,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -4537,19 +4589,19 @@
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -4565,15 +4617,17 @@
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
       </c>
-      <c r="F70" s="13"/>
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
       <c r="G70" s="13"/>
       <c r="H70" s="5">
         <v>3</v>
@@ -4582,7 +4636,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4591,13 +4645,13 @@
         <v>70</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E71" s="13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F71" s="13"/>
       <c r="G71" s="13"/>
@@ -4608,19 +4662,19 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
@@ -4638,67 +4692,67 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="73" spans="2:10" hidden="1">
-      <c r="B73" s="7">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="D73" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="13">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
+      <c r="H73" s="5">
+        <v>1</v>
+      </c>
+      <c r="I73" s="5">
+        <v>1</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E73" s="13">
-        <v>1</v>
-      </c>
-      <c r="F73" s="13">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13">
-        <v>1</v>
-      </c>
-      <c r="H73" s="5">
-        <v>1</v>
-      </c>
-      <c r="I73" s="5">
-        <v>1</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" hidden="1">
+    </row>
+    <row r="74" spans="2:10">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="E74" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="F74" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="13">
+        <v>1</v>
+      </c>
+      <c r="H74" s="5">
+        <v>1</v>
+      </c>
+      <c r="I74" s="5">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" s="13">
-        <v>1</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1</v>
-      </c>
-      <c r="I74" s="5">
-        <v>1</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4707,10 +4761,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
@@ -4722,7 +4776,7 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:10">
@@ -4731,10 +4785,10 @@
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
@@ -4746,7 +4800,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -4755,14 +4809,14 @@
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="5">
@@ -4779,13 +4833,13 @@
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
@@ -4796,7 +4850,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -4805,13 +4859,13 @@
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E79" s="13">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="F79" s="13"/>
       <c r="G79" s="13"/>
@@ -4822,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -4831,10 +4885,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E80" s="13">
         <v>0.15</v>
@@ -4855,10 +4909,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
@@ -4872,26 +4926,26 @@
         <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82" s="7">
-        <f t="shared" ref="B82:C99" si="1">+B81+1</f>
+        <f t="shared" ref="B82:B98" si="1">+B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E82" s="13">
         <v>1</v>
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -4907,10 +4961,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E83" s="13">
         <v>0.5</v>
@@ -4924,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4933,10 +4987,10 @@
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13"/>
@@ -4948,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -4957,15 +5011,15 @@
         <v>84</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13"/>
       <c r="G85" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -4981,12 +5035,14 @@
         <v>85</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="E86" s="13">
+        <v>0.3</v>
+      </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="5">
@@ -4996,7 +5052,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -5005,10 +5061,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -5020,7 +5076,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -5029,10 +5085,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -5051,15 +5107,15 @@
         <v>88</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
       <c r="G89" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89" s="5">
         <v>1</v>
@@ -5075,10 +5131,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -5090,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -5099,10 +5155,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -5114,7 +5170,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -5123,12 +5179,14 @@
         <v>91</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="13"/>
+        <v>133</v>
+      </c>
+      <c r="E92" s="13">
+        <v>1</v>
+      </c>
       <c r="F92" s="13"/>
       <c r="G92" s="13"/>
       <c r="H92" s="5">
@@ -5138,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -5147,13 +5205,13 @@
         <v>92</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E93" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F93" s="13"/>
       <c r="G93" s="13"/>
@@ -5164,7 +5222,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -5173,13 +5231,13 @@
         <v>93</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E94" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F94" s="13"/>
       <c r="G94" s="13"/>
@@ -5190,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -5199,13 +5257,17 @@
         <v>94</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="E95" s="13">
+        <v>1</v>
+      </c>
+      <c r="F95" s="13">
+        <v>1</v>
+      </c>
       <c r="G95" s="13"/>
       <c r="H95" s="5">
         <v>2</v>
@@ -5214,7 +5276,7 @@
         <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -5223,13 +5285,13 @@
         <v>95</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E96" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -5240,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -5249,15 +5311,17 @@
         <v>96</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E97" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="E97" s="13">
+        <v>0.9</v>
+      </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97" s="5">
         <v>2</v>
@@ -5266,7 +5330,7 @@
         <v>2</v>
       </c>
       <c r="J97" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="98" spans="2:10">
@@ -5275,15 +5339,17 @@
         <v>97</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E98" s="13"/>
+        <v>171</v>
+      </c>
+      <c r="E98" s="13">
+        <v>1</v>
+      </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -5292,24 +5358,24 @@
         <v>2</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="2:10">
       <c r="B99" s="7">
-        <f t="shared" ref="B99:C99" si="2">+B98+1</f>
+        <f t="shared" ref="B99" si="2">+B98+1</f>
         <v>98</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="G99" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H99" s="5">
         <v>2</v>
@@ -5318,23 +5384,27 @@
         <v>2</v>
       </c>
       <c r="J99" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="2:10">
       <c r="B100" s="7">
-        <f t="shared" ref="B100:C100" si="3">+B99+1</f>
+        <f t="shared" ref="B100" si="3">+B99+1</f>
         <v>99</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="E100" s="13">
+        <v>1</v>
+      </c>
       <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
+      <c r="G100" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="H100" s="5">
         <v>2</v>
       </c>
@@ -5342,19 +5412,19 @@
         <v>2</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:C105" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B106" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E101" s="13"/>
       <c r="F101" s="13"/>
@@ -5366,7 +5436,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -5375,10 +5445,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -5390,7 +5460,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -5399,10 +5469,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -5414,7 +5484,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="2:10">
@@ -5423,10 +5493,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -5438,7 +5508,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -5447,13 +5517,13 @@
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E105" s="13">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F105" s="13"/>
       <c r="G105" s="13"/>
@@ -5464,543 +5534,585 @@
         <v>2</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="107" spans="2:10">
-      <c r="C107" s="31" t="s">
-        <v>168</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10">
+      <c r="B106" s="7">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="13">
+        <v>1</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="5">
+        <v>3</v>
+      </c>
+      <c r="I106" s="5">
+        <v>3</v>
+      </c>
+      <c r="J106" s="1"/>
     </row>
     <row r="108" spans="2:10">
       <c r="C108" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="C109" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="C110" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="2:10">
-      <c r="C111" s="38" t="s">
-        <v>204</v>
+      <c r="C111" s="31" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="C112" s="38" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
-        <v>56</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113" s="38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J104">
-    <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="NO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="103" priority="116" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="102" priority="115" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="101" priority="114" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="100" priority="113" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="99" priority="112" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:G71">
     <cfRule type="cellIs" dxfId="98" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="97" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="96" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="95" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="94" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="93" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="92" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="91" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="90" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="89" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="88" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="87" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="86" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="85" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="84" priority="97" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="83" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="82" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="81" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="80" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="79" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="78" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="77" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="76" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="75" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="74" priority="87" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="73" priority="86" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="72" priority="85" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="71" priority="84" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="70" priority="83" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="74" priority="84" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="72" priority="82" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="70" priority="80" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="67" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="65" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="64" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="63" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="61" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="59" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="58" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="57" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="56" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="55" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="54" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="53" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="52" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="51" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="50" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="48" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F89:G89">
     <cfRule type="cellIs" dxfId="47" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="F89:G89">
     <cfRule type="cellIs" dxfId="46" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="45" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="44" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89:G89">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="42" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89:G89">
-    <cfRule type="cellIs" dxfId="41" priority="51" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="40" priority="50" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="39" priority="49" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="38" priority="48" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="37" priority="47" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F93:G93">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:G93">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:G95">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:G95">
     <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:G93">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:G95">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E99:E101">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100:G101 F99">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F100:G101 F99">
+    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
+    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F103:G103">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="E106">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -6029,51 +6141,51 @@
     <row r="2" spans="2:6">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>179</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>180</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -6081,100 +6193,100 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -6190,10 +6302,10 @@
   <dimension ref="B1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6243,11 +6355,11 @@
       </c>
       <c r="K1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>p</v>
+        <v/>
       </c>
       <c r="L1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>p</v>
       </c>
       <c r="M1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6340,7 +6452,7 @@
     </row>
     <row r="2" spans="2:34">
       <c r="B2" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="20"/>
       <c r="D2" s="21">
@@ -6472,7 +6584,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -6512,7 +6624,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -6552,7 +6664,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -6592,7 +6704,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -6632,7 +6744,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -6672,7 +6784,7 @@
         <v>104</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D8" s="23"/>
@@ -6712,7 +6824,7 @@
         <v>80</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D9" s="23"/>
@@ -6752,7 +6864,7 @@
         <v>82</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
       <c r="D10" s="23"/>
@@ -6792,7 +6904,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D11" s="23"/>
@@ -6803,12 +6915,12 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
@@ -6832,7 +6944,7 @@
         <v>85</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
       <c r="D12" s="23"/>
@@ -6845,7 +6957,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N12" s="23"/>
       <c r="O12" s="28"/>
@@ -6874,7 +6986,7 @@
         <v>86</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B13,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D13" s="23"/>
@@ -6914,7 +7026,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B14,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>motore ISPRO BANK</v>
       </c>
       <c r="D14" s="23"/>
@@ -6929,7 +7041,7 @@
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P14" s="23"/>
       <c r="Q14" s="37"/>
@@ -6956,7 +7068,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B15,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>file test e TCK ISPRO BANK</v>
       </c>
       <c r="D15" s="23"/>
@@ -6996,7 +7108,7 @@
         <v>96</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B16,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D16" s="23"/>
@@ -7036,7 +7148,7 @@
         <v>97</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B17,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D17" s="23"/>
@@ -7076,7 +7188,7 @@
         <v>100</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B18,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>Retail: nodo Riempimento in VM</v>
       </c>
       <c r="D18" s="23"/>
@@ -7116,7 +7228,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B19,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D19" s="23"/>
@@ -7134,16 +7246,16 @@
       <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="S19" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="T19" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U19" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
@@ -7164,7 +7276,7 @@
         <v>102</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B20,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D20" s="23"/>
@@ -7204,7 +7316,7 @@
         <v>103</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Sheet1!$B$47:$C$290,2,FALSE)</f>
+        <f>VLOOKUP(B21,Sheet1!$B$47:$C$291,2,FALSE)</f>
         <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D21" s="23"/>
@@ -7242,37 +7354,37 @@
     <row r="23" spans="2:34">
       <c r="B23" s="35"/>
       <c r="C23" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="24"/>
       <c r="C24" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:34">
       <c r="B25" s="25"/>
       <c r="C25" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:34">
       <c r="B26" s="27"/>
       <c r="C26" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="2:34">
       <c r="B27" s="36"/>
       <c r="C27" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="2:34">
       <c r="B28" s="30"/>
       <c r="C28" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Plan DEV" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$106</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="208">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>16/01 inizio UAT e rilascio il 20/01</t>
-  </si>
-  <si>
-    <t>06/02 inizio UAT e rilascio il 20/02</t>
   </si>
   <si>
     <t>10/01 inizio UAT e rilascio il 20/01</t>
@@ -873,6 +870,12 @@
   </si>
   <si>
     <t>VM - inserire simbolo &gt;= e &lt;=</t>
+  </si>
+  <si>
+    <t>20/02 inizio UAT e rilascio il 10/03</t>
+  </si>
+  <si>
+    <t>GO!!!!</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +2584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AE140"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="B84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2613,7 +2617,7 @@
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>108</v>
@@ -2631,7 +2635,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="7">
         <v>1</v>
@@ -2661,7 +2665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="7">
         <f>+B2+1</f>
@@ -2693,7 +2697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="7">
         <f t="shared" ref="B4:B79" si="0">+B3+1</f>
@@ -2723,7 +2727,7 @@
       <c r="J4" s="8"/>
       <c r="AE4" s="9"/>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="7">
         <f t="shared" si="0"/>
@@ -2753,7 +2757,7 @@
       <c r="J5" s="8"/>
       <c r="AE5" s="9"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -2784,7 +2788,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -2813,7 +2817,7 @@
       </c>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -2842,7 +2846,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -2871,7 +2875,7 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -2900,7 +2904,7 @@
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -2929,7 +2933,7 @@
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
@@ -2960,7 +2964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
@@ -2989,7 +2993,7 @@
       </c>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
@@ -3018,7 +3022,7 @@
       </c>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
@@ -3047,7 +3051,7 @@
       </c>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" ht="15.6" hidden="1" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
         <f t="shared" si="0"/>
@@ -3076,7 +3080,7 @@
       </c>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
         <f t="shared" si="0"/>
@@ -3107,7 +3111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
@@ -3136,7 +3140,7 @@
       </c>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
@@ -3165,7 +3169,7 @@
       </c>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
@@ -3196,7 +3200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
@@ -3225,7 +3229,7 @@
       </c>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
@@ -3254,7 +3258,7 @@
       </c>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
@@ -3283,7 +3287,7 @@
       </c>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
@@ -3312,7 +3316,7 @@
       </c>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
@@ -3341,7 +3345,7 @@
       </c>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="7">
         <f t="shared" si="0"/>
@@ -3370,7 +3374,7 @@
       </c>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="7">
         <f t="shared" si="0"/>
@@ -3399,7 +3403,7 @@
       </c>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="7">
         <f t="shared" si="0"/>
@@ -3428,7 +3432,7 @@
       </c>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="7">
         <f t="shared" si="0"/>
@@ -3457,7 +3461,7 @@
       </c>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="7">
         <f t="shared" si="0"/>
@@ -3486,7 +3490,7 @@
       </c>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="7">
         <f t="shared" si="0"/>
@@ -3515,7 +3519,7 @@
       </c>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="7">
         <f t="shared" si="0"/>
@@ -3546,7 +3550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="7">
         <f t="shared" si="0"/>
@@ -3575,7 +3579,7 @@
       </c>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="7">
         <f t="shared" si="0"/>
@@ -3604,7 +3608,7 @@
       </c>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="7">
         <f t="shared" si="0"/>
@@ -3633,7 +3637,7 @@
       </c>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="7">
         <f t="shared" si="0"/>
@@ -3662,7 +3666,7 @@
       </c>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="7">
         <f t="shared" si="0"/>
@@ -3691,7 +3695,7 @@
       </c>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="7">
         <f t="shared" si="0"/>
@@ -3720,7 +3724,7 @@
       </c>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="7">
         <f t="shared" si="0"/>
@@ -3749,7 +3753,7 @@
       </c>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="7">
         <f t="shared" si="0"/>
@@ -3778,7 +3782,7 @@
       </c>
       <c r="J40" s="8"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="7">
         <f t="shared" si="0"/>
@@ -3809,7 +3813,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="7">
         <f t="shared" si="0"/>
@@ -3838,7 +3842,7 @@
       </c>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="7">
         <f t="shared" si="0"/>
@@ -3869,7 +3873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="7">
         <f t="shared" si="0"/>
@@ -3900,7 +3904,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="7">
         <f t="shared" si="0"/>
@@ -3931,7 +3935,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="7">
         <f t="shared" si="0"/>
@@ -3988,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4014,7 +4018,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="7">
         <f t="shared" si="0"/>
@@ -4045,7 +4049,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="7">
         <f t="shared" si="0"/>
@@ -4076,7 +4080,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="7">
         <f t="shared" si="0"/>
@@ -4107,7 +4111,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B52" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -4214,10 +4218,10 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B56" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -4247,7 +4251,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B57" s="7">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -4277,7 +4281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B58" s="7">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -4357,7 +4361,7 @@
       </c>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B61" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -4471,7 +4475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B65" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -4535,7 +4539,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>63</v>
@@ -4662,10 +4666,10 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B72" s="7">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -4695,7 +4699,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B73" s="7">
         <f t="shared" si="0"/>
         <v>72</v>
@@ -4725,7 +4729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" ht="15.6" hidden="1" customHeight="1">
       <c r="B74" s="7">
         <f t="shared" si="0"/>
         <v>73</v>
@@ -4876,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -4935,7 +4939,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>25</v>
@@ -4961,13 +4965,13 @@
         <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D83" s="17" t="s">
         <v>133</v>
       </c>
       <c r="E83" s="13">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -4978,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4987,7 +4991,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="17" t="s">
         <v>133</v>
@@ -5002,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="2:10">
@@ -5011,12 +5015,14 @@
         <v>84</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E85" s="13"/>
+      <c r="E85" s="13">
+        <v>1</v>
+      </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13" t="s">
         <v>35</v>
@@ -5035,7 +5041,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D86" s="17" t="s">
         <v>133</v>
@@ -5052,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -5061,7 +5067,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" s="17" t="s">
         <v>133</v>
@@ -5076,7 +5082,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -5085,7 +5091,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D88" s="17" t="s">
         <v>133</v>
@@ -5107,7 +5113,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>25</v>
@@ -5131,7 +5137,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D90" s="17" t="s">
         <v>133</v>
@@ -5146,7 +5152,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -5155,7 +5161,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D91" s="17" t="s">
         <v>133</v>
@@ -5170,7 +5176,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -5179,7 +5185,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D92" s="17" t="s">
         <v>133</v>
@@ -5196,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -5205,7 +5211,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>128</v>
@@ -5222,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -5231,7 +5237,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>24</v>
@@ -5248,7 +5254,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -5257,7 +5263,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>61</v>
@@ -5276,7 +5282,7 @@
         <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -5285,7 +5291,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>24</v>
@@ -5302,7 +5308,7 @@
         <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="2:10">
@@ -5311,13 +5317,13 @@
         <v>96</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E97" s="13">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13" t="s">
@@ -5330,7 +5336,7 @@
         <v>2</v>
       </c>
       <c r="J97" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="2:10">
@@ -5339,10 +5345,10 @@
         <v>97</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E98" s="13">
         <v>1</v>
@@ -5358,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="2:10">
@@ -5367,7 +5373,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>25</v>
@@ -5384,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="J99" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" spans="2:10">
@@ -5393,7 +5399,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>23</v>
@@ -5412,7 +5418,7 @@
         <v>2</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="2:10">
@@ -5421,12 +5427,14 @@
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E101" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="E101" s="13">
+        <v>0.5</v>
+      </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
       <c r="H101" s="5">
@@ -5436,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -5445,10 +5453,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -5460,7 +5468,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -5469,10 +5477,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -5484,7 +5492,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="2:10">
@@ -5493,10 +5501,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -5508,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -5517,7 +5525,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>24</v>
@@ -5534,7 +5542,7 @@
         <v>2</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106" spans="2:10">
@@ -5543,7 +5551,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>24</v>
@@ -5563,32 +5571,32 @@
     </row>
     <row r="108" spans="2:10">
       <c r="C108" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="2:10">
       <c r="C109" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="2:10">
       <c r="C110" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="2:10">
       <c r="C111" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="2:10">
       <c r="C112" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="3:3">
       <c r="C113" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="140" spans="2:2">
@@ -5597,6 +5605,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:J106">
+    <filterColumn colId="5">
+      <filters blank="1">
+        <filter val="NO"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
     <cfRule type="cellIs" dxfId="103" priority="116" operator="lessThan">
       <formula>1</formula>
@@ -6126,8 +6141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6141,51 +6156,51 @@
     <row r="2" spans="2:6">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>178</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>179</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -6193,100 +6208,100 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -6299,13 +6314,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH28"/>
+  <dimension ref="B1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6721,7 +6736,9 @@
       <c r="O6" s="23"/>
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
+      <c r="R6" s="35" t="s">
+        <v>207</v>
+      </c>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
@@ -6761,7 +6778,9 @@
       <c r="O7" s="23"/>
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
+      <c r="R7" s="35" t="s">
+        <v>207</v>
+      </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
       <c r="U7" s="23"/>
@@ -6781,11 +6800,11 @@
     </row>
     <row r="8" spans="2:34">
       <c r="B8" s="22">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
         <f>VLOOKUP(B8,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>override Fitch Blu chiaro</v>
+        <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -6797,11 +6816,13 @@
       <c r="K8" s="23"/>
       <c r="L8" s="35"/>
       <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="23"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
+      <c r="R8" s="35" t="s">
+        <v>207</v>
+      </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
@@ -6821,27 +6842,29 @@
     </row>
     <row r="9" spans="2:34">
       <c r="B9" s="22">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
         <f>VLOOKUP(B9,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>testare AQR per Banca BIB</v>
+        <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="23"/>
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
+      <c r="R9" s="35" t="s">
+        <v>207</v>
+      </c>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
       <c r="U9" s="23"/>
@@ -6861,26 +6884,26 @@
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="22">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="23" t="str">
         <f>VLOOKUP(B10,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>motore ALEX BANK</v>
+        <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
@@ -6901,11 +6924,11 @@
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="22">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="23" t="str">
         <f>VLOOKUP(B11,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>file test e TCK ALEX BANK</v>
+        <v>motore ALEX BANK</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -6913,10 +6936,10 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
       <c r="N11" s="29"/>
       <c r="O11" s="29"/>
       <c r="P11" s="29"/>
@@ -6941,32 +6964,30 @@
     </row>
     <row r="12" spans="2:34">
       <c r="B12" s="22">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="23" t="str">
         <f>VLOOKUP(B12,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>motore CIB BANK</v>
+        <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="28"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
-      <c r="M12" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
@@ -6983,30 +7004,32 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="23" t="str">
         <f>VLOOKUP(B13,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>file test e TCK CIB BANK</v>
+        <v>motore CIB BANK</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="M13" s="28" t="s">
+        <v>200</v>
+      </c>
       <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+      <c r="O13" s="28"/>
       <c r="P13" s="28"/>
       <c r="Q13" s="28"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
@@ -7023,11 +7046,11 @@
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="22">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="23" t="str">
         <f>VLOOKUP(B14,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>motore ISPRO BANK</v>
+        <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -7040,17 +7063,15 @@
       <c r="L14" s="23"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
-      <c r="O14" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
       <c r="Z14" s="23"/>
@@ -7065,11 +7086,11 @@
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="22">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="23" t="str">
         <f>VLOOKUP(B15,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>file test e TCK ISPRO BANK</v>
+        <v>motore ISPRO BANK</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -7082,15 +7103,17 @@
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="O15" s="37" t="s">
+        <v>200</v>
+      </c>
       <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
+      <c r="Q15" s="37"/>
       <c r="R15" s="37"/>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
       <c r="U15" s="37"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
       <c r="X15" s="23"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
@@ -7105,11 +7128,11 @@
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="22">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C16" s="23" t="str">
         <f>VLOOKUP(B16,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
+        <v>file test e TCK ISPRO BANK</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -7119,16 +7142,16 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
-      <c r="L16" s="35"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
       <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
@@ -7145,11 +7168,11 @@
     </row>
     <row r="17" spans="2:34">
       <c r="B17" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C17" s="23" t="str">
         <f>VLOOKUP(B17,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: test di performance (2 mio di dati)</v>
+        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -7160,7 +7183,7 @@
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+      <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
@@ -7185,11 +7208,11 @@
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="22">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" s="23" t="str">
         <f>VLOOKUP(B18,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: nodo Riempimento in VM</v>
+        <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -7199,11 +7222,11 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="23"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
@@ -7225,11 +7248,11 @@
     </row>
     <row r="19" spans="2:34">
       <c r="B19" s="22">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="23" t="str">
         <f>VLOOKUP(B19,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: sviluppo indicatori</v>
+        <v>Retail: nodo Riempimento in VM</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -7242,21 +7265,13 @@
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
       <c r="Q19" s="23"/>
-      <c r="R19" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="S19" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="U19" s="35" t="s">
-        <v>200</v>
-      </c>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
@@ -7273,11 +7288,11 @@
     </row>
     <row r="20" spans="2:34">
       <c r="B20" s="22">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="23" t="str">
         <f>VLOOKUP(B20,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: configurazione start-up app (excel)</v>
+        <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -7293,11 +7308,19 @@
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
+      <c r="R20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="S20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="U20" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="V20" s="23"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
       <c r="Y20" s="23"/>
@@ -7313,11 +7336,11 @@
     </row>
     <row r="21" spans="2:34">
       <c r="B21" s="22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="23" t="str">
         <f>VLOOKUP(B21,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+        <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -7335,11 +7358,11 @@
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="T21" s="35"/>
       <c r="U21" s="35"/>
       <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
       <c r="Z21" s="23"/>
       <c r="AA21" s="23"/>
@@ -7351,40 +7374,80 @@
       <c r="AG21" s="23"/>
       <c r="AH21" s="23"/>
     </row>
-    <row r="23" spans="2:34">
-      <c r="B23" s="35"/>
-      <c r="C23" s="16" t="s">
+    <row r="22" spans="2:34">
+      <c r="B22" s="22">
+        <v>103</v>
+      </c>
+      <c r="C22" s="23" t="str">
+        <f>VLOOKUP(B22,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="23"/>
+      <c r="AG22" s="23"/>
+      <c r="AH22" s="23"/>
+    </row>
+    <row r="24" spans="2:34">
+      <c r="B24" s="35"/>
+      <c r="C24" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34">
+      <c r="B25" s="24"/>
+      <c r="C25" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="2:34">
-      <c r="B24" s="24"/>
-      <c r="C24" s="16" t="s">
+    <row r="26" spans="2:34">
+      <c r="B26" s="25"/>
+      <c r="C26" s="16" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
-      <c r="B25" s="25"/>
-      <c r="C25" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="2:34">
-      <c r="B26" s="27"/>
-      <c r="C26" s="16" t="s">
-        <v>149</v>
-      </c>
-    </row>
     <row r="27" spans="2:34">
-      <c r="B27" s="36"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34">
+      <c r="B28" s="36"/>
+      <c r="C28" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34">
+      <c r="B29" s="30"/>
+      <c r="C29" s="16" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="30"/>
-      <c r="C28" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Rilascio 2701" sheetId="5" r:id="rId2"/>
     <sheet name="Plan DEV" sheetId="4" r:id="rId3"/>
+    <sheet name="Roadmap BigBang" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$J$120</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="253">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -194,9 +195,6 @@
   </si>
   <si>
     <t>aggiornare SIT sull'ind_29 nuovo</t>
-  </si>
-  <si>
-    <t>COUNTERPARTY_BIB_IND_222</t>
   </si>
   <si>
     <t>configurare ambiente produzione</t>
@@ -877,12 +875,150 @@
   <si>
     <t>GO!!!!</t>
   </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>CIB BANK: aggiornare static</t>
+  </si>
+  <si>
+    <t>dati</t>
+  </si>
+  <si>
+    <t>inserire nell'output di banche estere i campi con le BR</t>
+  </si>
+  <si>
+    <t>rivedere formula updateOutput per le BR override</t>
+  </si>
+  <si>
+    <t>CR Esperienziali - nuovo indicatore e BR</t>
+  </si>
+  <si>
+    <t>CR Esperienziali - aggiornamento AFU</t>
+  </si>
+  <si>
+    <t>Override - aggiornamento AFU</t>
+  </si>
+  <si>
+    <t>22/02 inizio UAT</t>
+  </si>
+  <si>
+    <t>ISBA - AFU</t>
+  </si>
+  <si>
+    <t>ISBA - motore</t>
+  </si>
+  <si>
+    <t>ISBA - file test e TCK</t>
+  </si>
+  <si>
+    <t>ISBA - cambiare static e modifica excel</t>
+  </si>
+  <si>
+    <t>05/06 inizio UAT e go live 30/06</t>
+  </si>
+  <si>
+    <t>ISPRO - AFU</t>
+  </si>
+  <si>
+    <t>ISPRO - motore</t>
+  </si>
+  <si>
+    <t>ISPRO - file test e TCK</t>
+  </si>
+  <si>
+    <t>ISPRO - cambiare static e modifica excel</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>entro il 02/03</t>
+  </si>
+  <si>
+    <t>entro il 04/04</t>
+  </si>
+  <si>
+    <t>Discovery EW 2.0</t>
+  </si>
+  <si>
+    <t>Argument</t>
+  </si>
+  <si>
+    <t>Test Catalog</t>
+  </si>
+  <si>
+    <t>Incontro</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Verifica impatti</t>
+  </si>
+  <si>
+    <t>Configuration BE PROD</t>
+  </si>
+  <si>
+    <t>Configuration Retail PROD</t>
+  </si>
+  <si>
+    <t>Configuration DEV</t>
+  </si>
+  <si>
+    <t>Configuration SYT</t>
+  </si>
+  <si>
+    <t>Configuration Corporate PROD</t>
+  </si>
+  <si>
+    <t>Test performance</t>
+  </si>
+  <si>
+    <t>Integration test</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>Mock-up e condivisione</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>Architecture Design e follow-up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migrazione </t>
+  </si>
+  <si>
+    <t>Dipendenze:</t>
+  </si>
+  <si>
+    <t>giorno del rilascio (prima dei test di Catalog?)</t>
+  </si>
+  <si>
+    <t>impatto sulla migrazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">funzione export </t>
+  </si>
+  <si>
+    <t>tempistiche UDC tra ambienti</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -964,8 +1100,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1068,8 +1212,30 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <gradientFill degree="225">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFF0000"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1152,11 +1318,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1224,11 +1440,293 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="17" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="130">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2585,10 +3083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE140"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B84" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2617,13 +3115,13 @@
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>16</v>
@@ -2764,7 +3262,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>36</v>
@@ -2785,7 +3283,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15.6" hidden="1" customHeight="1">
@@ -3029,7 +3527,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>38</v>
@@ -3087,7 +3585,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>38</v>
@@ -3108,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -3615,7 +4113,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>38</v>
@@ -3810,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -3820,7 +4318,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>36</v>
@@ -3849,10 +4347,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E43" s="13">
         <v>1</v>
@@ -3870,7 +4368,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -3880,10 +4378,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="E44" s="13">
         <v>1</v>
@@ -3901,7 +4399,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -3911,10 +4409,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="E45" s="13">
         <v>1</v>
@@ -3932,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -3942,10 +4440,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E46" s="13">
         <v>1</v>
@@ -3963,7 +4461,7 @@
         <v>2</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3973,7 +4471,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>24</v>
@@ -3992,7 +4490,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -4002,13 +4500,13 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -4025,7 +4523,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>23</v>
@@ -4046,7 +4544,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -4056,10 +4554,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E50" s="13">
         <v>1</v>
@@ -4077,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -4087,7 +4585,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>23</v>
@@ -4108,7 +4606,7 @@
         <v>2</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -4117,10 +4615,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E52" s="13">
         <v>1</v>
@@ -4138,16 +4636,16 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" hidden="1">
       <c r="B53" s="7">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>25</v>
@@ -4159,7 +4657,7 @@
         <v>35</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H53" s="5">
         <v>1</v>
@@ -4168,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -4177,13 +4675,13 @@
         <v>53</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -4201,10 +4699,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E55" s="13">
         <v>1</v>
@@ -4218,7 +4716,7 @@
         <v>3</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -4227,10 +4725,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="E56" s="13">
         <v>1</v>
@@ -4248,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -4257,7 +4755,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>23</v>
@@ -4278,7 +4776,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.6" hidden="1" customHeight="1">
@@ -4287,7 +4785,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>23</v>
@@ -4315,13 +4813,13 @@
         <v>58</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="13" t="s">
         <v>35</v>
@@ -4341,7 +4839,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>23</v>
@@ -4367,10 +4865,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" s="13">
         <v>1</v>
@@ -4388,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -4397,13 +4895,13 @@
         <v>61</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F62" s="13" t="s">
         <v>35</v>
@@ -4417,13 +4915,13 @@
       </c>
       <c r="J62" s="1"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" hidden="1">
       <c r="B63" s="7">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>25</v>
@@ -4435,7 +4933,7 @@
         <v>35</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H63" s="5">
         <v>3</v>
@@ -4445,16 +4943,16 @@
       </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" hidden="1">
       <c r="B64" s="7">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E64" s="13">
         <v>1</v>
@@ -4463,7 +4961,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H64" s="5">
         <v>1</v>
@@ -4472,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="2:10" ht="15.6" hidden="1" customHeight="1">
@@ -4481,28 +4979,28 @@
         <v>64</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="13">
+        <v>1</v>
+      </c>
+      <c r="F65" s="13">
+        <v>1</v>
+      </c>
+      <c r="G65" s="13">
+        <v>1</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1</v>
+      </c>
+      <c r="I65" s="5">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E65" s="13">
-        <v>1</v>
-      </c>
-      <c r="F65" s="13">
-        <v>1</v>
-      </c>
-      <c r="G65" s="13">
-        <v>1</v>
-      </c>
-      <c r="H65" s="5">
-        <v>1</v>
-      </c>
-      <c r="I65" s="5">
-        <v>1</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="66" spans="2:10">
@@ -4511,13 +5009,13 @@
         <v>65</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" s="13" t="s">
         <v>35</v>
@@ -4530,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="2:10">
@@ -4539,13 +5037,13 @@
         <v>66</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E67" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" s="13" t="s">
         <v>35</v>
@@ -4559,13 +5057,13 @@
       </c>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" hidden="1">
       <c r="B68" s="7">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>23</v>
@@ -4577,7 +5075,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H68" s="5">
         <v>1</v>
@@ -4587,13 +5085,13 @@
       </c>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" hidden="1">
       <c r="B69" s="7">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>25</v>
@@ -4605,7 +5103,7 @@
         <v>35</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
@@ -4621,10 +5119,10 @@
         <v>69</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E70" s="13">
         <v>1</v>
@@ -4640,7 +5138,7 @@
         <v>3</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:10">
@@ -4649,7 +5147,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>24</v>
@@ -4666,7 +5164,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="15.6" hidden="1" customHeight="1">
@@ -4675,10 +5173,10 @@
         <v>71</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E72" s="13">
         <v>1</v>
@@ -4696,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="15.6" hidden="1" customHeight="1">
@@ -4705,7 +5203,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>23</v>
@@ -4726,7 +5224,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="15.6" hidden="1" customHeight="1">
@@ -4735,13 +5233,13 @@
         <v>73</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="E74" s="13" t="s">
         <v>115</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>116</v>
       </c>
       <c r="F74" s="13" t="s">
         <v>35</v>
@@ -4756,7 +5254,7 @@
         <v>1</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="2:10">
@@ -4765,7 +5263,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D75" s="17" t="s">
         <v>23</v>
@@ -4780,23 +5278,27 @@
         <v>1</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" hidden="1">
       <c r="B76" s="7">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E76" s="13"/>
+      <c r="E76" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="F76" s="13"/>
-      <c r="G76" s="13"/>
+      <c r="G76" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="H76" s="5">
         <v>2</v>
       </c>
@@ -4804,7 +5306,7 @@
         <v>2</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="2:10">
@@ -4813,10 +5315,10 @@
         <v>76</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13" t="s">
@@ -4837,13 +5339,13 @@
         <v>77</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>24</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
@@ -4854,7 +5356,7 @@
         <v>3</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -4863,10 +5365,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E79" s="13">
         <v>1</v>
@@ -4880,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -4889,10 +5391,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E80" s="13">
         <v>0.15</v>
@@ -4913,10 +5415,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D81" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="E81" s="13">
         <v>1</v>
@@ -4930,16 +5432,16 @@
         <v>2</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" hidden="1">
       <c r="B82" s="7">
         <f t="shared" ref="B82:B98" si="1">+B81+1</f>
         <v>81</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>25</v>
@@ -4949,7 +5451,7 @@
       </c>
       <c r="F82" s="13"/>
       <c r="G82" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H82" s="5">
         <v>1</v>
@@ -4965,10 +5467,10 @@
         <v>82</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E83" s="13">
         <v>0.7</v>
@@ -4982,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84" spans="2:10">
@@ -4991,12 +5493,14 @@
         <v>83</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E84" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="E84" s="13">
+        <v>0.2</v>
+      </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
       <c r="H84" s="5">
@@ -5006,16 +5510,16 @@
         <v>3</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" hidden="1">
       <c r="B85" s="7">
         <f>+B84+1</f>
         <v>84</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D85" s="17" t="s">
         <v>25</v>
@@ -5025,7 +5529,7 @@
       </c>
       <c r="F85" s="13"/>
       <c r="G85" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H85" s="5">
         <v>1</v>
@@ -5041,10 +5545,10 @@
         <v>85</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E86" s="13">
         <v>0.3</v>
@@ -5058,7 +5562,7 @@
         <v>3</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="87" spans="2:10">
@@ -5067,10 +5571,10 @@
         <v>86</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13"/>
@@ -5082,7 +5586,7 @@
         <v>3</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="2:10">
@@ -5091,10 +5595,10 @@
         <v>87</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
@@ -5113,16 +5617,14 @@
         <v>88</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D89" s="17" t="s">
         <v>25</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
-      <c r="G89" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="G89" s="13"/>
       <c r="H89" s="5">
         <v>1</v>
       </c>
@@ -5137,10 +5639,10 @@
         <v>89</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
@@ -5152,7 +5654,7 @@
         <v>3</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="91" spans="2:10">
@@ -5161,10 +5663,10 @@
         <v>90</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -5176,7 +5678,7 @@
         <v>3</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="2:10">
@@ -5185,10 +5687,10 @@
         <v>91</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E92" s="13">
         <v>1</v>
@@ -5202,7 +5704,7 @@
         <v>1</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="93" spans="2:10">
@@ -5211,10 +5713,10 @@
         <v>92</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E93" s="13">
         <v>1</v>
@@ -5228,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="2:10">
@@ -5237,7 +5739,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>24</v>
@@ -5254,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95" spans="2:10">
@@ -5263,10 +5765,10 @@
         <v>94</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E95" s="13">
         <v>1</v>
@@ -5282,7 +5784,7 @@
         <v>2</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="96" spans="2:10">
@@ -5291,7 +5793,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>24</v>
@@ -5308,26 +5810,26 @@
         <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="97" spans="2:10">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" hidden="1">
       <c r="B97" s="7">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E97" s="13">
         <v>1</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H97" s="5">
         <v>2</v>
@@ -5336,26 +5838,26 @@
         <v>2</v>
       </c>
       <c r="J97" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="98" spans="2:10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" hidden="1">
       <c r="B98" s="7">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E98" s="13">
         <v>1</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H98" s="5">
         <v>2</v>
@@ -5364,7 +5866,7 @@
         <v>2</v>
       </c>
       <c r="J98" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="2:10">
@@ -5373,16 +5875,14 @@
         <v>98</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
-      <c r="G99" s="13" t="s">
-        <v>35</v>
-      </c>
+      <c r="G99" s="13"/>
       <c r="H99" s="5">
         <v>2</v>
       </c>
@@ -5390,16 +5890,16 @@
         <v>2</v>
       </c>
       <c r="J99" s="32" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="100" spans="2:10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" hidden="1">
       <c r="B100" s="7">
         <f t="shared" ref="B100" si="3">+B99+1</f>
         <v>99</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>23</v>
@@ -5409,7 +5909,7 @@
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13" t="s">
-        <v>35</v>
+        <v>225</v>
       </c>
       <c r="H100" s="5">
         <v>2</v>
@@ -5418,19 +5918,19 @@
         <v>2</v>
       </c>
       <c r="J100" s="32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B106" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B120" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E101" s="13">
         <v>0.5</v>
@@ -5444,7 +5944,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="2:10">
@@ -5453,10 +5953,10 @@
         <v>101</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E102" s="13"/>
       <c r="F102" s="13"/>
@@ -5468,7 +5968,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="103" spans="2:10">
@@ -5477,10 +5977,10 @@
         <v>102</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E103" s="13"/>
       <c r="F103" s="13"/>
@@ -5492,7 +5992,7 @@
         <v>2</v>
       </c>
       <c r="J103" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="2:10">
@@ -5501,10 +6001,10 @@
         <v>103</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E104" s="13"/>
       <c r="F104" s="13"/>
@@ -5516,7 +6016,7 @@
         <v>2</v>
       </c>
       <c r="J104" s="32" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="105" spans="2:10">
@@ -5525,7 +6025,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D105" s="4" t="s">
         <v>24</v>
@@ -5542,7 +6042,7 @@
         <v>2</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" spans="2:10">
@@ -5551,7 +6051,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>24</v>
@@ -5569,565 +6069,1031 @@
       </c>
       <c r="J106" s="1"/>
     </row>
+    <row r="107" spans="2:10">
+      <c r="B107" s="7">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E107" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="5">
+        <v>2</v>
+      </c>
+      <c r="I107" s="5">
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="108" spans="2:10">
-      <c r="C108" s="31" t="s">
+      <c r="B108" s="7">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="5">
+        <v>1</v>
+      </c>
+      <c r="I108" s="5">
+        <v>1</v>
+      </c>
+      <c r="J108" s="1"/>
+    </row>
+    <row r="109" spans="2:10">
+      <c r="B109" s="7">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="5">
+        <v>1</v>
+      </c>
+      <c r="I109" s="5">
+        <v>1</v>
+      </c>
+      <c r="J109" s="1"/>
+    </row>
+    <row r="110" spans="2:10">
+      <c r="B110" s="7">
+        <f t="shared" si="4"/>
+        <v>109</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="5">
+        <v>1</v>
+      </c>
+      <c r="I110" s="5">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="7">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="5">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5">
+        <v>1</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10">
+      <c r="B112" s="7">
+        <f t="shared" si="4"/>
+        <v>111</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="5">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5">
+        <v>1</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10">
+      <c r="B113" s="7">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="5">
+        <v>2</v>
+      </c>
+      <c r="I113" s="5">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10">
+      <c r="B114" s="7">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="5">
+        <v>2</v>
+      </c>
+      <c r="I114" s="5">
+        <v>3</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10">
+      <c r="B115" s="7">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="5">
+        <v>3</v>
+      </c>
+      <c r="I115" s="5">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10">
+      <c r="B116" s="7">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D116" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="5">
+        <v>2</v>
+      </c>
+      <c r="I116" s="5">
+        <v>1</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10">
+      <c r="B117" s="7">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="5">
+        <v>2</v>
+      </c>
+      <c r="I117" s="5">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10">
+      <c r="B118" s="7">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="5">
+        <v>2</v>
+      </c>
+      <c r="I118" s="5">
+        <v>3</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10">
+      <c r="B119" s="7">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="5">
+        <v>3</v>
+      </c>
+      <c r="I119" s="5">
+        <v>2</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10">
+      <c r="B120" s="7">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="5">
+        <v>2</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10">
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+      <c r="G121"/>
+      <c r="H121"/>
+    </row>
+    <row r="122" spans="2:10">
+      <c r="C122" s="31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10">
+      <c r="C123" s="31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="2:10">
-      <c r="C109" s="31" t="s">
+    <row r="124" spans="2:10">
+      <c r="C124" s="31" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="2:10">
-      <c r="C110" s="31" t="s">
+    <row r="125" spans="2:10">
+      <c r="C125" s="31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="111" spans="2:10">
-      <c r="C111" s="31" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="2:10">
-      <c r="C112" s="38" t="s">
+    <row r="126" spans="2:10">
+      <c r="C126" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="C127" s="38" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="113" spans="3:3">
-      <c r="C113" s="38" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2">
-      <c r="B140" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="B1:J106">
+  <autoFilter ref="B1:J120">
     <filterColumn colId="5">
-      <filters blank="1">
-        <filter val="NO"/>
-      </filters>
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="129" priority="142" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="128" priority="141" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="127" priority="140" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="126" priority="139" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="125" priority="138" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:G71">
+    <cfRule type="cellIs" dxfId="124" priority="137" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
+    <cfRule type="cellIs" dxfId="123" priority="136" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E72:G72">
+    <cfRule type="cellIs" dxfId="122" priority="135" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F73:G73">
+    <cfRule type="cellIs" dxfId="121" priority="134" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E73:G73">
+    <cfRule type="cellIs" dxfId="120" priority="133" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F74:G74">
+    <cfRule type="cellIs" dxfId="119" priority="132" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:G74">
+    <cfRule type="cellIs" dxfId="118" priority="131" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F75:G75">
+    <cfRule type="cellIs" dxfId="117" priority="130" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75:G75">
+    <cfRule type="cellIs" dxfId="116" priority="129" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76:G76">
+    <cfRule type="cellIs" dxfId="115" priority="128" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76:G76">
+    <cfRule type="cellIs" dxfId="114" priority="127" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69">
+    <cfRule type="cellIs" dxfId="113" priority="126" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F77:G77">
+    <cfRule type="cellIs" dxfId="112" priority="125" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77:G77">
+    <cfRule type="cellIs" dxfId="111" priority="124" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78:G78">
+    <cfRule type="cellIs" dxfId="110" priority="123" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78:G78">
+    <cfRule type="cellIs" dxfId="109" priority="122" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="cellIs" dxfId="108" priority="121" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" dxfId="107" priority="120" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="cellIs" dxfId="106" priority="119" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51:G52">
+    <cfRule type="cellIs" dxfId="105" priority="118" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="cellIs" dxfId="104" priority="117" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="103" priority="116" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="102" priority="115" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="101" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
-    <cfRule type="cellIs" dxfId="100" priority="113" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
-    <cfRule type="cellIs" dxfId="99" priority="112" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
-    <cfRule type="cellIs" dxfId="98" priority="111" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="97" priority="110" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
-    <cfRule type="cellIs" dxfId="96" priority="109" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
-    <cfRule type="cellIs" dxfId="95" priority="108" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
-    <cfRule type="cellIs" dxfId="94" priority="107" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
-    <cfRule type="cellIs" dxfId="93" priority="106" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
-    <cfRule type="cellIs" dxfId="92" priority="105" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
-    <cfRule type="cellIs" dxfId="91" priority="104" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
-    <cfRule type="cellIs" dxfId="90" priority="103" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="89" priority="102" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
-    <cfRule type="cellIs" dxfId="88" priority="101" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="87" priority="100" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
-    <cfRule type="cellIs" dxfId="86" priority="99" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
-    <cfRule type="cellIs" dxfId="85" priority="98" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
-    <cfRule type="cellIs" dxfId="84" priority="97" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
-    <cfRule type="cellIs" dxfId="83" priority="96" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="cellIs" dxfId="82" priority="95" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" dxfId="81" priority="94" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="80" priority="93" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="79" priority="92" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="78" priority="91" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="77" priority="90" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="76" priority="89" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="75" priority="88" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="100" priority="110" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="99" priority="109" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="98" priority="108" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="97" priority="107" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="96" priority="106" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="95" priority="105" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="94" priority="104" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="93" priority="103" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="92" priority="102" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="91" priority="101" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
+    <cfRule type="cellIs" dxfId="90" priority="100" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="cellIs" dxfId="89" priority="99" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:G87">
+    <cfRule type="cellIs" dxfId="88" priority="98" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:G87">
+    <cfRule type="cellIs" dxfId="87" priority="97" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="cellIs" dxfId="86" priority="96" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:G85">
+    <cfRule type="cellIs" dxfId="85" priority="95" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:G85">
+    <cfRule type="cellIs" dxfId="84" priority="94" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="cellIs" dxfId="83" priority="93" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88:G88">
+    <cfRule type="cellIs" dxfId="82" priority="92" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F88:G88">
+    <cfRule type="cellIs" dxfId="81" priority="91" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="cellIs" dxfId="80" priority="90" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:G90">
+    <cfRule type="cellIs" dxfId="79" priority="89" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:G90">
+    <cfRule type="cellIs" dxfId="78" priority="88" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="cellIs" dxfId="77" priority="87" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:G91">
+    <cfRule type="cellIs" dxfId="76" priority="86" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F91:G91">
+    <cfRule type="cellIs" dxfId="75" priority="85" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="74" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="73" priority="83" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="72" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="70" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
-    <cfRule type="cellIs" dxfId="67" priority="77" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="65" priority="75" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
-    <cfRule type="cellIs" dxfId="64" priority="74" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="63" priority="73" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
-    <cfRule type="cellIs" dxfId="61" priority="71" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="57" priority="67" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="56" priority="66" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="54" priority="64" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="53" priority="63" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
-    <cfRule type="cellIs" dxfId="52" priority="62" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="51" priority="61" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="50" priority="60" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:G89">
-    <cfRule type="cellIs" dxfId="47" priority="57" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:G89">
-    <cfRule type="cellIs" dxfId="46" priority="56" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="45" priority="55" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="44" priority="54" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="43" priority="53" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="42" priority="52" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F93:G93">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93:G93">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="66" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:G94">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94:G94">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95:G95">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95:G95">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="62" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:G96">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96:G96">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E94">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="lessThan">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="28" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99:E101">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="51" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101:G101 F99:F100">
-    <cfRule type="cellIs" dxfId="23" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="47" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F102:G102">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="45" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="42" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:G105">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:G105">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G100">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106:G106">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F106:G106">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E106">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107:G107">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F107:G107">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E107">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108:G108">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F108:G108">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109:G109">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F109:G109">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110:G110">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F110:G110">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="E111">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="E112">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="F117:G120">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="F117:G120">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="E117:E120">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F113:G116">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F113:G116">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="E113:E116">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="G89">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="G89">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -6156,51 +7122,51 @@
     <row r="2" spans="2:6">
       <c r="B2" s="7"/>
       <c r="C2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>177</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>178</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -6208,100 +7174,100 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -6314,13 +7280,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH29"/>
+  <dimension ref="B1:AH32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6341,11 +7307,11 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.6">
       <c r="D1" s="26" t="str">
-        <f ca="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"p",""),"")</f>
+        <f ca="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"]",""),"")</f>
         <v/>
       </c>
       <c r="E1" s="26" t="str">
-        <f t="shared" ref="E1:AH1" ca="1" si="0">IF(TODAY()&gt;=E2,IF(TODAY()&lt;F2,"p",""),"")</f>
+        <f t="shared" ref="E1:AH1" ca="1" si="0">IF(TODAY()&gt;=E2,IF(TODAY()&lt;F2,"]",""),"")</f>
         <v/>
       </c>
       <c r="F1" s="26" t="str">
@@ -6374,11 +7340,11 @@
       </c>
       <c r="L1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>p</v>
+        <v/>
       </c>
       <c r="M1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="N1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6467,9 +7433,11 @@
     </row>
     <row r="2" spans="2:34">
       <c r="B2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="20"/>
+        <v>70</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>252</v>
+      </c>
       <c r="D2" s="21">
         <v>42702</v>
       </c>
@@ -6599,7 +7567,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$305,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -6639,7 +7607,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$305,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -6652,11 +7620,15 @@
       <c r="K4" s="35"/>
       <c r="L4" s="35"/>
       <c r="M4" s="35"/>
-      <c r="N4" s="23"/>
+      <c r="N4" s="35" t="s">
+        <v>199</v>
+      </c>
       <c r="O4" s="23"/>
       <c r="P4" s="23"/>
       <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
+      <c r="R4" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
@@ -6679,7 +7651,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$305,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -6719,7 +7691,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$305,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -6737,7 +7709,7 @@
       <c r="P6" s="23"/>
       <c r="Q6" s="23"/>
       <c r="R6" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S6" s="23"/>
       <c r="T6" s="23"/>
@@ -6761,7 +7733,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$305,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -6779,7 +7751,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="23"/>
       <c r="R7" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S7" s="23"/>
       <c r="T7" s="23"/>
@@ -6803,7 +7775,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$305,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -6821,7 +7793,7 @@
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S8" s="23"/>
       <c r="T8" s="23"/>
@@ -6845,7 +7817,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Sheet1!$B$47:$C$291,2,FALSE)</f>
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$305,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -6863,7 +7835,7 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="23"/>
@@ -6884,25 +7856,27 @@
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="22">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>testare AQR per Banca BIB</v>
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
@@ -6924,26 +7898,26 @@
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="22">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>motore ALEX BANK</v>
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
@@ -6964,11 +7938,11 @@
     </row>
     <row r="12" spans="2:34">
       <c r="B12" s="22">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>file test e TCK ALEX BANK</v>
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>motore ALEX BANK</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -6976,18 +7950,22 @@
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
       <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
+      <c r="O12" s="29" t="s">
+        <v>209</v>
+      </c>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
+      <c r="U12" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
@@ -7004,32 +7982,30 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="22">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>motore CIB BANK</v>
+        <f>VLOOKUP(B13,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="28"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
-      <c r="M13" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
@@ -7046,35 +8022,41 @@
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>file test e TCK CIB BANK</v>
+        <f>VLOOKUP(B14,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>motore CIB BANK</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="M14" s="28" t="s">
+        <v>199</v>
+      </c>
       <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+      <c r="O14" s="28"/>
       <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
+      <c r="Q14" s="28" t="s">
+        <v>209</v>
+      </c>
       <c r="R14" s="28"/>
       <c r="S14" s="28"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
+      <c r="Z14" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="AA14" s="23"/>
       <c r="AB14" s="23"/>
       <c r="AC14" s="23"/>
@@ -7086,11 +8068,11 @@
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="22">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>motore ISPRO BANK</v>
+        <f>VLOOKUP(B15,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -7103,17 +8085,15 @@
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
-      <c r="O15" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
       <c r="X15" s="23"/>
       <c r="Y15" s="23"/>
       <c r="Z15" s="23"/>
@@ -7128,11 +8108,11 @@
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="22">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>file test e TCK ISPRO BANK</v>
+        <f>VLOOKUP(B16,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>motore ISPRO BANK</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -7147,32 +8127,36 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="37"/>
+      <c r="Q16" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="R16" s="23"/>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
       <c r="U16" s="37"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
       <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
+      <c r="AE16" s="37" t="s">
+        <v>207</v>
+      </c>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23"/>
       <c r="AH16" s="23"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" s="22">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
+        <f>VLOOKUP(B17,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>file test e TCK ISPRO BANK</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -7182,7 +8166,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
-      <c r="L17" s="35"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -7190,10 +8174,10 @@
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
       <c r="X17" s="23"/>
       <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
@@ -7208,11 +8192,11 @@
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: test di performance (2 mio di dati)</v>
+        <f>VLOOKUP(B18,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -7223,7 +8207,7 @@
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
+      <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
@@ -7244,15 +8228,17 @@
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
-      <c r="AH18" s="23"/>
+      <c r="AH18" s="35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="19" spans="2:34">
       <c r="B19" s="22">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: nodo Riempimento in VM</v>
+        <f>VLOOKUP(B19,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -7262,11 +8248,11 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
       <c r="N19" s="23"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
@@ -7288,11 +8274,11 @@
     </row>
     <row r="20" spans="2:34">
       <c r="B20" s="22">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: sviluppo indicatori</v>
+        <f>VLOOKUP(B20,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>Retail: nodo Riempimento in VM</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -7305,21 +8291,13 @@
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
       <c r="Q20" s="23"/>
-      <c r="R20" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="S20" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="T20" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="U20" s="35" t="s">
-        <v>199</v>
-      </c>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
@@ -7336,11 +8314,11 @@
     </row>
     <row r="21" spans="2:34">
       <c r="B21" s="22">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: configurazione start-up app (excel)</v>
+        <f>VLOOKUP(B21,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -7355,12 +8333,22 @@
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
       <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
+      <c r="Q21" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="R21" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="U21" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="V21" s="23"/>
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
       <c r="Y21" s="23"/>
@@ -7372,15 +8360,17 @@
       <c r="AE21" s="23"/>
       <c r="AF21" s="23"/>
       <c r="AG21" s="23"/>
-      <c r="AH21" s="23"/>
+      <c r="AH21" s="35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="22" spans="2:34">
       <c r="B22" s="22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Sheet1!$B$47:$C$291,2,FALSE)</f>
-        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+        <f>VLOOKUP(B22,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -7398,11 +8388,11 @@
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="T22" s="35"/>
       <c r="U22" s="35"/>
       <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
       <c r="Z22" s="23"/>
       <c r="AA22" s="23"/>
@@ -7412,42 +8402,3175 @@
       <c r="AE22" s="23"/>
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
-      <c r="AH22" s="23"/>
+      <c r="AH22" s="35" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34">
+      <c r="B23" s="22">
+        <v>103</v>
+      </c>
+      <c r="C23" s="23" t="str">
+        <f>VLOOKUP(B23,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="23"/>
+      <c r="AG23" s="23"/>
+      <c r="AH23" s="35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="24" spans="2:34">
-      <c r="B24" s="35"/>
-      <c r="C24" s="16" t="s">
+      <c r="B24" s="22">
+        <v>117</v>
+      </c>
+      <c r="C24" s="23" t="str">
+        <f>VLOOKUP(B24,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>ISBA - motore</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="W24" s="23"/>
+      <c r="X24" s="39"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
+      <c r="AD24" s="39"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="23"/>
+      <c r="AG24" s="23"/>
+      <c r="AH24" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34">
+      <c r="B25" s="22">
+        <v>118</v>
+      </c>
+      <c r="C25" s="23" t="str">
+        <f>VLOOKUP(B25,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <v>ISBA - file test e TCK</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="23"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="23"/>
+      <c r="AH25" s="23"/>
+    </row>
+    <row r="27" spans="2:34">
+      <c r="B27" s="35"/>
+      <c r="C27" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34">
+      <c r="B28" s="24"/>
+      <c r="C28" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="2:34">
-      <c r="B25" s="24"/>
-      <c r="C25" s="16" t="s">
+    <row r="29" spans="2:34">
+      <c r="B29" s="25"/>
+      <c r="C29" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:34">
-      <c r="B26" s="25"/>
-      <c r="C26" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="27" spans="2:34">
-      <c r="B27" s="27"/>
-      <c r="C27" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="36"/>
-      <c r="C28" s="16" t="s">
+    <row r="30" spans="2:34">
+      <c r="B30" s="27"/>
+      <c r="C30" s="16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34">
+      <c r="B31" s="36"/>
+      <c r="C31" s="16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34">
+      <c r="B32" s="30"/>
+      <c r="C32" s="16" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:34">
-      <c r="B29" s="30"/>
-      <c r="C29" s="16" t="s">
-        <v>152</v>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:DR23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="1.296875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="2.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.09765625" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="5.796875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="25" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="26" max="48" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="68" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="69" max="91" width="6.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="95" max="105" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="107" max="109" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="111" max="112" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="114" max="121" width="5.69921875" style="16" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="7.09765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="123" max="16384" width="6" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:122" ht="15.6">
+      <c r="D1" s="26" t="str">
+        <f t="shared" ref="D1:E1" ca="1" si="0">IF(TODAY()=D2,"]","")</f>
+        <v/>
+      </c>
+      <c r="E1" s="26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="F1" s="26" t="str">
+        <f ca="1">IF(TODAY()=F2,"]","")</f>
+        <v>]</v>
+      </c>
+      <c r="G1" s="26" t="str">
+        <f t="shared" ref="G1:BR1" ca="1" si="1">IF(TODAY()=G2,"]","")</f>
+        <v/>
+      </c>
+      <c r="H1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="I1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="J1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="K1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="L1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="M1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="N1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="O1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="P1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Q1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="R1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="S1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="T1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="U1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="V1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="W1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="X1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Y1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="Z1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AA1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AB1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AC1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AD1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AE1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AF1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AG1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AH1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AI1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AJ1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AK1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AL1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AM1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AN1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AO1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AP1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AQ1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AR1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AS1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AT1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AU1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AV1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AW1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AX1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AY1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="AZ1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BA1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BB1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BC1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BD1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BE1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BF1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BG1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BH1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BI1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BJ1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BK1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BL1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BM1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BN1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BO1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BP1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BQ1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BR1" s="26" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+      <c r="BS1" s="26" t="str">
+        <f t="shared" ref="BS1:DQ1" ca="1" si="2">IF(TODAY()=BS2,"]","")</f>
+        <v/>
+      </c>
+      <c r="BT1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BU1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BV1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BW1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BX1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BY1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="BZ1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CA1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CB1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CC1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CD1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CE1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CF1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CG1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CH1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CI1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CJ1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CK1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CL1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CM1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CN1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CO1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CP1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CQ1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CR1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CS1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CT1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CU1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CV1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CW1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CX1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CY1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="CZ1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DA1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DB1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DC1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DD1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DE1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DF1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DG1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DH1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DI1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DJ1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DK1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DL1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DM1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DN1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DO1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DP1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+      <c r="DQ1" s="26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="2:122">
+      <c r="B2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="D2" s="42">
+        <v>42765</v>
+      </c>
+      <c r="E2" s="42">
+        <f>+D2+1</f>
+        <v>42766</v>
+      </c>
+      <c r="F2" s="42">
+        <f t="shared" ref="F2:H2" si="3">+E2+1</f>
+        <v>42767</v>
+      </c>
+      <c r="G2" s="42">
+        <f t="shared" si="3"/>
+        <v>42768</v>
+      </c>
+      <c r="H2" s="42">
+        <f t="shared" si="3"/>
+        <v>42769</v>
+      </c>
+      <c r="I2" s="43">
+        <f>+D2+7</f>
+        <v>42772</v>
+      </c>
+      <c r="J2" s="44">
+        <f>+E2+7</f>
+        <v>42773</v>
+      </c>
+      <c r="K2" s="44">
+        <f t="shared" ref="K2:O2" si="4">+F2+7</f>
+        <v>42774</v>
+      </c>
+      <c r="L2" s="44">
+        <f t="shared" si="4"/>
+        <v>42775</v>
+      </c>
+      <c r="M2" s="44">
+        <f t="shared" si="4"/>
+        <v>42776</v>
+      </c>
+      <c r="N2" s="43">
+        <f t="shared" si="4"/>
+        <v>42779</v>
+      </c>
+      <c r="O2" s="44">
+        <f t="shared" si="4"/>
+        <v>42780</v>
+      </c>
+      <c r="P2" s="44">
+        <f t="shared" ref="P2" si="5">+K2+7</f>
+        <v>42781</v>
+      </c>
+      <c r="Q2" s="44">
+        <f t="shared" ref="Q2" si="6">+L2+7</f>
+        <v>42782</v>
+      </c>
+      <c r="R2" s="44">
+        <f t="shared" ref="R2:T2" si="7">+M2+7</f>
+        <v>42783</v>
+      </c>
+      <c r="S2" s="43">
+        <f t="shared" si="7"/>
+        <v>42786</v>
+      </c>
+      <c r="T2" s="44">
+        <f t="shared" si="7"/>
+        <v>42787</v>
+      </c>
+      <c r="U2" s="44">
+        <f t="shared" ref="U2" si="8">+P2+7</f>
+        <v>42788</v>
+      </c>
+      <c r="V2" s="44">
+        <f t="shared" ref="V2" si="9">+Q2+7</f>
+        <v>42789</v>
+      </c>
+      <c r="W2" s="44">
+        <f t="shared" ref="W2:Y2" si="10">+R2+7</f>
+        <v>42790</v>
+      </c>
+      <c r="X2" s="43">
+        <f t="shared" si="10"/>
+        <v>42793</v>
+      </c>
+      <c r="Y2" s="44">
+        <f t="shared" si="10"/>
+        <v>42794</v>
+      </c>
+      <c r="Z2" s="44">
+        <f t="shared" ref="Z2" si="11">+U2+7</f>
+        <v>42795</v>
+      </c>
+      <c r="AA2" s="44">
+        <f t="shared" ref="AA2" si="12">+V2+7</f>
+        <v>42796</v>
+      </c>
+      <c r="AB2" s="44">
+        <f t="shared" ref="AB2:AD2" si="13">+W2+7</f>
+        <v>42797</v>
+      </c>
+      <c r="AC2" s="43">
+        <f t="shared" si="13"/>
+        <v>42800</v>
+      </c>
+      <c r="AD2" s="44">
+        <f t="shared" si="13"/>
+        <v>42801</v>
+      </c>
+      <c r="AE2" s="44">
+        <f t="shared" ref="AE2" si="14">+Z2+7</f>
+        <v>42802</v>
+      </c>
+      <c r="AF2" s="44">
+        <f t="shared" ref="AF2" si="15">+AA2+7</f>
+        <v>42803</v>
+      </c>
+      <c r="AG2" s="44">
+        <f t="shared" ref="AG2:AI2" si="16">+AB2+7</f>
+        <v>42804</v>
+      </c>
+      <c r="AH2" s="43">
+        <f t="shared" si="16"/>
+        <v>42807</v>
+      </c>
+      <c r="AI2" s="44">
+        <f t="shared" si="16"/>
+        <v>42808</v>
+      </c>
+      <c r="AJ2" s="44">
+        <f t="shared" ref="AJ2" si="17">+AE2+7</f>
+        <v>42809</v>
+      </c>
+      <c r="AK2" s="44">
+        <f t="shared" ref="AK2" si="18">+AF2+7</f>
+        <v>42810</v>
+      </c>
+      <c r="AL2" s="44">
+        <f t="shared" ref="AL2:AN2" si="19">+AG2+7</f>
+        <v>42811</v>
+      </c>
+      <c r="AM2" s="43">
+        <f t="shared" si="19"/>
+        <v>42814</v>
+      </c>
+      <c r="AN2" s="44">
+        <f t="shared" si="19"/>
+        <v>42815</v>
+      </c>
+      <c r="AO2" s="44">
+        <f t="shared" ref="AO2" si="20">+AJ2+7</f>
+        <v>42816</v>
+      </c>
+      <c r="AP2" s="44">
+        <f t="shared" ref="AP2" si="21">+AK2+7</f>
+        <v>42817</v>
+      </c>
+      <c r="AQ2" s="44">
+        <f t="shared" ref="AQ2:AS2" si="22">+AL2+7</f>
+        <v>42818</v>
+      </c>
+      <c r="AR2" s="43">
+        <f t="shared" si="22"/>
+        <v>42821</v>
+      </c>
+      <c r="AS2" s="44">
+        <f t="shared" si="22"/>
+        <v>42822</v>
+      </c>
+      <c r="AT2" s="44">
+        <f t="shared" ref="AT2" si="23">+AO2+7</f>
+        <v>42823</v>
+      </c>
+      <c r="AU2" s="44">
+        <f t="shared" ref="AU2" si="24">+AP2+7</f>
+        <v>42824</v>
+      </c>
+      <c r="AV2" s="44">
+        <f t="shared" ref="AV2:AX2" si="25">+AQ2+7</f>
+        <v>42825</v>
+      </c>
+      <c r="AW2" s="43">
+        <f t="shared" si="25"/>
+        <v>42828</v>
+      </c>
+      <c r="AX2" s="44">
+        <f t="shared" si="25"/>
+        <v>42829</v>
+      </c>
+      <c r="AY2" s="44">
+        <f t="shared" ref="AY2" si="26">+AT2+7</f>
+        <v>42830</v>
+      </c>
+      <c r="AZ2" s="44">
+        <f t="shared" ref="AZ2" si="27">+AU2+7</f>
+        <v>42831</v>
+      </c>
+      <c r="BA2" s="44">
+        <f t="shared" ref="BA2:BC2" si="28">+AV2+7</f>
+        <v>42832</v>
+      </c>
+      <c r="BB2" s="43">
+        <f t="shared" si="28"/>
+        <v>42835</v>
+      </c>
+      <c r="BC2" s="44">
+        <f t="shared" si="28"/>
+        <v>42836</v>
+      </c>
+      <c r="BD2" s="44">
+        <f t="shared" ref="BD2" si="29">+AY2+7</f>
+        <v>42837</v>
+      </c>
+      <c r="BE2" s="44">
+        <f t="shared" ref="BE2" si="30">+AZ2+7</f>
+        <v>42838</v>
+      </c>
+      <c r="BF2" s="44">
+        <f t="shared" ref="BF2" si="31">+BA2+7</f>
+        <v>42839</v>
+      </c>
+      <c r="BG2" s="43">
+        <f>+BB2+7</f>
+        <v>42842</v>
+      </c>
+      <c r="BH2" s="44">
+        <f>+BC2+7</f>
+        <v>42843</v>
+      </c>
+      <c r="BI2" s="44">
+        <f t="shared" ref="BI2" si="32">+BD2+7</f>
+        <v>42844</v>
+      </c>
+      <c r="BJ2" s="44">
+        <f t="shared" ref="BJ2" si="33">+BE2+7</f>
+        <v>42845</v>
+      </c>
+      <c r="BK2" s="44">
+        <f t="shared" ref="BK2" si="34">+BF2+7</f>
+        <v>42846</v>
+      </c>
+      <c r="BL2" s="43">
+        <f t="shared" ref="BL2" si="35">+BG2+7</f>
+        <v>42849</v>
+      </c>
+      <c r="BM2" s="44">
+        <f t="shared" ref="BM2" si="36">+BH2+7</f>
+        <v>42850</v>
+      </c>
+      <c r="BN2" s="44">
+        <f t="shared" ref="BN2" si="37">+BI2+7</f>
+        <v>42851</v>
+      </c>
+      <c r="BO2" s="44">
+        <f t="shared" ref="BO2" si="38">+BJ2+7</f>
+        <v>42852</v>
+      </c>
+      <c r="BP2" s="44">
+        <f t="shared" ref="BP2" si="39">+BK2+7</f>
+        <v>42853</v>
+      </c>
+      <c r="BQ2" s="43">
+        <f t="shared" ref="BQ2" si="40">+BL2+7</f>
+        <v>42856</v>
+      </c>
+      <c r="BR2" s="44">
+        <f t="shared" ref="BR2" si="41">+BM2+7</f>
+        <v>42857</v>
+      </c>
+      <c r="BS2" s="44">
+        <f t="shared" ref="BS2" si="42">+BN2+7</f>
+        <v>42858</v>
+      </c>
+      <c r="BT2" s="44">
+        <f t="shared" ref="BT2" si="43">+BO2+7</f>
+        <v>42859</v>
+      </c>
+      <c r="BU2" s="44">
+        <f t="shared" ref="BU2" si="44">+BP2+7</f>
+        <v>42860</v>
+      </c>
+      <c r="BV2" s="43">
+        <f t="shared" ref="BV2" si="45">+BQ2+7</f>
+        <v>42863</v>
+      </c>
+      <c r="BW2" s="44">
+        <f t="shared" ref="BW2" si="46">+BR2+7</f>
+        <v>42864</v>
+      </c>
+      <c r="BX2" s="44">
+        <f t="shared" ref="BX2" si="47">+BS2+7</f>
+        <v>42865</v>
+      </c>
+      <c r="BY2" s="44">
+        <f t="shared" ref="BY2" si="48">+BT2+7</f>
+        <v>42866</v>
+      </c>
+      <c r="BZ2" s="44">
+        <f t="shared" ref="BZ2" si="49">+BU2+7</f>
+        <v>42867</v>
+      </c>
+      <c r="CA2" s="43">
+        <f t="shared" ref="CA2" si="50">+BV2+7</f>
+        <v>42870</v>
+      </c>
+      <c r="CB2" s="44">
+        <f t="shared" ref="CB2" si="51">+BW2+7</f>
+        <v>42871</v>
+      </c>
+      <c r="CC2" s="44">
+        <f t="shared" ref="CC2" si="52">+BX2+7</f>
+        <v>42872</v>
+      </c>
+      <c r="CD2" s="44">
+        <f t="shared" ref="CD2" si="53">+BY2+7</f>
+        <v>42873</v>
+      </c>
+      <c r="CE2" s="44">
+        <f t="shared" ref="CE2" si="54">+BZ2+7</f>
+        <v>42874</v>
+      </c>
+      <c r="CF2" s="43">
+        <f t="shared" ref="CF2" si="55">+CA2+7</f>
+        <v>42877</v>
+      </c>
+      <c r="CG2" s="44">
+        <f t="shared" ref="CG2" si="56">+CB2+7</f>
+        <v>42878</v>
+      </c>
+      <c r="CH2" s="44">
+        <f t="shared" ref="CH2" si="57">+CC2+7</f>
+        <v>42879</v>
+      </c>
+      <c r="CI2" s="44">
+        <f t="shared" ref="CI2" si="58">+CD2+7</f>
+        <v>42880</v>
+      </c>
+      <c r="CJ2" s="44">
+        <f t="shared" ref="CJ2" si="59">+CE2+7</f>
+        <v>42881</v>
+      </c>
+      <c r="CK2" s="43">
+        <f>+CF2+7</f>
+        <v>42884</v>
+      </c>
+      <c r="CL2" s="44">
+        <f>+CG2+7</f>
+        <v>42885</v>
+      </c>
+      <c r="CM2" s="44">
+        <f t="shared" ref="CM2" si="60">+CH2+7</f>
+        <v>42886</v>
+      </c>
+      <c r="CN2" s="44">
+        <f t="shared" ref="CN2" si="61">+CI2+7</f>
+        <v>42887</v>
+      </c>
+      <c r="CO2" s="44">
+        <f t="shared" ref="CO2" si="62">+CJ2+7</f>
+        <v>42888</v>
+      </c>
+      <c r="CP2" s="43">
+        <f t="shared" ref="CP2" si="63">+CK2+7</f>
+        <v>42891</v>
+      </c>
+      <c r="CQ2" s="44">
+        <f t="shared" ref="CQ2" si="64">+CL2+7</f>
+        <v>42892</v>
+      </c>
+      <c r="CR2" s="44">
+        <f t="shared" ref="CR2" si="65">+CM2+7</f>
+        <v>42893</v>
+      </c>
+      <c r="CS2" s="44">
+        <f t="shared" ref="CS2" si="66">+CN2+7</f>
+        <v>42894</v>
+      </c>
+      <c r="CT2" s="44">
+        <f t="shared" ref="CT2" si="67">+CO2+7</f>
+        <v>42895</v>
+      </c>
+      <c r="CU2" s="43">
+        <f t="shared" ref="CU2" si="68">+CP2+7</f>
+        <v>42898</v>
+      </c>
+      <c r="CV2" s="44">
+        <f t="shared" ref="CV2" si="69">+CQ2+7</f>
+        <v>42899</v>
+      </c>
+      <c r="CW2" s="44">
+        <f t="shared" ref="CW2" si="70">+CR2+7</f>
+        <v>42900</v>
+      </c>
+      <c r="CX2" s="44">
+        <f t="shared" ref="CX2" si="71">+CS2+7</f>
+        <v>42901</v>
+      </c>
+      <c r="CY2" s="44">
+        <f t="shared" ref="CY2" si="72">+CT2+7</f>
+        <v>42902</v>
+      </c>
+      <c r="CZ2" s="43">
+        <f t="shared" ref="CZ2" si="73">+CU2+7</f>
+        <v>42905</v>
+      </c>
+      <c r="DA2" s="44">
+        <f t="shared" ref="DA2" si="74">+CV2+7</f>
+        <v>42906</v>
+      </c>
+      <c r="DB2" s="44">
+        <f t="shared" ref="DB2" si="75">+CW2+7</f>
+        <v>42907</v>
+      </c>
+      <c r="DC2" s="44">
+        <f t="shared" ref="DC2" si="76">+CX2+7</f>
+        <v>42908</v>
+      </c>
+      <c r="DD2" s="44">
+        <f t="shared" ref="DD2" si="77">+CY2+7</f>
+        <v>42909</v>
+      </c>
+      <c r="DE2" s="43">
+        <f t="shared" ref="DE2" si="78">+CZ2+7</f>
+        <v>42912</v>
+      </c>
+      <c r="DF2" s="44">
+        <f t="shared" ref="DF2" si="79">+DA2+7</f>
+        <v>42913</v>
+      </c>
+      <c r="DG2" s="44">
+        <f t="shared" ref="DG2" si="80">+DB2+7</f>
+        <v>42914</v>
+      </c>
+      <c r="DH2" s="44">
+        <f t="shared" ref="DH2" si="81">+DC2+7</f>
+        <v>42915</v>
+      </c>
+      <c r="DI2" s="44">
+        <f t="shared" ref="DI2" si="82">+DD2+7</f>
+        <v>42916</v>
+      </c>
+      <c r="DJ2" s="43">
+        <f t="shared" ref="DJ2" si="83">+DE2+7</f>
+        <v>42919</v>
+      </c>
+      <c r="DK2" s="44">
+        <f t="shared" ref="DK2" si="84">+DF2+7</f>
+        <v>42920</v>
+      </c>
+      <c r="DL2" s="44">
+        <f t="shared" ref="DL2" si="85">+DG2+7</f>
+        <v>42921</v>
+      </c>
+      <c r="DM2" s="44">
+        <f t="shared" ref="DM2" si="86">+DH2+7</f>
+        <v>42922</v>
+      </c>
+      <c r="DN2" s="44">
+        <f t="shared" ref="DN2" si="87">+DI2+7</f>
+        <v>42923</v>
+      </c>
+      <c r="DO2" s="43">
+        <f t="shared" ref="DO2" si="88">+DJ2+7</f>
+        <v>42926</v>
+      </c>
+      <c r="DP2" s="44">
+        <f t="shared" ref="DP2" si="89">+DK2+7</f>
+        <v>42927</v>
+      </c>
+      <c r="DQ2" s="44">
+        <f t="shared" ref="DQ2" si="90">+DL2+7</f>
+        <v>42928</v>
+      </c>
+    </row>
+    <row r="3" spans="2:122">
+      <c r="B3" s="40">
+        <v>1</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="49"/>
+      <c r="AR3" s="49"/>
+      <c r="AS3" s="49"/>
+      <c r="AT3" s="49"/>
+      <c r="AU3" s="49"/>
+      <c r="AV3" s="49"/>
+      <c r="AW3" s="49"/>
+      <c r="AX3" s="49"/>
+      <c r="AY3" s="49"/>
+      <c r="AZ3" s="49"/>
+      <c r="BA3" s="49"/>
+      <c r="BB3" s="49"/>
+      <c r="BC3" s="49"/>
+      <c r="BD3" s="49"/>
+      <c r="BE3" s="49"/>
+      <c r="BF3" s="49"/>
+      <c r="BG3" s="49"/>
+      <c r="BH3" s="49"/>
+      <c r="BI3" s="49"/>
+      <c r="BJ3" s="49"/>
+      <c r="BK3" s="49"/>
+      <c r="BL3" s="49"/>
+      <c r="BM3" s="49"/>
+      <c r="BN3" s="49"/>
+      <c r="BO3" s="49"/>
+      <c r="BP3" s="49"/>
+      <c r="BQ3" s="49"/>
+      <c r="BR3" s="49"/>
+      <c r="BS3" s="49"/>
+      <c r="BT3" s="49"/>
+      <c r="BU3" s="49"/>
+      <c r="BV3" s="49"/>
+      <c r="BW3" s="49"/>
+      <c r="BX3" s="49"/>
+      <c r="BY3" s="49"/>
+      <c r="BZ3" s="49"/>
+      <c r="CA3" s="49"/>
+      <c r="CB3" s="49"/>
+      <c r="CC3" s="49"/>
+      <c r="CD3" s="49"/>
+      <c r="CE3" s="49"/>
+      <c r="CF3" s="49"/>
+      <c r="CG3" s="49"/>
+      <c r="CH3" s="49"/>
+      <c r="CI3" s="49"/>
+      <c r="CJ3" s="49"/>
+      <c r="CK3" s="49"/>
+      <c r="CL3" s="49"/>
+      <c r="CM3" s="49"/>
+      <c r="CN3" s="49"/>
+      <c r="CO3" s="49"/>
+      <c r="CP3" s="49"/>
+      <c r="CQ3" s="49"/>
+      <c r="CR3" s="49"/>
+      <c r="CS3" s="49"/>
+      <c r="CT3" s="49"/>
+      <c r="CU3" s="49"/>
+      <c r="CV3" s="49"/>
+      <c r="CW3" s="49"/>
+      <c r="CX3" s="49"/>
+      <c r="CY3" s="49"/>
+      <c r="CZ3" s="49"/>
+      <c r="DA3" s="49"/>
+      <c r="DB3" s="49"/>
+      <c r="DC3" s="49"/>
+      <c r="DD3" s="49"/>
+      <c r="DE3" s="49"/>
+      <c r="DF3" s="49"/>
+      <c r="DG3" s="49"/>
+      <c r="DH3" s="49"/>
+      <c r="DI3" s="49"/>
+      <c r="DJ3" s="49"/>
+      <c r="DK3" s="49"/>
+      <c r="DL3" s="49"/>
+      <c r="DM3" s="49"/>
+      <c r="DN3" s="49"/>
+      <c r="DO3" s="49"/>
+      <c r="DP3" s="49"/>
+      <c r="DQ3" s="49"/>
+      <c r="DR3" s="42">
+        <v>42768</v>
+      </c>
+    </row>
+    <row r="4" spans="2:122">
+      <c r="B4" s="46">
+        <f>+B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50"/>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50"/>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50"/>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="50"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="50"/>
+      <c r="AN4" s="50"/>
+      <c r="AO4" s="50"/>
+      <c r="AP4" s="50"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="50"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="50"/>
+      <c r="BO4" s="50"/>
+      <c r="BP4" s="50"/>
+      <c r="BQ4" s="50"/>
+      <c r="BR4" s="50"/>
+      <c r="BS4" s="50"/>
+      <c r="BT4" s="50"/>
+      <c r="BU4" s="50"/>
+      <c r="BV4" s="50"/>
+      <c r="BW4" s="50"/>
+      <c r="BX4" s="50"/>
+      <c r="BY4" s="50"/>
+      <c r="BZ4" s="50"/>
+      <c r="CA4" s="50"/>
+      <c r="CB4" s="50"/>
+      <c r="CC4" s="50"/>
+      <c r="CD4" s="50"/>
+      <c r="CE4" s="50"/>
+      <c r="CF4" s="50"/>
+      <c r="CG4" s="50"/>
+      <c r="CH4" s="50"/>
+      <c r="CI4" s="50"/>
+      <c r="CJ4" s="50"/>
+      <c r="CK4" s="50"/>
+      <c r="CL4" s="50"/>
+      <c r="CM4" s="50"/>
+      <c r="CN4" s="50"/>
+      <c r="CO4" s="50"/>
+      <c r="CP4" s="50"/>
+      <c r="CQ4" s="50"/>
+      <c r="CR4" s="50"/>
+      <c r="CS4" s="50"/>
+      <c r="CT4" s="50"/>
+      <c r="CU4" s="50"/>
+      <c r="CV4" s="50"/>
+      <c r="CW4" s="50"/>
+      <c r="CX4" s="50"/>
+      <c r="CY4" s="50"/>
+      <c r="CZ4" s="50"/>
+      <c r="DA4" s="50"/>
+      <c r="DB4" s="50"/>
+      <c r="DC4" s="50"/>
+      <c r="DD4" s="50"/>
+      <c r="DE4" s="50"/>
+      <c r="DF4" s="50"/>
+      <c r="DG4" s="50"/>
+      <c r="DH4" s="50"/>
+      <c r="DI4" s="50"/>
+      <c r="DJ4" s="50"/>
+      <c r="DK4" s="50"/>
+      <c r="DL4" s="50"/>
+      <c r="DM4" s="50"/>
+      <c r="DN4" s="50"/>
+      <c r="DO4" s="50"/>
+      <c r="DP4" s="50"/>
+      <c r="DQ4" s="50"/>
+      <c r="DR4" s="42">
+        <v>42780</v>
+      </c>
+    </row>
+    <row r="5" spans="2:122">
+      <c r="B5" s="46">
+        <f t="shared" ref="B5:B17" si="91">+B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>242</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50"/>
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="50"/>
+      <c r="AN5" s="50"/>
+      <c r="AO5" s="50"/>
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="50"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="50"/>
+      <c r="BK5" s="50"/>
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50"/>
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="50"/>
+      <c r="BP5" s="50"/>
+      <c r="BQ5" s="50"/>
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50"/>
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="50"/>
+      <c r="BV5" s="50"/>
+      <c r="BW5" s="50"/>
+      <c r="BX5" s="50"/>
+      <c r="BY5" s="50"/>
+      <c r="BZ5" s="50"/>
+      <c r="CA5" s="50"/>
+      <c r="CB5" s="50"/>
+      <c r="CC5" s="50"/>
+      <c r="CD5" s="50"/>
+      <c r="CE5" s="50"/>
+      <c r="CF5" s="50"/>
+      <c r="CG5" s="50"/>
+      <c r="CH5" s="50"/>
+      <c r="CI5" s="50"/>
+      <c r="CJ5" s="50"/>
+      <c r="CK5" s="50"/>
+      <c r="CL5" s="50"/>
+      <c r="CM5" s="50"/>
+      <c r="CN5" s="50"/>
+      <c r="CO5" s="50"/>
+      <c r="CP5" s="50"/>
+      <c r="CQ5" s="50"/>
+      <c r="CR5" s="50"/>
+      <c r="CS5" s="50"/>
+      <c r="CT5" s="50"/>
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="50"/>
+      <c r="CW5" s="50"/>
+      <c r="CX5" s="50"/>
+      <c r="CY5" s="50"/>
+      <c r="CZ5" s="50"/>
+      <c r="DA5" s="50"/>
+      <c r="DB5" s="50"/>
+      <c r="DC5" s="50"/>
+      <c r="DD5" s="50"/>
+      <c r="DE5" s="50"/>
+      <c r="DF5" s="50"/>
+      <c r="DG5" s="50"/>
+      <c r="DH5" s="50"/>
+      <c r="DI5" s="50"/>
+      <c r="DJ5" s="50"/>
+      <c r="DK5" s="50"/>
+      <c r="DL5" s="50"/>
+      <c r="DM5" s="50"/>
+      <c r="DN5" s="50"/>
+      <c r="DO5" s="50"/>
+      <c r="DP5" s="50"/>
+      <c r="DQ5" s="50"/>
+      <c r="DR5" s="42">
+        <v>42790</v>
+      </c>
+    </row>
+    <row r="6" spans="2:122">
+      <c r="B6" s="46">
+        <f t="shared" si="91"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51"/>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="51"/>
+      <c r="AL6" s="51"/>
+      <c r="AM6" s="51"/>
+      <c r="AN6" s="51"/>
+      <c r="AO6" s="51"/>
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="51"/>
+      <c r="AS6" s="51"/>
+      <c r="AT6" s="51"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="51"/>
+      <c r="AW6" s="51"/>
+      <c r="AX6" s="51"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="51"/>
+      <c r="BA6" s="51"/>
+      <c r="BB6" s="51"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="51"/>
+      <c r="BE6" s="51"/>
+      <c r="BF6" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG6" s="50"/>
+      <c r="BH6" s="50"/>
+      <c r="BI6" s="50"/>
+      <c r="BJ6" s="50"/>
+      <c r="BK6" s="50"/>
+      <c r="BL6" s="50"/>
+      <c r="BM6" s="50"/>
+      <c r="BN6" s="50"/>
+      <c r="BO6" s="50"/>
+      <c r="BP6" s="50"/>
+      <c r="BQ6" s="50"/>
+      <c r="BR6" s="50"/>
+      <c r="BS6" s="50"/>
+      <c r="BT6" s="50"/>
+      <c r="BU6" s="50"/>
+      <c r="BV6" s="50"/>
+      <c r="BW6" s="50"/>
+      <c r="BX6" s="50"/>
+      <c r="BY6" s="50"/>
+      <c r="BZ6" s="50"/>
+      <c r="CA6" s="50"/>
+      <c r="CB6" s="50"/>
+      <c r="CC6" s="50"/>
+      <c r="CD6" s="50"/>
+      <c r="CE6" s="50"/>
+      <c r="CF6" s="50"/>
+      <c r="CG6" s="50"/>
+      <c r="CH6" s="50"/>
+      <c r="CI6" s="50"/>
+      <c r="CJ6" s="50"/>
+      <c r="CK6" s="50"/>
+      <c r="CL6" s="50"/>
+      <c r="CM6" s="50"/>
+      <c r="CN6" s="50"/>
+      <c r="CO6" s="50"/>
+      <c r="CP6" s="50"/>
+      <c r="CQ6" s="50"/>
+      <c r="CR6" s="50"/>
+      <c r="CS6" s="50"/>
+      <c r="CT6" s="50"/>
+      <c r="CU6" s="50"/>
+      <c r="CV6" s="50"/>
+      <c r="CW6" s="50"/>
+      <c r="CX6" s="50"/>
+      <c r="CY6" s="50"/>
+      <c r="CZ6" s="50"/>
+      <c r="DA6" s="50"/>
+      <c r="DB6" s="50"/>
+      <c r="DC6" s="50"/>
+      <c r="DD6" s="50"/>
+      <c r="DE6" s="50"/>
+      <c r="DF6" s="50"/>
+      <c r="DG6" s="50"/>
+      <c r="DH6" s="50"/>
+      <c r="DI6" s="50"/>
+      <c r="DJ6" s="50"/>
+      <c r="DK6" s="50"/>
+      <c r="DL6" s="50"/>
+      <c r="DM6" s="50"/>
+      <c r="DN6" s="50"/>
+      <c r="DO6" s="50"/>
+      <c r="DP6" s="50"/>
+      <c r="DQ6" s="50"/>
+      <c r="DR6" s="42">
+        <v>42839</v>
+      </c>
+    </row>
+    <row r="7" spans="2:122">
+      <c r="B7" s="46">
+        <f t="shared" si="91"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="49"/>
+      <c r="AG7" s="49"/>
+      <c r="AH7" s="49"/>
+      <c r="AI7" s="49"/>
+      <c r="AJ7" s="49"/>
+      <c r="AK7" s="49"/>
+      <c r="AL7" s="49"/>
+      <c r="AM7" s="49"/>
+      <c r="AN7" s="49"/>
+      <c r="AO7" s="49"/>
+      <c r="AP7" s="49"/>
+      <c r="AQ7" s="49"/>
+      <c r="AR7" s="49"/>
+      <c r="AS7" s="49"/>
+      <c r="AT7" s="49"/>
+      <c r="AU7" s="49"/>
+      <c r="AV7" s="49"/>
+      <c r="AW7" s="49"/>
+      <c r="AX7" s="49"/>
+      <c r="AY7" s="49"/>
+      <c r="AZ7" s="49"/>
+      <c r="BA7" s="49"/>
+      <c r="BB7" s="49"/>
+      <c r="BC7" s="49"/>
+      <c r="BD7" s="49"/>
+      <c r="BE7" s="49"/>
+      <c r="BF7" s="49"/>
+      <c r="BG7" s="51"/>
+      <c r="BH7" s="51"/>
+      <c r="BI7" s="51"/>
+      <c r="BJ7" s="51"/>
+      <c r="BK7" s="51"/>
+      <c r="BL7" s="51"/>
+      <c r="BM7" s="51"/>
+      <c r="BN7" s="51"/>
+      <c r="BO7" s="51"/>
+      <c r="BP7" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="BQ7" s="49"/>
+      <c r="BR7" s="49"/>
+      <c r="BS7" s="49"/>
+      <c r="BT7" s="49"/>
+      <c r="BU7" s="49"/>
+      <c r="BV7" s="49"/>
+      <c r="BW7" s="49"/>
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="49"/>
+      <c r="BZ7" s="49"/>
+      <c r="CA7" s="49"/>
+      <c r="CB7" s="49"/>
+      <c r="CC7" s="49"/>
+      <c r="CD7" s="49"/>
+      <c r="CE7" s="49"/>
+      <c r="CF7" s="49"/>
+      <c r="CG7" s="49"/>
+      <c r="CH7" s="49"/>
+      <c r="CI7" s="49"/>
+      <c r="CJ7" s="49"/>
+      <c r="CK7" s="49"/>
+      <c r="CL7" s="49"/>
+      <c r="CM7" s="49"/>
+      <c r="CN7" s="49"/>
+      <c r="CO7" s="49"/>
+      <c r="CP7" s="49"/>
+      <c r="CQ7" s="49"/>
+      <c r="CR7" s="49"/>
+      <c r="CS7" s="49"/>
+      <c r="CT7" s="49"/>
+      <c r="CU7" s="49"/>
+      <c r="CV7" s="49"/>
+      <c r="CW7" s="49"/>
+      <c r="CX7" s="49"/>
+      <c r="CY7" s="49"/>
+      <c r="CZ7" s="49"/>
+      <c r="DA7" s="49"/>
+      <c r="DB7" s="49"/>
+      <c r="DC7" s="49"/>
+      <c r="DD7" s="49"/>
+      <c r="DE7" s="49"/>
+      <c r="DF7" s="49"/>
+      <c r="DG7" s="49"/>
+      <c r="DH7" s="49"/>
+      <c r="DI7" s="49"/>
+      <c r="DJ7" s="49"/>
+      <c r="DK7" s="49"/>
+      <c r="DL7" s="49"/>
+      <c r="DM7" s="49"/>
+      <c r="DN7" s="49"/>
+      <c r="DO7" s="49"/>
+      <c r="DP7" s="49"/>
+      <c r="DQ7" s="49"/>
+      <c r="DR7" s="42">
+        <v>42853</v>
+      </c>
+    </row>
+    <row r="8" spans="2:122">
+      <c r="B8" s="46">
+        <f t="shared" si="91"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
+      <c r="AB8" s="49"/>
+      <c r="AC8" s="49"/>
+      <c r="AD8" s="49"/>
+      <c r="AE8" s="49"/>
+      <c r="AF8" s="49"/>
+      <c r="AG8" s="49"/>
+      <c r="AH8" s="49"/>
+      <c r="AI8" s="49"/>
+      <c r="AJ8" s="49"/>
+      <c r="AK8" s="49"/>
+      <c r="AL8" s="49"/>
+      <c r="AM8" s="49"/>
+      <c r="AN8" s="49"/>
+      <c r="AO8" s="49"/>
+      <c r="AP8" s="49"/>
+      <c r="AQ8" s="49"/>
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AT8" s="49"/>
+      <c r="AU8" s="49"/>
+      <c r="AV8" s="49"/>
+      <c r="AW8" s="49"/>
+      <c r="AX8" s="49"/>
+      <c r="AY8" s="49"/>
+      <c r="AZ8" s="49"/>
+      <c r="BA8" s="49"/>
+      <c r="BB8" s="49"/>
+      <c r="BC8" s="49"/>
+      <c r="BD8" s="49"/>
+      <c r="BE8" s="51"/>
+      <c r="BF8" s="51"/>
+      <c r="BG8" s="51"/>
+      <c r="BH8" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="BI8" s="49"/>
+      <c r="BJ8" s="49"/>
+      <c r="BK8" s="49"/>
+      <c r="BL8" s="49"/>
+      <c r="BM8" s="49"/>
+      <c r="BN8" s="49"/>
+      <c r="BO8" s="49"/>
+      <c r="BP8" s="49"/>
+      <c r="BQ8" s="49"/>
+      <c r="BR8" s="49"/>
+      <c r="BS8" s="49"/>
+      <c r="BT8" s="49"/>
+      <c r="BU8" s="49"/>
+      <c r="BV8" s="49"/>
+      <c r="BW8" s="49"/>
+      <c r="BX8" s="49"/>
+      <c r="BY8" s="49"/>
+      <c r="BZ8" s="49"/>
+      <c r="CA8" s="49"/>
+      <c r="CB8" s="49"/>
+      <c r="CC8" s="49"/>
+      <c r="CD8" s="49"/>
+      <c r="CE8" s="49"/>
+      <c r="CF8" s="49"/>
+      <c r="CG8" s="49"/>
+      <c r="CH8" s="49"/>
+      <c r="CI8" s="49"/>
+      <c r="CJ8" s="49"/>
+      <c r="CK8" s="49"/>
+      <c r="CL8" s="49"/>
+      <c r="CM8" s="49"/>
+      <c r="CN8" s="49"/>
+      <c r="CO8" s="49"/>
+      <c r="CP8" s="49"/>
+      <c r="CQ8" s="49"/>
+      <c r="CR8" s="49"/>
+      <c r="CS8" s="49"/>
+      <c r="CT8" s="49"/>
+      <c r="CU8" s="49"/>
+      <c r="CV8" s="49"/>
+      <c r="CW8" s="49"/>
+      <c r="CX8" s="49"/>
+      <c r="CY8" s="49"/>
+      <c r="CZ8" s="49"/>
+      <c r="DA8" s="49"/>
+      <c r="DB8" s="49"/>
+      <c r="DC8" s="49"/>
+      <c r="DD8" s="49"/>
+      <c r="DE8" s="49"/>
+      <c r="DF8" s="49"/>
+      <c r="DG8" s="49"/>
+      <c r="DH8" s="49"/>
+      <c r="DI8" s="49"/>
+      <c r="DJ8" s="49"/>
+      <c r="DK8" s="49"/>
+      <c r="DL8" s="49"/>
+      <c r="DM8" s="49"/>
+      <c r="DN8" s="49"/>
+      <c r="DO8" s="49"/>
+      <c r="DP8" s="49"/>
+      <c r="DQ8" s="49"/>
+      <c r="DR8" s="42">
+        <v>42843</v>
+      </c>
+    </row>
+    <row r="9" spans="2:122">
+      <c r="B9" s="46">
+        <f t="shared" si="91"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="49"/>
+      <c r="AJ9" s="49"/>
+      <c r="AK9" s="49"/>
+      <c r="AL9" s="49"/>
+      <c r="AM9" s="49"/>
+      <c r="AN9" s="49"/>
+      <c r="AO9" s="49"/>
+      <c r="AP9" s="49"/>
+      <c r="AQ9" s="49"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="49"/>
+      <c r="AY9" s="49"/>
+      <c r="AZ9" s="49"/>
+      <c r="BA9" s="49"/>
+      <c r="BB9" s="49"/>
+      <c r="BC9" s="49"/>
+      <c r="BD9" s="49"/>
+      <c r="BE9" s="49"/>
+      <c r="BF9" s="49"/>
+      <c r="BG9" s="49"/>
+      <c r="BH9" s="49"/>
+      <c r="BI9" s="51"/>
+      <c r="BJ9" s="51"/>
+      <c r="BK9" s="51"/>
+      <c r="BL9" s="51"/>
+      <c r="BM9" s="51"/>
+      <c r="BN9" s="51"/>
+      <c r="BO9" s="51"/>
+      <c r="BP9" s="51"/>
+      <c r="BQ9" s="51"/>
+      <c r="BR9" s="51"/>
+      <c r="BS9" s="51"/>
+      <c r="BT9" s="51"/>
+      <c r="BU9" s="51"/>
+      <c r="BV9" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="BW9" s="50"/>
+      <c r="BX9" s="50"/>
+      <c r="BY9" s="50"/>
+      <c r="BZ9" s="50"/>
+      <c r="CA9" s="50"/>
+      <c r="CB9" s="50"/>
+      <c r="CC9" s="50"/>
+      <c r="CD9" s="50"/>
+      <c r="CE9" s="50"/>
+      <c r="CF9" s="49"/>
+      <c r="CG9" s="49"/>
+      <c r="CH9" s="49"/>
+      <c r="CI9" s="49"/>
+      <c r="CJ9" s="49"/>
+      <c r="CK9" s="49"/>
+      <c r="CL9" s="49"/>
+      <c r="CM9" s="49"/>
+      <c r="CN9" s="49"/>
+      <c r="CO9" s="49"/>
+      <c r="CP9" s="49"/>
+      <c r="CQ9" s="49"/>
+      <c r="CR9" s="49"/>
+      <c r="CS9" s="49"/>
+      <c r="CT9" s="49"/>
+      <c r="CU9" s="49"/>
+      <c r="CV9" s="49"/>
+      <c r="CW9" s="49"/>
+      <c r="CX9" s="49"/>
+      <c r="CY9" s="49"/>
+      <c r="CZ9" s="49"/>
+      <c r="DA9" s="49"/>
+      <c r="DB9" s="49"/>
+      <c r="DC9" s="49"/>
+      <c r="DD9" s="49"/>
+      <c r="DE9" s="49"/>
+      <c r="DF9" s="49"/>
+      <c r="DG9" s="49"/>
+      <c r="DH9" s="49"/>
+      <c r="DI9" s="49"/>
+      <c r="DJ9" s="49"/>
+      <c r="DK9" s="49"/>
+      <c r="DL9" s="49"/>
+      <c r="DM9" s="49"/>
+      <c r="DN9" s="49"/>
+      <c r="DO9" s="49"/>
+      <c r="DP9" s="49"/>
+      <c r="DQ9" s="49"/>
+      <c r="DR9" s="42">
+        <v>42863</v>
+      </c>
+    </row>
+    <row r="10" spans="2:122">
+      <c r="B10" s="46">
+        <f t="shared" si="91"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="49"/>
+      <c r="BB10" s="49"/>
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="49"/>
+      <c r="BF10" s="49"/>
+      <c r="BG10" s="49"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="49"/>
+      <c r="BJ10" s="49"/>
+      <c r="BK10" s="49"/>
+      <c r="BL10" s="49"/>
+      <c r="BM10" s="49"/>
+      <c r="BN10" s="49"/>
+      <c r="BO10" s="49"/>
+      <c r="BP10" s="49"/>
+      <c r="BQ10" s="49"/>
+      <c r="BR10" s="49"/>
+      <c r="BS10" s="49"/>
+      <c r="BT10" s="49"/>
+      <c r="BU10" s="49"/>
+      <c r="BV10" s="49"/>
+      <c r="BW10" s="51"/>
+      <c r="BX10" s="51"/>
+      <c r="BY10" s="51"/>
+      <c r="BZ10" s="51"/>
+      <c r="CA10" s="51"/>
+      <c r="CB10" s="51"/>
+      <c r="CC10" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="CD10" s="50"/>
+      <c r="CE10" s="50"/>
+      <c r="CF10" s="49"/>
+      <c r="CG10" s="49"/>
+      <c r="CH10" s="49"/>
+      <c r="CI10" s="49"/>
+      <c r="CJ10" s="49"/>
+      <c r="CK10" s="49"/>
+      <c r="CL10" s="49"/>
+      <c r="CM10" s="49"/>
+      <c r="CN10" s="49"/>
+      <c r="CO10" s="49"/>
+      <c r="CP10" s="49"/>
+      <c r="CQ10" s="49"/>
+      <c r="CR10" s="49"/>
+      <c r="CS10" s="49"/>
+      <c r="CT10" s="49"/>
+      <c r="CU10" s="49"/>
+      <c r="CV10" s="49"/>
+      <c r="CW10" s="49"/>
+      <c r="CX10" s="49"/>
+      <c r="CY10" s="49"/>
+      <c r="CZ10" s="49"/>
+      <c r="DA10" s="49"/>
+      <c r="DB10" s="49"/>
+      <c r="DC10" s="49"/>
+      <c r="DD10" s="49"/>
+      <c r="DE10" s="49"/>
+      <c r="DF10" s="49"/>
+      <c r="DG10" s="49"/>
+      <c r="DH10" s="49"/>
+      <c r="DI10" s="49"/>
+      <c r="DJ10" s="49"/>
+      <c r="DK10" s="49"/>
+      <c r="DL10" s="49"/>
+      <c r="DM10" s="49"/>
+      <c r="DN10" s="49"/>
+      <c r="DO10" s="49"/>
+      <c r="DP10" s="49"/>
+      <c r="DQ10" s="49"/>
+      <c r="DR10" s="42">
+        <v>42872</v>
+      </c>
+    </row>
+    <row r="11" spans="2:122">
+      <c r="B11" s="46">
+        <f t="shared" si="91"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="49"/>
+      <c r="AJ11" s="49"/>
+      <c r="AK11" s="49"/>
+      <c r="AL11" s="49"/>
+      <c r="AM11" s="49"/>
+      <c r="AN11" s="49"/>
+      <c r="AO11" s="49"/>
+      <c r="AP11" s="49"/>
+      <c r="AQ11" s="49"/>
+      <c r="AR11" s="49"/>
+      <c r="AS11" s="49"/>
+      <c r="AT11" s="49"/>
+      <c r="AU11" s="49"/>
+      <c r="AV11" s="49"/>
+      <c r="AW11" s="49"/>
+      <c r="AX11" s="49"/>
+      <c r="AY11" s="49"/>
+      <c r="AZ11" s="49"/>
+      <c r="BA11" s="49"/>
+      <c r="BB11" s="49"/>
+      <c r="BC11" s="49"/>
+      <c r="BD11" s="49"/>
+      <c r="BE11" s="49"/>
+      <c r="BF11" s="49"/>
+      <c r="BG11" s="49"/>
+      <c r="BH11" s="49"/>
+      <c r="BI11" s="49"/>
+      <c r="BJ11" s="49"/>
+      <c r="BK11" s="49"/>
+      <c r="BL11" s="49"/>
+      <c r="BM11" s="49"/>
+      <c r="BN11" s="49"/>
+      <c r="BO11" s="49"/>
+      <c r="BP11" s="49"/>
+      <c r="BQ11" s="49"/>
+      <c r="BR11" s="49"/>
+      <c r="BS11" s="49"/>
+      <c r="BT11" s="49"/>
+      <c r="BU11" s="49"/>
+      <c r="BV11" s="49"/>
+      <c r="BW11" s="49"/>
+      <c r="BX11" s="49"/>
+      <c r="BY11" s="49"/>
+      <c r="BZ11" s="49"/>
+      <c r="CA11" s="49"/>
+      <c r="CB11" s="49"/>
+      <c r="CC11" s="49"/>
+      <c r="CD11" s="51"/>
+      <c r="CE11" s="51"/>
+      <c r="CF11" s="51"/>
+      <c r="CG11" s="51"/>
+      <c r="CH11" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="CI11" s="49"/>
+      <c r="CJ11" s="49"/>
+      <c r="CK11" s="49"/>
+      <c r="CL11" s="50"/>
+      <c r="CM11" s="50"/>
+      <c r="CN11" s="50"/>
+      <c r="CO11" s="50"/>
+      <c r="CP11" s="50"/>
+      <c r="CQ11" s="49"/>
+      <c r="CR11" s="49"/>
+      <c r="CS11" s="49"/>
+      <c r="CT11" s="49"/>
+      <c r="CU11" s="49"/>
+      <c r="CV11" s="49"/>
+      <c r="CW11" s="49"/>
+      <c r="CX11" s="49"/>
+      <c r="CY11" s="49"/>
+      <c r="CZ11" s="49"/>
+      <c r="DA11" s="49"/>
+      <c r="DB11" s="49"/>
+      <c r="DC11" s="49"/>
+      <c r="DD11" s="49"/>
+      <c r="DE11" s="49"/>
+      <c r="DF11" s="49"/>
+      <c r="DG11" s="49"/>
+      <c r="DH11" s="49"/>
+      <c r="DI11" s="49"/>
+      <c r="DJ11" s="49"/>
+      <c r="DK11" s="49"/>
+      <c r="DL11" s="49"/>
+      <c r="DM11" s="49"/>
+      <c r="DN11" s="49"/>
+      <c r="DO11" s="49"/>
+      <c r="DP11" s="49"/>
+      <c r="DQ11" s="49"/>
+      <c r="DR11" s="42">
+        <v>42879</v>
+      </c>
+    </row>
+    <row r="12" spans="2:122">
+      <c r="B12" s="46">
+        <f t="shared" si="91"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
+      <c r="AB12" s="49"/>
+      <c r="AC12" s="49"/>
+      <c r="AD12" s="49"/>
+      <c r="AE12" s="49"/>
+      <c r="AF12" s="49"/>
+      <c r="AG12" s="49"/>
+      <c r="AH12" s="49"/>
+      <c r="AI12" s="49"/>
+      <c r="AJ12" s="49"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="49"/>
+      <c r="AM12" s="49"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="49"/>
+      <c r="BA12" s="49"/>
+      <c r="BB12" s="49"/>
+      <c r="BC12" s="49"/>
+      <c r="BD12" s="49"/>
+      <c r="BE12" s="49"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
+      <c r="BL12" s="49"/>
+      <c r="BM12" s="49"/>
+      <c r="BN12" s="49"/>
+      <c r="BO12" s="49"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="49"/>
+      <c r="BR12" s="49"/>
+      <c r="BS12" s="49"/>
+      <c r="BT12" s="49"/>
+      <c r="BU12" s="49"/>
+      <c r="BV12" s="49"/>
+      <c r="BW12" s="49"/>
+      <c r="BX12" s="49"/>
+      <c r="BY12" s="49"/>
+      <c r="BZ12" s="49"/>
+      <c r="CA12" s="49"/>
+      <c r="CB12" s="49"/>
+      <c r="CC12" s="49"/>
+      <c r="CD12" s="49"/>
+      <c r="CE12" s="51"/>
+      <c r="CF12" s="51"/>
+      <c r="CG12" s="51"/>
+      <c r="CH12" s="51"/>
+      <c r="CI12" s="51"/>
+      <c r="CJ12" s="51"/>
+      <c r="CK12" s="51"/>
+      <c r="CL12" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="CM12" s="50"/>
+      <c r="CN12" s="50"/>
+      <c r="CO12" s="50"/>
+      <c r="CP12" s="50"/>
+      <c r="CQ12" s="49"/>
+      <c r="CR12" s="49"/>
+      <c r="CS12" s="49"/>
+      <c r="CT12" s="49"/>
+      <c r="CU12" s="49"/>
+      <c r="CV12" s="49"/>
+      <c r="CW12" s="49"/>
+      <c r="CX12" s="49"/>
+      <c r="CY12" s="49"/>
+      <c r="CZ12" s="49"/>
+      <c r="DA12" s="49"/>
+      <c r="DB12" s="49"/>
+      <c r="DC12" s="49"/>
+      <c r="DD12" s="49"/>
+      <c r="DE12" s="49"/>
+      <c r="DF12" s="49"/>
+      <c r="DG12" s="49"/>
+      <c r="DH12" s="49"/>
+      <c r="DI12" s="49"/>
+      <c r="DJ12" s="49"/>
+      <c r="DK12" s="49"/>
+      <c r="DL12" s="49"/>
+      <c r="DM12" s="49"/>
+      <c r="DN12" s="49"/>
+      <c r="DO12" s="49"/>
+      <c r="DP12" s="49"/>
+      <c r="DQ12" s="49"/>
+      <c r="DR12" s="42">
+        <v>42885</v>
+      </c>
+    </row>
+    <row r="13" spans="2:122">
+      <c r="B13" s="46">
+        <f t="shared" si="91"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="49"/>
+      <c r="AI13" s="49"/>
+      <c r="AJ13" s="49"/>
+      <c r="AK13" s="49"/>
+      <c r="AL13" s="49"/>
+      <c r="AM13" s="49"/>
+      <c r="AN13" s="49"/>
+      <c r="AO13" s="49"/>
+      <c r="AP13" s="49"/>
+      <c r="AQ13" s="49"/>
+      <c r="AR13" s="49"/>
+      <c r="AS13" s="49"/>
+      <c r="AT13" s="49"/>
+      <c r="AU13" s="49"/>
+      <c r="AV13" s="49"/>
+      <c r="AW13" s="49"/>
+      <c r="AX13" s="49"/>
+      <c r="AY13" s="49"/>
+      <c r="AZ13" s="49"/>
+      <c r="BA13" s="49"/>
+      <c r="BB13" s="49"/>
+      <c r="BC13" s="49"/>
+      <c r="BD13" s="49"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="49"/>
+      <c r="BG13" s="49"/>
+      <c r="BH13" s="49"/>
+      <c r="BI13" s="49"/>
+      <c r="BJ13" s="49"/>
+      <c r="BK13" s="49"/>
+      <c r="BL13" s="49"/>
+      <c r="BM13" s="49"/>
+      <c r="BN13" s="49"/>
+      <c r="BO13" s="49"/>
+      <c r="BP13" s="49"/>
+      <c r="BQ13" s="49"/>
+      <c r="BR13" s="49"/>
+      <c r="BS13" s="49"/>
+      <c r="BT13" s="49"/>
+      <c r="BU13" s="49"/>
+      <c r="BV13" s="49"/>
+      <c r="BW13" s="49"/>
+      <c r="BX13" s="49"/>
+      <c r="BY13" s="49"/>
+      <c r="BZ13" s="49"/>
+      <c r="CA13" s="49"/>
+      <c r="CB13" s="49"/>
+      <c r="CC13" s="49"/>
+      <c r="CD13" s="49"/>
+      <c r="CE13" s="49"/>
+      <c r="CF13" s="49"/>
+      <c r="CG13" s="49"/>
+      <c r="CH13" s="49"/>
+      <c r="CI13" s="49"/>
+      <c r="CJ13" s="49"/>
+      <c r="CK13" s="49"/>
+      <c r="CL13" s="49"/>
+      <c r="CM13" s="51"/>
+      <c r="CN13" s="51"/>
+      <c r="CO13" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="CP13" s="49"/>
+      <c r="CQ13" s="49"/>
+      <c r="CR13" s="49"/>
+      <c r="CS13" s="49"/>
+      <c r="CT13" s="49"/>
+      <c r="CU13" s="49"/>
+      <c r="CV13" s="49"/>
+      <c r="CW13" s="49"/>
+      <c r="CX13" s="49"/>
+      <c r="CY13" s="49"/>
+      <c r="CZ13" s="49"/>
+      <c r="DA13" s="49"/>
+      <c r="DB13" s="49"/>
+      <c r="DC13" s="49"/>
+      <c r="DD13" s="49"/>
+      <c r="DE13" s="49"/>
+      <c r="DF13" s="49"/>
+      <c r="DG13" s="49"/>
+      <c r="DH13" s="49"/>
+      <c r="DI13" s="49"/>
+      <c r="DJ13" s="49"/>
+      <c r="DK13" s="49"/>
+      <c r="DL13" s="49"/>
+      <c r="DM13" s="49"/>
+      <c r="DN13" s="49"/>
+      <c r="DO13" s="49"/>
+      <c r="DP13" s="49"/>
+      <c r="DQ13" s="49"/>
+      <c r="DR13" s="42">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="14" spans="2:122">
+      <c r="B14" s="46">
+        <f t="shared" si="91"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="49"/>
+      <c r="AK14" s="49"/>
+      <c r="AL14" s="49"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
+      <c r="AQ14" s="49"/>
+      <c r="AR14" s="49"/>
+      <c r="AS14" s="49"/>
+      <c r="AT14" s="49"/>
+      <c r="AU14" s="49"/>
+      <c r="AV14" s="49"/>
+      <c r="AW14" s="49"/>
+      <c r="AX14" s="49"/>
+      <c r="AY14" s="49"/>
+      <c r="AZ14" s="49"/>
+      <c r="BA14" s="49"/>
+      <c r="BB14" s="49"/>
+      <c r="BC14" s="49"/>
+      <c r="BD14" s="49"/>
+      <c r="BE14" s="49"/>
+      <c r="BF14" s="49"/>
+      <c r="BG14" s="49"/>
+      <c r="BH14" s="49"/>
+      <c r="BI14" s="49"/>
+      <c r="BJ14" s="49"/>
+      <c r="BK14" s="49"/>
+      <c r="BL14" s="49"/>
+      <c r="BM14" s="49"/>
+      <c r="BN14" s="49"/>
+      <c r="BO14" s="49"/>
+      <c r="BP14" s="49"/>
+      <c r="BQ14" s="49"/>
+      <c r="BR14" s="49"/>
+      <c r="BS14" s="49"/>
+      <c r="BT14" s="49"/>
+      <c r="BU14" s="49"/>
+      <c r="BV14" s="49"/>
+      <c r="BW14" s="49"/>
+      <c r="BX14" s="49"/>
+      <c r="BY14" s="49"/>
+      <c r="BZ14" s="49"/>
+      <c r="CA14" s="49"/>
+      <c r="CB14" s="49"/>
+      <c r="CC14" s="49"/>
+      <c r="CD14" s="49"/>
+      <c r="CE14" s="49"/>
+      <c r="CF14" s="49"/>
+      <c r="CG14" s="49"/>
+      <c r="CH14" s="49"/>
+      <c r="CI14" s="49"/>
+      <c r="CJ14" s="49"/>
+      <c r="CK14" s="49"/>
+      <c r="CL14" s="49"/>
+      <c r="CM14" s="49"/>
+      <c r="CN14" s="49"/>
+      <c r="CO14" s="49"/>
+      <c r="CP14" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ14" s="54"/>
+      <c r="CR14" s="54"/>
+      <c r="CS14" s="54"/>
+      <c r="CT14" s="54"/>
+      <c r="CU14" s="54"/>
+      <c r="CV14" s="54"/>
+      <c r="CW14" s="54"/>
+      <c r="CX14" s="54"/>
+      <c r="CY14" s="54"/>
+      <c r="CZ14" s="54"/>
+      <c r="DA14" s="54"/>
+      <c r="DB14" s="54"/>
+      <c r="DC14" s="54"/>
+      <c r="DD14" s="54"/>
+      <c r="DE14" s="54"/>
+      <c r="DF14" s="54"/>
+      <c r="DG14" s="54"/>
+      <c r="DH14" s="54"/>
+      <c r="DI14" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="DJ14" s="49"/>
+      <c r="DK14" s="49"/>
+      <c r="DL14" s="49"/>
+      <c r="DM14" s="49"/>
+      <c r="DN14" s="49"/>
+      <c r="DO14" s="49"/>
+      <c r="DP14" s="49"/>
+      <c r="DQ14" s="49"/>
+      <c r="DR14" s="42">
+        <v>42916</v>
+      </c>
+    </row>
+    <row r="15" spans="2:122">
+      <c r="B15" s="46">
+        <f t="shared" si="91"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
+      <c r="AB15" s="49"/>
+      <c r="AC15" s="49"/>
+      <c r="AD15" s="49"/>
+      <c r="AE15" s="49"/>
+      <c r="AF15" s="49"/>
+      <c r="AG15" s="49"/>
+      <c r="AH15" s="49"/>
+      <c r="AI15" s="49"/>
+      <c r="AJ15" s="49"/>
+      <c r="AK15" s="49"/>
+      <c r="AL15" s="49"/>
+      <c r="AM15" s="49"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="49"/>
+      <c r="BA15" s="49"/>
+      <c r="BB15" s="49"/>
+      <c r="BC15" s="49"/>
+      <c r="BD15" s="49"/>
+      <c r="BE15" s="49"/>
+      <c r="BF15" s="49"/>
+      <c r="BG15" s="49"/>
+      <c r="BH15" s="49"/>
+      <c r="BI15" s="49"/>
+      <c r="BJ15" s="49"/>
+      <c r="BK15" s="49"/>
+      <c r="BL15" s="49"/>
+      <c r="BM15" s="49"/>
+      <c r="BN15" s="49"/>
+      <c r="BO15" s="49"/>
+      <c r="BP15" s="49"/>
+      <c r="BQ15" s="49"/>
+      <c r="BR15" s="49"/>
+      <c r="BS15" s="49"/>
+      <c r="BT15" s="49"/>
+      <c r="BU15" s="49"/>
+      <c r="BV15" s="49"/>
+      <c r="BW15" s="49"/>
+      <c r="BX15" s="49"/>
+      <c r="BY15" s="49"/>
+      <c r="BZ15" s="49"/>
+      <c r="CA15" s="49"/>
+      <c r="CB15" s="49"/>
+      <c r="CC15" s="49"/>
+      <c r="CD15" s="49"/>
+      <c r="CE15" s="49"/>
+      <c r="CF15" s="49"/>
+      <c r="CG15" s="49"/>
+      <c r="CH15" s="49"/>
+      <c r="CI15" s="49"/>
+      <c r="CJ15" s="49"/>
+      <c r="CK15" s="49"/>
+      <c r="CL15" s="49"/>
+      <c r="CM15" s="49"/>
+      <c r="CN15" s="49"/>
+      <c r="CO15" s="49"/>
+      <c r="CP15" s="49"/>
+      <c r="CQ15" s="49"/>
+      <c r="CR15" s="49"/>
+      <c r="CS15" s="49"/>
+      <c r="CT15" s="49"/>
+      <c r="CU15" s="49"/>
+      <c r="CV15" s="49"/>
+      <c r="CW15" s="49"/>
+      <c r="CX15" s="49"/>
+      <c r="CY15" s="49"/>
+      <c r="CZ15" s="49"/>
+      <c r="DA15" s="49"/>
+      <c r="DB15" s="49"/>
+      <c r="DC15" s="49"/>
+      <c r="DD15" s="49"/>
+      <c r="DE15" s="49"/>
+      <c r="DF15" s="49"/>
+      <c r="DG15" s="49"/>
+      <c r="DH15" s="49"/>
+      <c r="DI15" s="51"/>
+      <c r="DJ15" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="DK15" s="49"/>
+      <c r="DL15" s="49"/>
+      <c r="DM15" s="49"/>
+      <c r="DN15" s="49"/>
+      <c r="DO15" s="49"/>
+      <c r="DP15" s="49"/>
+      <c r="DQ15" s="49"/>
+      <c r="DR15" s="42">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="16" spans="2:122">
+      <c r="B16" s="46">
+        <f t="shared" si="91"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
+      <c r="AB16" s="49"/>
+      <c r="AC16" s="49"/>
+      <c r="AD16" s="49"/>
+      <c r="AE16" s="49"/>
+      <c r="AF16" s="49"/>
+      <c r="AG16" s="49"/>
+      <c r="AH16" s="49"/>
+      <c r="AI16" s="49"/>
+      <c r="AJ16" s="49"/>
+      <c r="AK16" s="49"/>
+      <c r="AL16" s="49"/>
+      <c r="AM16" s="49"/>
+      <c r="AN16" s="49"/>
+      <c r="AO16" s="49"/>
+      <c r="AP16" s="49"/>
+      <c r="AQ16" s="49"/>
+      <c r="AR16" s="49"/>
+      <c r="AS16" s="49"/>
+      <c r="AT16" s="49"/>
+      <c r="AU16" s="49"/>
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="49"/>
+      <c r="AX16" s="49"/>
+      <c r="AY16" s="49"/>
+      <c r="AZ16" s="49"/>
+      <c r="BA16" s="49"/>
+      <c r="BB16" s="49"/>
+      <c r="BC16" s="49"/>
+      <c r="BD16" s="49"/>
+      <c r="BE16" s="49"/>
+      <c r="BF16" s="49"/>
+      <c r="BG16" s="49"/>
+      <c r="BH16" s="49"/>
+      <c r="BI16" s="49"/>
+      <c r="BJ16" s="49"/>
+      <c r="BK16" s="49"/>
+      <c r="BL16" s="49"/>
+      <c r="BM16" s="49"/>
+      <c r="BN16" s="49"/>
+      <c r="BO16" s="49"/>
+      <c r="BP16" s="49"/>
+      <c r="BQ16" s="49"/>
+      <c r="BR16" s="49"/>
+      <c r="BS16" s="49"/>
+      <c r="BT16" s="49"/>
+      <c r="BU16" s="49"/>
+      <c r="BV16" s="49"/>
+      <c r="BW16" s="49"/>
+      <c r="BX16" s="49"/>
+      <c r="BY16" s="49"/>
+      <c r="BZ16" s="49"/>
+      <c r="CA16" s="49"/>
+      <c r="CB16" s="49"/>
+      <c r="CC16" s="49"/>
+      <c r="CD16" s="49"/>
+      <c r="CE16" s="49"/>
+      <c r="CF16" s="49"/>
+      <c r="CG16" s="49"/>
+      <c r="CH16" s="49"/>
+      <c r="CI16" s="49"/>
+      <c r="CJ16" s="49"/>
+      <c r="CK16" s="49"/>
+      <c r="CL16" s="49"/>
+      <c r="CM16" s="49"/>
+      <c r="CN16" s="49"/>
+      <c r="CO16" s="49"/>
+      <c r="CP16" s="49"/>
+      <c r="CQ16" s="49"/>
+      <c r="CR16" s="49"/>
+      <c r="CS16" s="49"/>
+      <c r="CT16" s="49"/>
+      <c r="CU16" s="49"/>
+      <c r="CV16" s="49"/>
+      <c r="CW16" s="49"/>
+      <c r="CX16" s="49"/>
+      <c r="CY16" s="49"/>
+      <c r="CZ16" s="49"/>
+      <c r="DA16" s="49"/>
+      <c r="DB16" s="49"/>
+      <c r="DC16" s="49"/>
+      <c r="DD16" s="49"/>
+      <c r="DE16" s="49"/>
+      <c r="DF16" s="49"/>
+      <c r="DG16" s="49"/>
+      <c r="DH16" s="49"/>
+      <c r="DI16" s="51"/>
+      <c r="DJ16" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="DK16" s="49"/>
+      <c r="DL16" s="49"/>
+      <c r="DM16" s="49"/>
+      <c r="DN16" s="49"/>
+      <c r="DO16" s="49"/>
+      <c r="DP16" s="49"/>
+      <c r="DQ16" s="49"/>
+      <c r="DR16" s="42">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="17" spans="2:122">
+      <c r="B17" s="46">
+        <f t="shared" si="91"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
+      <c r="AB17" s="49"/>
+      <c r="AC17" s="49"/>
+      <c r="AD17" s="49"/>
+      <c r="AE17" s="49"/>
+      <c r="AF17" s="49"/>
+      <c r="AG17" s="49"/>
+      <c r="AH17" s="49"/>
+      <c r="AI17" s="49"/>
+      <c r="AJ17" s="49"/>
+      <c r="AK17" s="49"/>
+      <c r="AL17" s="49"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="49"/>
+      <c r="AO17" s="49"/>
+      <c r="AP17" s="49"/>
+      <c r="AQ17" s="49"/>
+      <c r="AR17" s="49"/>
+      <c r="AS17" s="49"/>
+      <c r="AT17" s="49"/>
+      <c r="AU17" s="49"/>
+      <c r="AV17" s="49"/>
+      <c r="AW17" s="49"/>
+      <c r="AX17" s="49"/>
+      <c r="AY17" s="49"/>
+      <c r="AZ17" s="49"/>
+      <c r="BA17" s="49"/>
+      <c r="BB17" s="49"/>
+      <c r="BC17" s="49"/>
+      <c r="BD17" s="49"/>
+      <c r="BE17" s="49"/>
+      <c r="BF17" s="49"/>
+      <c r="BG17" s="49"/>
+      <c r="BH17" s="49"/>
+      <c r="BI17" s="49"/>
+      <c r="BJ17" s="49"/>
+      <c r="BK17" s="49"/>
+      <c r="BL17" s="49"/>
+      <c r="BM17" s="49"/>
+      <c r="BN17" s="49"/>
+      <c r="BO17" s="49"/>
+      <c r="BP17" s="49"/>
+      <c r="BQ17" s="49"/>
+      <c r="BR17" s="49"/>
+      <c r="BS17" s="49"/>
+      <c r="BT17" s="49"/>
+      <c r="BU17" s="49"/>
+      <c r="BV17" s="49"/>
+      <c r="BW17" s="49"/>
+      <c r="BX17" s="49"/>
+      <c r="BY17" s="49"/>
+      <c r="BZ17" s="49"/>
+      <c r="CA17" s="49"/>
+      <c r="CB17" s="49"/>
+      <c r="CC17" s="49"/>
+      <c r="CD17" s="49"/>
+      <c r="CE17" s="49"/>
+      <c r="CF17" s="49"/>
+      <c r="CG17" s="49"/>
+      <c r="CH17" s="49"/>
+      <c r="CI17" s="49"/>
+      <c r="CJ17" s="49"/>
+      <c r="CK17" s="49"/>
+      <c r="CL17" s="49"/>
+      <c r="CM17" s="49"/>
+      <c r="CN17" s="49"/>
+      <c r="CO17" s="49"/>
+      <c r="CP17" s="49"/>
+      <c r="CQ17" s="49"/>
+      <c r="CR17" s="49"/>
+      <c r="CS17" s="49"/>
+      <c r="CT17" s="49"/>
+      <c r="CU17" s="49"/>
+      <c r="CV17" s="49"/>
+      <c r="CW17" s="49"/>
+      <c r="CX17" s="49"/>
+      <c r="CY17" s="49"/>
+      <c r="CZ17" s="49"/>
+      <c r="DA17" s="49"/>
+      <c r="DB17" s="49"/>
+      <c r="DC17" s="49"/>
+      <c r="DD17" s="49"/>
+      <c r="DE17" s="49"/>
+      <c r="DF17" s="49"/>
+      <c r="DG17" s="49"/>
+      <c r="DH17" s="49"/>
+      <c r="DI17" s="51"/>
+      <c r="DJ17" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="DK17" s="49"/>
+      <c r="DL17" s="49"/>
+      <c r="DM17" s="49"/>
+      <c r="DN17" s="49"/>
+      <c r="DO17" s="49"/>
+      <c r="DP17" s="49"/>
+      <c r="DQ17" s="49"/>
+      <c r="DR17" s="42">
+        <v>42919</v>
+      </c>
+    </row>
+    <row r="19" spans="2:122">
+      <c r="C19" s="59" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="2:122">
+      <c r="C20" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="2:122">
+      <c r="C21" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="2:122" ht="15.6">
+      <c r="C22" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="2:122">
+      <c r="C23" s="16" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="256">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1012,6 +1012,15 @@
   </si>
   <si>
     <t>Descrizione</t>
+  </si>
+  <si>
+    <t>override NOPG colore blu chiaro</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>dati/output</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +1475,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="130">
+  <dxfs count="133">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3083,10 +3122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -5923,7 +5962,7 @@
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B120" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B121" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -6151,7 +6190,7 @@
         <v>25</v>
       </c>
       <c r="E110" s="13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
@@ -6406,39 +6445,63 @@
       </c>
     </row>
     <row r="121" spans="2:10">
-      <c r="D121"/>
-      <c r="E121"/>
-      <c r="F121"/>
-      <c r="G121"/>
-      <c r="H121"/>
+      <c r="B121" s="7">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="5">
+        <v>2</v>
+      </c>
+      <c r="I121" s="5">
+        <v>1</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="122" spans="2:10">
-      <c r="C122" s="31" t="s">
-        <v>165</v>
-      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
     </row>
     <row r="123" spans="2:10">
       <c r="C123" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="C124" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="C125" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="C126" s="31" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="2:10">
-      <c r="C126" s="38" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="127" spans="2:10">
       <c r="C127" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10">
+      <c r="C128" s="38" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6449,651 +6512,666 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="132" priority="145" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="131" priority="144" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
     <cfRule type="cellIs" dxfId="129" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="F71:G71">
     <cfRule type="cellIs" dxfId="128" priority="141" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E71:G71">
     <cfRule type="cellIs" dxfId="127" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="126" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="125" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="124" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="123" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="122" priority="135" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="121" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="120" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="119" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="118" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="117" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="116" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="115" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="114" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="113" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="112" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="111" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="110" priority="123" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="109" priority="122" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="108" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="107" priority="120" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="106" priority="119" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="105" priority="118" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="104" priority="117" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="103" priority="116" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="102" priority="115" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="101" priority="114" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="102" priority="112" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="101" priority="111" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="100" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="99" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="98" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="97" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="96" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="95" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="94" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="93" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="92" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="91" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="90" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="89" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="88" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="87" priority="97" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="86" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="85" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="84" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="83" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="82" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="81" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="80" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="79" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="78" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="77" priority="87" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="76" priority="86" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="75" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="74" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="73" priority="83" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="72" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="70" priority="80" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F93:G93">
+    <cfRule type="cellIs" dxfId="70" priority="74" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:G93">
+    <cfRule type="cellIs" dxfId="69" priority="73" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="68" priority="72" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
     <cfRule type="cellIs" dxfId="67" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:G93">
+  <conditionalFormatting sqref="F95:G95">
     <cfRule type="cellIs" dxfId="66" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="E95:G95">
     <cfRule type="cellIs" dxfId="65" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="64" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:G95">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="63" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="62" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="60" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="56" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="52" priority="56" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E99:E101">
+    <cfRule type="cellIs" dxfId="54" priority="53" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
     <cfRule type="cellIs" dxfId="51" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F102:G102">
     <cfRule type="cellIs" dxfId="50" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F102:G102">
     <cfRule type="cellIs" dxfId="49" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="48" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="47" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="46" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
+  <conditionalFormatting sqref="E104">
     <cfRule type="cellIs" dxfId="45" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="44" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="43" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="42" priority="41" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="41" priority="43" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="E106">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="E107">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E108">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
+  <conditionalFormatting sqref="F110:G110">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
+  <conditionalFormatting sqref="F110:G110">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
+  <conditionalFormatting sqref="E110">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
+  <conditionalFormatting sqref="E111">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
+  <conditionalFormatting sqref="E112">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
+  <conditionalFormatting sqref="F117:G120">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
+  <conditionalFormatting sqref="F117:G120">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E117:E120">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117:G120">
+  <conditionalFormatting sqref="F113:G116">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117:G120">
+  <conditionalFormatting sqref="F113:G116">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117:E120">
+  <conditionalFormatting sqref="E113:E116">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:G116">
+  <conditionalFormatting sqref="G89">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:G116">
+  <conditionalFormatting sqref="G89">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E116">
+  <conditionalFormatting sqref="F121:G121">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
+  <conditionalFormatting sqref="F121:G121">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
+  <conditionalFormatting sqref="E121">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7280,13 +7358,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH32"/>
+  <dimension ref="B1:AH33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="U12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7567,7 +7645,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$306,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -7607,7 +7685,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$306,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -7651,7 +7729,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$306,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -7691,7 +7769,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$306,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -7733,7 +7811,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$306,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -7775,7 +7853,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$306,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -7817,7 +7895,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Sheet1!$B$47:$C$305,2,FALSE)</f>
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$306,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -7856,11 +7934,11 @@
     </row>
     <row r="10" spans="2:34">
       <c r="B10" s="22">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>CR Esperienziali - nuovo indicatore e BR</v>
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>override NOPG colore blu chiaro</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -7874,11 +7952,11 @@
       <c r="M10" s="23"/>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
-      <c r="P10" s="35" t="s">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
@@ -7898,18 +7976,18 @@
     </row>
     <row r="11" spans="2:34">
       <c r="B11" s="22">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>testare AQR per Banca BIB</v>
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
@@ -7938,34 +8016,30 @@
     </row>
     <row r="12" spans="2:34">
       <c r="B12" s="22">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>motore ALEX BANK</v>
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
-      <c r="U12" s="29" t="s">
-        <v>207</v>
-      </c>
+      <c r="U12" s="23"/>
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
       <c r="X12" s="23"/>
@@ -7982,11 +8056,11 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="22">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>file test e TCK ALEX BANK</v>
+        <f>VLOOKUP(B13,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>motore ALEX BANK</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -7994,18 +8068,22 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
+      <c r="O13" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="P13" s="29"/>
       <c r="Q13" s="29"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
+      <c r="U13" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
@@ -8022,41 +8100,35 @@
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="22">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>motore CIB BANK</v>
+        <f>VLOOKUP(B14,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="28"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="23"/>
       <c r="J14" s="23"/>
       <c r="K14" s="23"/>
       <c r="L14" s="23"/>
-      <c r="M14" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
       <c r="Y14" s="23"/>
-      <c r="Z14" s="28" t="s">
-        <v>207</v>
-      </c>
+      <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
       <c r="AB14" s="23"/>
       <c r="AC14" s="23"/>
@@ -8068,35 +8140,43 @@
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>file test e TCK CIB BANK</v>
+        <f>VLOOKUP(B15,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>motore CIB BANK</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
+      <c r="M15" s="28" t="s">
+        <v>199</v>
+      </c>
       <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+      <c r="O15" s="28"/>
       <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
+      <c r="Q15" s="28" t="s">
+        <v>209</v>
+      </c>
       <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
+      <c r="S15" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
       <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
+      <c r="Z15" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="AA15" s="23"/>
       <c r="AB15" s="23"/>
       <c r="AC15" s="23"/>
@@ -8108,11 +8188,11 @@
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="22">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>motore ISPRO BANK</v>
+        <f>VLOOKUP(B16,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -8126,37 +8206,33 @@
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="R16" s="23"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="23"/>
+      <c r="Y16" s="23"/>
       <c r="Z16" s="23"/>
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
       <c r="AD16" s="23"/>
-      <c r="AE16" s="37" t="s">
-        <v>207</v>
-      </c>
+      <c r="AE16" s="23"/>
       <c r="AF16" s="23"/>
       <c r="AG16" s="23"/>
       <c r="AH16" s="23"/>
     </row>
     <row r="17" spans="2:34">
       <c r="B17" s="22">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>file test e TCK ISPRO BANK</v>
+        <f>VLOOKUP(B17,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>motore ISPRO BANK</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -8171,32 +8247,38 @@
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
       <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
+      <c r="Q17" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
+      <c r="S17" s="37"/>
       <c r="T17" s="37"/>
       <c r="U17" s="37"/>
       <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
+      <c r="W17" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="23"/>
-      <c r="AE17" s="23"/>
+      <c r="AE17" s="37" t="s">
+        <v>207</v>
+      </c>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23"/>
       <c r="AH17" s="23"/>
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="22">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
+        <f>VLOOKUP(B18,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>file test e TCK ISPRO BANK</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -8206,7 +8288,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
-      <c r="L18" s="35"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -8214,10 +8296,10 @@
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
       <c r="X18" s="23"/>
       <c r="Y18" s="23"/>
       <c r="Z18" s="23"/>
@@ -8228,17 +8310,15 @@
       <c r="AE18" s="23"/>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
-      <c r="AH18" s="35" t="s">
-        <v>207</v>
-      </c>
+      <c r="AH18" s="23"/>
     </row>
     <row r="19" spans="2:34">
       <c r="B19" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>Retail: test di performance (2 mio di dati)</v>
+        <f>VLOOKUP(B19,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -8249,7 +8329,7 @@
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
+      <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -8270,15 +8350,17 @@
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
-      <c r="AH19" s="23"/>
+      <c r="AH19" s="35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="20" spans="2:34">
       <c r="B20" s="22">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>Retail: nodo Riempimento in VM</v>
+        <f>VLOOKUP(B20,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -8288,11 +8370,11 @@
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="23"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
@@ -8314,11 +8396,11 @@
     </row>
     <row r="21" spans="2:34">
       <c r="B21" s="22">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>Retail: sviluppo indicatori</v>
+        <f>VLOOKUP(B21,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>Retail: nodo Riempimento in VM</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -8331,23 +8413,13 @@
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="R21" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="S21" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="T21" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="U21" s="35" t="s">
-        <v>198</v>
-      </c>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
@@ -8360,17 +8432,15 @@
       <c r="AE21" s="23"/>
       <c r="AF21" s="23"/>
       <c r="AG21" s="23"/>
-      <c r="AH21" s="35" t="s">
-        <v>207</v>
-      </c>
+      <c r="AH21" s="23"/>
     </row>
     <row r="22" spans="2:34">
       <c r="B22" s="22">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>Retail: configurazione start-up app (excel)</v>
+        <f>VLOOKUP(B22,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -8385,12 +8455,22 @@
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
       <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
+      <c r="Q22" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="R22" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="S22" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="T22" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="V22" s="23"/>
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
@@ -8408,11 +8488,11 @@
     </row>
     <row r="23" spans="2:34">
       <c r="B23" s="22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>VLOOKUP(B23,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+        <f>VLOOKUP(B23,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -8430,11 +8510,11 @@
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
+      <c r="T23" s="35"/>
       <c r="U23" s="35"/>
       <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
@@ -8450,11 +8530,11 @@
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="22">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>VLOOKUP(B24,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>ISBA - motore</v>
+        <f>VLOOKUP(B24,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -8473,32 +8553,30 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="W24" s="23"/>
-      <c r="X24" s="39"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="39"/>
-      <c r="AA24" s="39"/>
-      <c r="AB24" s="39"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="39"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="23"/>
+      <c r="AA24" s="23"/>
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="23"/>
+      <c r="AD24" s="23"/>
       <c r="AE24" s="23"/>
       <c r="AF24" s="23"/>
       <c r="AG24" s="23"/>
-      <c r="AH24" s="39" t="s">
+      <c r="AH24" s="35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="2:34">
       <c r="B25" s="22">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>VLOOKUP(B25,Sheet1!$B$47:$C$305,2,FALSE)</f>
-        <v>ISBA - file test e TCK</v>
+        <f>VLOOKUP(B25,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>ISBA - motore</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -8518,53 +8596,99 @@
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
       <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
+      <c r="V25" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
+      <c r="X25" s="39"/>
       <c r="Y25" s="39"/>
       <c r="Z25" s="39"/>
-      <c r="AA25" s="39"/>
+      <c r="AA25" s="39" t="s">
+        <v>254</v>
+      </c>
       <c r="AB25" s="39"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="39"/>
       <c r="AE25" s="23"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
-      <c r="AH25" s="23"/>
-    </row>
-    <row r="27" spans="2:34">
-      <c r="B27" s="35"/>
-      <c r="C27" s="16" t="s">
+      <c r="AH25" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34">
+      <c r="B26" s="22">
+        <v>118</v>
+      </c>
+      <c r="C26" s="23" t="str">
+        <f>VLOOKUP(B26,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <v>ISBA - file test e TCK</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="39"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="39"/>
+      <c r="AC26" s="23"/>
+      <c r="AD26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+    </row>
+    <row r="28" spans="2:34">
+      <c r="B28" s="35"/>
+      <c r="C28" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="24"/>
-      <c r="C28" s="16" t="s">
+    <row r="29" spans="2:34">
+      <c r="B29" s="24"/>
+      <c r="C29" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="2:34">
-      <c r="B29" s="25"/>
-      <c r="C29" s="16" t="s">
+    <row r="30" spans="2:34">
+      <c r="B30" s="25"/>
+      <c r="C30" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="2:34">
-      <c r="B30" s="27"/>
-      <c r="C30" s="16" t="s">
+    <row r="31" spans="2:34">
+      <c r="B31" s="27"/>
+      <c r="C31" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="2:34">
-      <c r="B31" s="36"/>
-      <c r="C31" s="16" t="s">
+    <row r="32" spans="2:34">
+      <c r="B32" s="36"/>
+      <c r="C32" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="2:34">
-      <c r="B32" s="30"/>
-      <c r="C32" s="16" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="30"/>
+      <c r="C33" s="16" t="s">
         <v>151</v>
       </c>
     </row>
@@ -8578,12 +8702,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BB2" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8"/>
@@ -8594,7 +8718,10 @@
     <col min="4" max="5" width="6.09765625" style="16" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.796875" style="16" customWidth="1"/>
     <col min="7" max="7" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="25" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.796875" style="16" customWidth="1"/>
+    <col min="11" max="25" width="5.796875" style="16" bestFit="1" customWidth="1"/>
     <col min="26" max="48" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="49" max="68" width="5.796875" style="16" bestFit="1" customWidth="1"/>
     <col min="69" max="91" width="6.5" style="16" bestFit="1" customWidth="1"/>
@@ -8622,7 +8749,7 @@
       </c>
       <c r="F1" s="26" t="str">
         <f ca="1">IF(TODAY()=F2,"]","")</f>
-        <v>]</v>
+        <v/>
       </c>
       <c r="G1" s="26" t="str">
         <f t="shared" ref="G1:BR1" ca="1" si="1">IF(TODAY()=G2,"]","")</f>
@@ -8630,7 +8757,7 @@
       </c>
       <c r="H1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="I1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9578,7 +9705,9 @@
         <v>231</v>
       </c>
       <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="I3" s="48" t="s">
+        <v>231</v>
+      </c>
       <c r="J3" s="47"/>
       <c r="K3" s="47"/>
       <c r="L3" s="47"/>
@@ -9706,7 +9835,7 @@
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="51"/>
       <c r="I4" s="51"/>
       <c r="J4" s="51"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="265">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1021,6 +1021,33 @@
   </si>
   <si>
     <t>dati/output</t>
+  </si>
+  <si>
+    <t>fine sviluppi</t>
+  </si>
+  <si>
+    <t>fine test</t>
+  </si>
+  <si>
+    <t>apertura UDC</t>
+  </si>
+  <si>
+    <t>campi ETL in test</t>
+  </si>
+  <si>
+    <t>campi ETL in dev</t>
+  </si>
+  <si>
+    <t>chiusura UDC o UDE</t>
+  </si>
+  <si>
+    <t>go-live</t>
+  </si>
+  <si>
+    <t>intervento correttivo XRA</t>
+  </si>
+  <si>
+    <t>FM/MD/MC</t>
   </si>
 </sst>
 </file>
@@ -1381,7 +1408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1471,11 +1498,72 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="139">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3122,10 +3210,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -5512,7 +5600,7 @@
         <v>132</v>
       </c>
       <c r="E83" s="13">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F83" s="13"/>
       <c r="G83" s="13"/>
@@ -5538,7 +5626,7 @@
         <v>132</v>
       </c>
       <c r="E84" s="13">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -5962,7 +6050,7 @@
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B121" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B122" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -6190,7 +6278,7 @@
         <v>25</v>
       </c>
       <c r="E110" s="13">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F110" s="13"/>
       <c r="G110" s="13"/>
@@ -6469,39 +6557,61 @@
       </c>
     </row>
     <row r="122" spans="2:10">
-      <c r="D122"/>
-      <c r="E122"/>
-      <c r="F122"/>
-      <c r="G122"/>
-      <c r="H122"/>
+      <c r="B122" s="7">
+        <f t="shared" si="4"/>
+        <v>121</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="5">
+        <v>1</v>
+      </c>
+      <c r="I122" s="5">
+        <v>2</v>
+      </c>
+      <c r="J122" s="1"/>
     </row>
     <row r="123" spans="2:10">
-      <c r="C123" s="31" t="s">
-        <v>165</v>
-      </c>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+      <c r="G123"/>
+      <c r="H123"/>
     </row>
     <row r="124" spans="2:10">
       <c r="C124" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="125" spans="2:10">
       <c r="C125" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="2:10">
       <c r="C126" s="31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10">
+      <c r="C127" s="31" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="127" spans="2:10">
-      <c r="C127" s="38" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="128" spans="2:10">
       <c r="C128" s="38" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="38" t="s">
         <v>202</v>
       </c>
     </row>
@@ -6512,667 +6622,682 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68">
+    <cfRule type="cellIs" dxfId="138" priority="151" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="137" priority="150" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="136" priority="149" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
+    <cfRule type="cellIs" dxfId="135" priority="148" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:G71">
+    <cfRule type="cellIs" dxfId="134" priority="147" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:G71">
+    <cfRule type="cellIs" dxfId="133" priority="146" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="132" priority="145" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="131" priority="144" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="130" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="129" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="128" priority="141" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="127" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="126" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="125" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="124" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="123" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="122" priority="135" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="121" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="120" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="119" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="118" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="117" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="116" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="115" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="114" priority="127" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="113" priority="126" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="112" priority="125" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="111" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="110" priority="123" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="cellIs" dxfId="109" priority="122" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
-    <cfRule type="cellIs" dxfId="108" priority="121" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="107" priority="120" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="106" priority="119" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="105" priority="118" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="104" priority="117" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="109" priority="119" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="108" priority="118" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="107" priority="117" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="106" priority="116" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
+    <cfRule type="cellIs" dxfId="105" priority="115" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" dxfId="104" priority="114" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="103" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F84:G84">
     <cfRule type="cellIs" dxfId="102" priority="112" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
+  <conditionalFormatting sqref="E84">
     <cfRule type="cellIs" dxfId="101" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="100" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="99" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="98" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="97" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="96" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="95" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="94" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="93" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="92" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="91" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="90" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="89" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="88" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="87" priority="97" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="86" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="85" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="84" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="83" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="82" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="81" priority="91" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="80" priority="90" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="79" priority="89" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="78" priority="88" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="77" priority="87" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="76" priority="86" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="cellIs" dxfId="75" priority="85" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="cellIs" dxfId="74" priority="84" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="73" priority="83" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="72" priority="82" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F93:G93">
+    <cfRule type="cellIs" dxfId="76" priority="80" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E93:G93">
+    <cfRule type="cellIs" dxfId="75" priority="79" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="74" priority="78" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="73" priority="77" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95:G95">
+    <cfRule type="cellIs" dxfId="72" priority="76" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95:G95">
+    <cfRule type="cellIs" dxfId="71" priority="75" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="70" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:G93">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="69" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="68" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="67" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:G95">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="66" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="65" priority="69" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="64" priority="68" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="63" priority="67" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="62" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="60" priority="64" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="56" priority="60" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E99:E101">
+    <cfRule type="cellIs" dxfId="60" priority="59" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="57" priority="56" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F102:G102">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="54" priority="53" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="53" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="52" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E104">
     <cfRule type="cellIs" dxfId="51" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="50" priority="52" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="49" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
-    <cfRule type="cellIs" dxfId="48" priority="47" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G97">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="36" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="E106">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="E107">
     <cfRule type="cellIs" dxfId="32" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="31" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="30" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="E108">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="28" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="27" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="26" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F110:G110">
     <cfRule type="cellIs" dxfId="25" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F110:G110">
     <cfRule type="cellIs" dxfId="24" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="E110">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="22" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="21" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
+  <conditionalFormatting sqref="E111">
     <cfRule type="cellIs" dxfId="20" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="19" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="18" priority="19" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
+  <conditionalFormatting sqref="E112">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
+  <conditionalFormatting sqref="F117:G120">
     <cfRule type="cellIs" dxfId="16" priority="17" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
+  <conditionalFormatting sqref="F117:G120">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
+  <conditionalFormatting sqref="E117:E120">
     <cfRule type="cellIs" dxfId="14" priority="15" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
+  <conditionalFormatting sqref="F113:G116">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
+  <conditionalFormatting sqref="F113:G116">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E113:E116">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117:G120">
+  <conditionalFormatting sqref="G89">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F117:G120">
+  <conditionalFormatting sqref="G89">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E117:E120">
+  <conditionalFormatting sqref="F121:G121">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:G116">
+  <conditionalFormatting sqref="F121:G121">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F113:G116">
+  <conditionalFormatting sqref="E121">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E116">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F121:G121">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F121:G121">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E121">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="F122:G122">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F122:G122">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7358,19 +7483,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH33"/>
+  <dimension ref="B1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="U12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
+      <selection pane="bottomRight" activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="1.09765625" style="16" customWidth="1"/>
-    <col min="2" max="2" width="3.59765625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.09765625" style="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.796875" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="5.19921875" style="16" bestFit="1" customWidth="1"/>
@@ -7422,11 +7547,11 @@
       </c>
       <c r="M1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="N1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="O1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7645,7 +7770,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B3,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -7685,7 +7810,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B4,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -7729,7 +7854,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B5,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -7769,7 +7894,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B6,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -7811,7 +7936,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B7,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -7853,7 +7978,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B8,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -7895,7 +8020,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B9,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -7937,7 +8062,7 @@
         <v>120</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B10,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v>override NOPG colore blu chiaro</v>
       </c>
       <c r="D10" s="23"/>
@@ -7979,7 +8104,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Sheet1!$B$47:$C$306,2,FALSE)</f>
+        <f>VLOOKUP(B11,Sheet1!$B$47:$C$307,2,FALSE)</f>
         <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D11" s="23"/>
@@ -7994,9 +8119,11 @@
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="S11" s="23"/>
       <c r="T11" s="23"/>
       <c r="U11" s="23"/>
@@ -8016,27 +8143,29 @@
     </row>
     <row r="12" spans="2:34">
       <c r="B12" s="22">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>testare AQR per Banca BIB</v>
+        <f>VLOOKUP(B12,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>intervento correttivo XRA</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="S12" s="23"/>
       <c r="T12" s="23"/>
       <c r="U12" s="23"/>
@@ -8056,34 +8185,30 @@
     </row>
     <row r="13" spans="2:34">
       <c r="B13" s="22">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>motore ALEX BANK</v>
+        <f>VLOOKUP(B13,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
-      <c r="U13" s="29" t="s">
-        <v>207</v>
-      </c>
+      <c r="U13" s="23"/>
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
       <c r="X13" s="23"/>
@@ -8100,11 +8225,11 @@
     </row>
     <row r="14" spans="2:34">
       <c r="B14" s="22">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>file test e TCK ALEX BANK</v>
+        <f>VLOOKUP(B14,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>motore ALEX BANK</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -8112,18 +8237,22 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
+      <c r="O14" s="29" t="s">
+        <v>255</v>
+      </c>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
       <c r="R14" s="23"/>
       <c r="S14" s="23"/>
       <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
+      <c r="U14" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
       <c r="X14" s="23"/>
@@ -8140,43 +8269,35 @@
     </row>
     <row r="15" spans="2:34">
       <c r="B15" s="22">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>motore CIB BANK</v>
+        <f>VLOOKUP(B15,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
-      <c r="H15" s="28"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
-      <c r="M15" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
       <c r="X15" s="23"/>
       <c r="Y15" s="23"/>
-      <c r="Z15" s="28" t="s">
-        <v>207</v>
-      </c>
+      <c r="Z15" s="23"/>
       <c r="AA15" s="23"/>
       <c r="AB15" s="23"/>
       <c r="AC15" s="23"/>
@@ -8188,35 +8309,43 @@
     </row>
     <row r="16" spans="2:34">
       <c r="B16" s="22">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>file test e TCK CIB BANK</v>
+        <f>VLOOKUP(B16,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>motore CIB BANK</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
+      <c r="M16" s="28" t="s">
+        <v>199</v>
+      </c>
       <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+      <c r="O16" s="28"/>
       <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
+      <c r="Q16" s="28" t="s">
+        <v>209</v>
+      </c>
       <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
+      <c r="S16" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
       <c r="X16" s="23"/>
       <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
+      <c r="Z16" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="AA16" s="23"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="23"/>
@@ -8228,11 +8357,11 @@
     </row>
     <row r="17" spans="2:34">
       <c r="B17" s="22">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>motore ISPRO BANK</v>
+        <f>VLOOKUP(B17,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -8246,39 +8375,33 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="R17" s="23"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
+      <c r="X17" s="23"/>
+      <c r="Y17" s="23"/>
       <c r="Z17" s="23"/>
       <c r="AA17" s="23"/>
       <c r="AB17" s="23"/>
       <c r="AC17" s="23"/>
       <c r="AD17" s="23"/>
-      <c r="AE17" s="37" t="s">
-        <v>207</v>
-      </c>
+      <c r="AE17" s="23"/>
       <c r="AF17" s="23"/>
       <c r="AG17" s="23"/>
       <c r="AH17" s="23"/>
     </row>
     <row r="18" spans="2:34">
       <c r="B18" s="22">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>file test e TCK ISPRO BANK</v>
+        <f>VLOOKUP(B18,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>motore ISPRO BANK</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -8293,32 +8416,38 @@
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
       <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
+      <c r="Q18" s="37" t="s">
+        <v>199</v>
+      </c>
       <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
+      <c r="S18" s="37"/>
       <c r="T18" s="37"/>
       <c r="U18" s="37"/>
       <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
+      <c r="W18" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
       <c r="Z18" s="23"/>
       <c r="AA18" s="23"/>
       <c r="AB18" s="23"/>
       <c r="AC18" s="23"/>
       <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
+      <c r="AE18" s="37" t="s">
+        <v>207</v>
+      </c>
       <c r="AF18" s="23"/>
       <c r="AG18" s="23"/>
       <c r="AH18" s="23"/>
     </row>
     <row r="19" spans="2:34">
       <c r="B19" s="22">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
+        <f>VLOOKUP(B19,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>file test e TCK ISPRO BANK</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -8328,7 +8457,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
-      <c r="L19" s="35"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -8336,10 +8465,10 @@
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
       <c r="Z19" s="23"/>
@@ -8350,17 +8479,15 @@
       <c r="AE19" s="23"/>
       <c r="AF19" s="23"/>
       <c r="AG19" s="23"/>
-      <c r="AH19" s="35" t="s">
-        <v>207</v>
-      </c>
+      <c r="AH19" s="23"/>
     </row>
     <row r="20" spans="2:34">
       <c r="B20" s="22">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>Retail: test di performance (2 mio di dati)</v>
+        <f>VLOOKUP(B20,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -8371,7 +8498,7 @@
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
+      <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
       <c r="P20" s="23"/>
@@ -8392,15 +8519,17 @@
       <c r="AE20" s="23"/>
       <c r="AF20" s="23"/>
       <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
+      <c r="AH20" s="35" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="21" spans="2:34">
       <c r="B21" s="22">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>Retail: nodo Riempimento in VM</v>
+        <f>VLOOKUP(B21,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -8410,11 +8539,11 @@
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
       <c r="N21" s="23"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="23"/>
@@ -8436,11 +8565,11 @@
     </row>
     <row r="22" spans="2:34">
       <c r="B22" s="22">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>Retail: sviluppo indicatori</v>
+        <f>VLOOKUP(B22,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>Retail: nodo Riempimento in VM</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -8453,23 +8582,13 @@
       <c r="L22" s="23"/>
       <c r="M22" s="23"/>
       <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="R22" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="S22" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="T22" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="U22" s="35" t="s">
-        <v>198</v>
-      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
@@ -8482,17 +8601,15 @@
       <c r="AE22" s="23"/>
       <c r="AF22" s="23"/>
       <c r="AG22" s="23"/>
-      <c r="AH22" s="35" t="s">
-        <v>207</v>
-      </c>
+      <c r="AH22" s="23"/>
     </row>
     <row r="23" spans="2:34">
       <c r="B23" s="22">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>VLOOKUP(B23,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>Retail: configurazione start-up app (excel)</v>
+        <f>VLOOKUP(B23,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -8506,13 +8623,25 @@
       <c r="M23" s="23"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
+      <c r="P23" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="R23" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="T23" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="V23" s="23"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
@@ -8530,11 +8659,11 @@
     </row>
     <row r="24" spans="2:34">
       <c r="B24" s="22">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>VLOOKUP(B24,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
+        <f>VLOOKUP(B24,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -8552,11 +8681,11 @@
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="T24" s="35"/>
       <c r="U24" s="35"/>
       <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
       <c r="Z24" s="23"/>
       <c r="AA24" s="23"/>
@@ -8572,11 +8701,11 @@
     </row>
     <row r="25" spans="2:34">
       <c r="B25" s="22">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>VLOOKUP(B25,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>ISBA - motore</v>
+        <f>VLOOKUP(B25,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -8595,34 +8724,30 @@
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="39" t="s">
-        <v>199</v>
-      </c>
-      <c r="W25" s="23"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="39" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="39"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="23"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="23"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="23"/>
+      <c r="AD25" s="23"/>
       <c r="AE25" s="23"/>
       <c r="AF25" s="23"/>
       <c r="AG25" s="23"/>
-      <c r="AH25" s="39" t="s">
+      <c r="AH25" s="35" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="26" spans="2:34">
       <c r="B26" s="22">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>VLOOKUP(B26,Sheet1!$B$47:$C$306,2,FALSE)</f>
-        <v>ISBA - file test e TCK</v>
+        <f>VLOOKUP(B26,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>ISBA - motore</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -8642,54 +8767,164 @@
       <c r="S26" s="23"/>
       <c r="T26" s="23"/>
       <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
+      <c r="V26" s="39" t="s">
+        <v>199</v>
+      </c>
       <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
+      <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
       <c r="Z26" s="39"/>
-      <c r="AA26" s="39"/>
+      <c r="AA26" s="39" t="s">
+        <v>254</v>
+      </c>
       <c r="AB26" s="39"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
+      <c r="AC26" s="39"/>
+      <c r="AD26" s="39"/>
       <c r="AE26" s="23"/>
       <c r="AF26" s="23"/>
       <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-    </row>
-    <row r="28" spans="2:34">
-      <c r="B28" s="35"/>
-      <c r="C28" s="16" t="s">
+      <c r="AH26" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34">
+      <c r="B27" s="22">
+        <v>118</v>
+      </c>
+      <c r="C27" s="23" t="str">
+        <f>VLOOKUP(B27,Sheet1!$B$47:$C$307,2,FALSE)</f>
+        <v>ISBA - file test e TCK</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+      <c r="Y27" s="39"/>
+      <c r="Z27" s="39"/>
+      <c r="AA27" s="39"/>
+      <c r="AB27" s="39"/>
+      <c r="AC27" s="23"/>
+      <c r="AD27" s="23"/>
+      <c r="AE27" s="23"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="23"/>
+      <c r="AH27" s="23"/>
+    </row>
+    <row r="29" spans="2:34">
+      <c r="B29" s="35"/>
+      <c r="C29" s="16" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:34">
-      <c r="B29" s="24"/>
-      <c r="C29" s="16" t="s">
+    <row r="30" spans="2:34">
+      <c r="B30" s="24"/>
+      <c r="C30" s="16" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="2:34">
-      <c r="B30" s="25"/>
-      <c r="C30" s="16" t="s">
+    <row r="31" spans="2:34">
+      <c r="B31" s="25"/>
+      <c r="C31" s="16" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="2:34">
-      <c r="B31" s="27"/>
-      <c r="C31" s="16" t="s">
+    <row r="32" spans="2:34">
+      <c r="B32" s="27"/>
+      <c r="C32" s="16" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="2:34">
-      <c r="B32" s="36"/>
-      <c r="C32" s="16" t="s">
+    <row r="33" spans="2:3">
+      <c r="B33" s="36"/>
+      <c r="C33" s="16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="30"/>
-      <c r="C33" s="16" t="s">
+    <row r="34" spans="2:3">
+      <c r="B34" s="30"/>
+      <c r="C34" s="16" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
+      <c r="B38" s="61">
+        <v>42782</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
+      <c r="B39" s="61">
+        <v>42786</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="61">
+        <v>42790</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="61">
+        <v>42786</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" s="61">
+        <v>42796</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3">
+      <c r="B43" s="61">
+        <v>42797</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3">
+      <c r="B44" s="61">
+        <v>42802</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" s="61">
+        <v>42803</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -8707,7 +8942,7 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8"/>
@@ -8718,10 +8953,10 @@
     <col min="4" max="5" width="6.09765625" style="16" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="5.796875" style="16" customWidth="1"/>
     <col min="7" max="7" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.796875" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.796875" style="16" customWidth="1"/>
-    <col min="11" max="25" width="5.796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.3984375" style="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="25" width="5.796875" style="16" bestFit="1" customWidth="1"/>
     <col min="26" max="48" width="6.19921875" style="16" bestFit="1" customWidth="1"/>
     <col min="49" max="68" width="5.796875" style="16" bestFit="1" customWidth="1"/>
     <col min="69" max="91" width="6.5" style="16" bestFit="1" customWidth="1"/>
@@ -8757,7 +8992,7 @@
       </c>
       <c r="H1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="I1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -8765,7 +9000,7 @@
       </c>
       <c r="J1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="K1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -9705,11 +9940,11 @@
         <v>231</v>
       </c>
       <c r="H3" s="47"/>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
       <c r="L3" s="47"/>
       <c r="M3" s="47"/>
       <c r="N3" s="49"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Plan team" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Elenco_attività!$B$1:$J$128</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="411">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>Marco Calabretta</t>
   </si>
   <si>
-    <t>Alex Cancedda</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -1482,6 +1479,15 @@
   </si>
   <si>
     <t>dati 13/03</t>
+  </si>
+  <si>
+    <t>VM - mettere dei nomi parlanti per ogni nodo</t>
+  </si>
+  <si>
+    <t>portare in VM tutte le formule matematiche per le Banche Estere</t>
+  </si>
+  <si>
+    <t>Alberto Collu</t>
   </si>
 </sst>
 </file>
@@ -1906,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2048,11 +2054,59 @@
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="134">
+  <dxfs count="137">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3709,10 +3763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AE126"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -4505,7 +4559,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>35</v>
@@ -6549,11 +6603,11 @@
     </row>
     <row r="101" spans="2:10">
       <c r="B101" s="7">
-        <f t="shared" ref="B101:B119" si="4">+B100+1</f>
+        <f t="shared" ref="B101:B121" si="4">+B100+1</f>
         <v>100</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>165</v>
@@ -7000,7 +7054,9 @@
       <c r="D119" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E119" s="13"/>
+      <c r="E119" s="13">
+        <v>0.5</v>
+      </c>
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
       <c r="H119" s="5">
@@ -7012,714 +7068,773 @@
       <c r="J119" s="1"/>
     </row>
     <row r="120" spans="2:10">
-      <c r="D120"/>
-      <c r="E120"/>
-      <c r="F120"/>
-      <c r="G120"/>
-      <c r="H120"/>
+      <c r="B120" s="7">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="5">
+        <v>3</v>
+      </c>
+      <c r="I120" s="5">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1"/>
     </row>
     <row r="121" spans="2:10">
-      <c r="C121" s="31" t="s">
-        <v>161</v>
-      </c>
+      <c r="B121" s="7">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="5">
+        <v>3</v>
+      </c>
+      <c r="I121" s="5">
+        <v>2</v>
+      </c>
+      <c r="J121" s="1"/>
     </row>
     <row r="122" spans="2:10">
-      <c r="C122" s="31" t="s">
-        <v>162</v>
-      </c>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
     </row>
     <row r="123" spans="2:10">
       <c r="C123" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="2:10">
       <c r="C124" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10">
+      <c r="C125" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10">
+      <c r="C126" s="31" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="2:10">
-      <c r="C125" s="38" t="s">
+    <row r="127" spans="2:10">
+      <c r="C127" s="38" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="2:10">
-      <c r="C126" s="38" t="s">
+    <row r="128" spans="2:10">
+      <c r="C128" s="38" t="s">
         <v>197</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J126">
+  <autoFilter ref="B1:J128">
     <filterColumn colId="5">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="E1:G16 F2:G70 E18:G68 E113:G113">
+    <cfRule type="cellIs" dxfId="136" priority="156" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:G17 G18:G44">
+    <cfRule type="cellIs" dxfId="135" priority="155" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E69:G69">
+    <cfRule type="cellIs" dxfId="134" priority="154" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E70:G70">
     <cfRule type="cellIs" dxfId="133" priority="153" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17:G17 G18:G44">
+  <conditionalFormatting sqref="F71:G71">
     <cfRule type="cellIs" dxfId="132" priority="152" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69:G69">
+  <conditionalFormatting sqref="E71:G71">
     <cfRule type="cellIs" dxfId="131" priority="151" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E70:G70">
+  <conditionalFormatting sqref="F72:G72">
     <cfRule type="cellIs" dxfId="130" priority="150" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:G71">
+  <conditionalFormatting sqref="E72:G72">
     <cfRule type="cellIs" dxfId="129" priority="149" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71:G71">
+  <conditionalFormatting sqref="F73:G73">
     <cfRule type="cellIs" dxfId="128" priority="148" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72:G72">
+  <conditionalFormatting sqref="E73:G73">
     <cfRule type="cellIs" dxfId="127" priority="147" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72:G72">
+  <conditionalFormatting sqref="F74:G74">
     <cfRule type="cellIs" dxfId="126" priority="146" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F73:G73">
+  <conditionalFormatting sqref="E74:G74">
     <cfRule type="cellIs" dxfId="125" priority="145" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E73:G73">
+  <conditionalFormatting sqref="F75:G75">
     <cfRule type="cellIs" dxfId="124" priority="144" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F74:G74">
+  <conditionalFormatting sqref="E75:G75">
     <cfRule type="cellIs" dxfId="123" priority="143" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E74:G74">
+  <conditionalFormatting sqref="F76:G76">
     <cfRule type="cellIs" dxfId="122" priority="142" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75:G75">
+  <conditionalFormatting sqref="E76:G76">
     <cfRule type="cellIs" dxfId="121" priority="141" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75:G75">
+  <conditionalFormatting sqref="E69">
     <cfRule type="cellIs" dxfId="120" priority="140" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76:G76">
+  <conditionalFormatting sqref="F77:G77">
     <cfRule type="cellIs" dxfId="119" priority="139" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76:G76">
+  <conditionalFormatting sqref="E77:G77">
     <cfRule type="cellIs" dxfId="118" priority="138" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="F78:G78">
     <cfRule type="cellIs" dxfId="117" priority="137" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77:G77">
+  <conditionalFormatting sqref="E78:G78">
     <cfRule type="cellIs" dxfId="116" priority="136" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:G77">
+  <conditionalFormatting sqref="G46">
     <cfRule type="cellIs" dxfId="115" priority="135" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78:G78">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="114" priority="134" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78:G78">
+  <conditionalFormatting sqref="G50">
     <cfRule type="cellIs" dxfId="113" priority="133" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
+  <conditionalFormatting sqref="G51:G52">
     <cfRule type="cellIs" dxfId="112" priority="132" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" dxfId="111" priority="131" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
+  <conditionalFormatting sqref="F79:G80">
     <cfRule type="cellIs" dxfId="110" priority="130" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G51:G52">
+  <conditionalFormatting sqref="E79:G79 F80:G80">
     <cfRule type="cellIs" dxfId="109" priority="129" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="E80">
     <cfRule type="cellIs" dxfId="108" priority="128" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79:G80">
-    <cfRule type="cellIs" dxfId="107" priority="127" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79:G79 F80:G80">
-    <cfRule type="cellIs" dxfId="106" priority="126" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="105" priority="125" operator="lessThan">
+  <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="107" priority="124" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81:G82">
+    <cfRule type="cellIs" dxfId="106" priority="123" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81:E82">
+    <cfRule type="cellIs" dxfId="105" priority="122" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="104" priority="121" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81:G82">
+  <conditionalFormatting sqref="F83:G83">
     <cfRule type="cellIs" dxfId="103" priority="120" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81:E82">
-    <cfRule type="cellIs" dxfId="102" priority="119" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="101" priority="118" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83:G83">
-    <cfRule type="cellIs" dxfId="100" priority="117" operator="lessThan">
+  <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="102" priority="118" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84">
+    <cfRule type="cellIs" dxfId="101" priority="117" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="cellIs" dxfId="100" priority="116" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="99" priority="115" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84:G84">
+  <conditionalFormatting sqref="F86:G86">
     <cfRule type="cellIs" dxfId="98" priority="114" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E86">
     <cfRule type="cellIs" dxfId="97" priority="113" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="96" priority="112" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86:G86">
+  <conditionalFormatting sqref="F87:G87">
     <cfRule type="cellIs" dxfId="95" priority="111" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
+  <conditionalFormatting sqref="E87">
     <cfRule type="cellIs" dxfId="94" priority="110" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="93" priority="109" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:G87">
+  <conditionalFormatting sqref="F85:G85">
     <cfRule type="cellIs" dxfId="92" priority="108" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
+  <conditionalFormatting sqref="E85">
     <cfRule type="cellIs" dxfId="91" priority="107" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="90" priority="106" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85:G85">
+  <conditionalFormatting sqref="F88:G88">
     <cfRule type="cellIs" dxfId="89" priority="105" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E88">
     <cfRule type="cellIs" dxfId="88" priority="104" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="87" priority="103" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88:G88">
+  <conditionalFormatting sqref="F90:G90">
     <cfRule type="cellIs" dxfId="86" priority="102" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E90">
     <cfRule type="cellIs" dxfId="85" priority="101" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="84" priority="100" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F90:G90">
+  <conditionalFormatting sqref="F91:G91">
     <cfRule type="cellIs" dxfId="83" priority="99" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
+  <conditionalFormatting sqref="E91">
     <cfRule type="cellIs" dxfId="82" priority="98" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="81" priority="97" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F91:G91">
+  <conditionalFormatting sqref="F89">
     <cfRule type="cellIs" dxfId="80" priority="96" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
+  <conditionalFormatting sqref="E89">
     <cfRule type="cellIs" dxfId="79" priority="95" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="78" priority="94" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
+  <conditionalFormatting sqref="F92:G92">
     <cfRule type="cellIs" dxfId="77" priority="93" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
+  <conditionalFormatting sqref="E92">
     <cfRule type="cellIs" dxfId="76" priority="92" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="75" priority="91" operator="lessThan">
+  <conditionalFormatting sqref="F93:G93">
+    <cfRule type="cellIs" dxfId="75" priority="85" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F92:G92">
-    <cfRule type="cellIs" dxfId="74" priority="90" operator="lessThan">
+  <conditionalFormatting sqref="E93:G93">
+    <cfRule type="cellIs" dxfId="74" priority="84" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="cellIs" dxfId="73" priority="89" operator="lessThan">
+  <conditionalFormatting sqref="F94:G94">
+    <cfRule type="cellIs" dxfId="73" priority="83" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F93:G93">
+  <conditionalFormatting sqref="F94:G94">
     <cfRule type="cellIs" dxfId="72" priority="82" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E93:G93">
+  <conditionalFormatting sqref="F95:G95">
     <cfRule type="cellIs" dxfId="71" priority="81" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="E95:G95">
     <cfRule type="cellIs" dxfId="70" priority="80" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94:G94">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="69" priority="79" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F95:G95">
+  <conditionalFormatting sqref="F96:G96">
     <cfRule type="cellIs" dxfId="68" priority="78" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95:G95">
+  <conditionalFormatting sqref="E94">
     <cfRule type="cellIs" dxfId="67" priority="77" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="E96">
     <cfRule type="cellIs" dxfId="66" priority="76" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96:G96">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="65" priority="75" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
+  <conditionalFormatting sqref="F97">
     <cfRule type="cellIs" dxfId="64" priority="74" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E97">
     <cfRule type="cellIs" dxfId="63" priority="73" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="62" priority="72" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F97">
+  <conditionalFormatting sqref="F98">
     <cfRule type="cellIs" dxfId="61" priority="71" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E98">
     <cfRule type="cellIs" dxfId="60" priority="70" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="59" priority="69" operator="lessThan">
+  <conditionalFormatting sqref="E99:E100">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
-    <cfRule type="cellIs" dxfId="58" priority="68" operator="lessThan">
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="58" priority="66" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="57" priority="67" operator="lessThan">
+  <conditionalFormatting sqref="F101:G101 F99:F100">
+    <cfRule type="cellIs" dxfId="57" priority="65" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99:E100">
+  <conditionalFormatting sqref="E102">
     <cfRule type="cellIs" dxfId="56" priority="61" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F102:G102">
     <cfRule type="cellIs" dxfId="55" priority="63" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F101:G101 F99:F100">
+  <conditionalFormatting sqref="F102:G102">
     <cfRule type="cellIs" dxfId="54" priority="62" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E102">
+  <conditionalFormatting sqref="E103">
     <cfRule type="cellIs" dxfId="53" priority="58" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="52" priority="60" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F102:G102">
+  <conditionalFormatting sqref="F103:G103">
     <cfRule type="cellIs" dxfId="51" priority="59" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103">
+  <conditionalFormatting sqref="E104">
     <cfRule type="cellIs" dxfId="50" priority="55" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="49" priority="57" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F103:G103">
+  <conditionalFormatting sqref="F104:G104">
     <cfRule type="cellIs" dxfId="48" priority="56" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E104">
-    <cfRule type="cellIs" dxfId="47" priority="52" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="46" priority="54" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F104:G104">
-    <cfRule type="cellIs" dxfId="45" priority="53" operator="lessThan">
+  <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="47" priority="54" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G99">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
+    <cfRule type="cellIs" dxfId="45" priority="52" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G98">
     <cfRule type="cellIs" dxfId="44" priority="51" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G99">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="43" priority="50" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="G97">
     <cfRule type="cellIs" dxfId="42" priority="49" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G98">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="41" priority="48" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="F105:G105">
     <cfRule type="cellIs" dxfId="40" priority="47" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G97">
+  <conditionalFormatting sqref="E105">
     <cfRule type="cellIs" dxfId="39" priority="46" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="38" priority="45" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F105:G105">
+  <conditionalFormatting sqref="G100">
     <cfRule type="cellIs" dxfId="37" priority="44" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="36" priority="43" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="F106:G106">
     <cfRule type="cellIs" dxfId="35" priority="42" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G100">
+  <conditionalFormatting sqref="E106">
     <cfRule type="cellIs" dxfId="34" priority="41" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="33" priority="40" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F106:G106">
+  <conditionalFormatting sqref="F107:G107">
     <cfRule type="cellIs" dxfId="32" priority="39" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
+  <conditionalFormatting sqref="E107">
     <cfRule type="cellIs" dxfId="31" priority="38" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="30" priority="37" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F107:G107">
+  <conditionalFormatting sqref="F108:G108">
     <cfRule type="cellIs" dxfId="29" priority="36" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
+  <conditionalFormatting sqref="E108">
     <cfRule type="cellIs" dxfId="28" priority="35" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="27" priority="34" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F108:G108">
+  <conditionalFormatting sqref="F109:G109">
     <cfRule type="cellIs" dxfId="26" priority="33" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="E109">
     <cfRule type="cellIs" dxfId="25" priority="32" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
+  <conditionalFormatting sqref="F110:G110">
     <cfRule type="cellIs" dxfId="24" priority="31" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F109:G109">
+  <conditionalFormatting sqref="F110:G110">
     <cfRule type="cellIs" dxfId="23" priority="30" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E109">
+  <conditionalFormatting sqref="E110">
     <cfRule type="cellIs" dxfId="22" priority="29" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F110:G110">
+  <conditionalFormatting sqref="F111:G111">
     <cfRule type="cellIs" dxfId="20" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110">
+  <conditionalFormatting sqref="E111">
     <cfRule type="cellIs" dxfId="19" priority="26" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="18" priority="25" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F111:G111">
+  <conditionalFormatting sqref="F112:G112">
     <cfRule type="cellIs" dxfId="17" priority="24" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111">
+  <conditionalFormatting sqref="E112">
     <cfRule type="cellIs" dxfId="16" priority="23" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
+  <conditionalFormatting sqref="F114:G117">
     <cfRule type="cellIs" dxfId="15" priority="22" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F112:G112">
+  <conditionalFormatting sqref="F114:G117">
     <cfRule type="cellIs" dxfId="14" priority="21" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112">
+  <conditionalFormatting sqref="E114:E117">
     <cfRule type="cellIs" dxfId="13" priority="20" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="12" priority="19" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F114:G117">
-    <cfRule type="cellIs" dxfId="11" priority="18" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E114:E117">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="lessThan">
+  <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118:G118">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F118:G118">
     <cfRule type="cellIs" dxfId="9" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G89">
+  <conditionalFormatting sqref="E118">
     <cfRule type="cellIs" dxfId="8" priority="12" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F118:G118">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E118">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
+  <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F119:G119">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E119">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E101">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F119:G119">
+  <conditionalFormatting sqref="E83">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E119">
+  <conditionalFormatting sqref="F120:G121">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
+  <conditionalFormatting sqref="F120:G121">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
+  <conditionalFormatting sqref="E120:E121">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -7908,8 +8023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -7924,13 +8039,13 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="72" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="72" t="s">
         <v>352</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="D2" s="72" t="s">
         <v>353</v>
-      </c>
-      <c r="D2" s="72" t="s">
-        <v>354</v>
       </c>
       <c r="E2" s="72" t="s">
         <v>182</v>
@@ -7941,7 +8056,7 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>172</v>
@@ -7952,7 +8067,7 @@
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>172</v>
@@ -7963,7 +8078,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>172</v>
@@ -7974,7 +8089,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>172</v>
@@ -7985,7 +8100,7 @@
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>172</v>
@@ -7996,7 +8111,7 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>172</v>
@@ -8007,7 +8122,7 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>172</v>
@@ -8018,7 +8133,7 @@
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>172</v>
@@ -8029,7 +8144,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>172</v>
@@ -8040,7 +8155,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>172</v>
@@ -8051,7 +8166,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>172</v>
@@ -8062,7 +8177,7 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>172</v>
@@ -8073,7 +8188,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>172</v>
@@ -8084,7 +8199,7 @@
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>172</v>
@@ -8095,7 +8210,7 @@
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>172</v>
@@ -8106,7 +8221,7 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>172</v>
@@ -8117,7 +8232,7 @@
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>172</v>
@@ -8128,7 +8243,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>172</v>
@@ -8139,7 +8254,7 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>172</v>
@@ -8150,7 +8265,7 @@
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>172</v>
@@ -8161,7 +8276,7 @@
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>172</v>
@@ -8172,7 +8287,7 @@
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>172</v>
@@ -8183,7 +8298,7 @@
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>172</v>
@@ -8194,7 +8309,7 @@
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>172</v>
@@ -8205,7 +8320,7 @@
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>172</v>
@@ -8216,7 +8331,7 @@
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C28" s="33" t="s">
         <v>172</v>
@@ -8227,7 +8342,7 @@
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>172</v>
@@ -8238,7 +8353,7 @@
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C30" s="33" t="s">
         <v>172</v>
@@ -8249,7 +8364,7 @@
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C31" s="33" t="s">
         <v>172</v>
@@ -8260,7 +8375,7 @@
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>172</v>
@@ -8271,7 +8386,7 @@
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>172</v>
@@ -8282,7 +8397,7 @@
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C34" s="33" t="s">
         <v>172</v>
@@ -8293,7 +8408,7 @@
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>172</v>
@@ -8304,7 +8419,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C36" s="33" t="s">
         <v>172</v>
@@ -8315,7 +8430,7 @@
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>172</v>
@@ -8326,7 +8441,7 @@
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>172</v>
@@ -8337,7 +8452,7 @@
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C39" s="33" t="s">
         <v>172</v>
@@ -8348,7 +8463,7 @@
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C40" s="33" t="s">
         <v>172</v>
@@ -8359,7 +8474,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C41" s="33" t="s">
         <v>172</v>
@@ -8370,7 +8485,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>172</v>
@@ -8381,7 +8496,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="33" t="s">
         <v>172</v>
@@ -8392,7 +8507,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C44" s="33" t="s">
         <v>172</v>
@@ -8403,7 +8518,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C45" s="33" t="s">
         <v>172</v>
@@ -8414,7 +8529,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C46" s="33" t="s">
         <v>172</v>
@@ -8425,7 +8540,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C47" s="33" t="s">
         <v>172</v>
@@ -8436,7 +8551,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="33" t="s">
         <v>172</v>
@@ -8447,7 +8562,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C49" s="33" t="s">
         <v>172</v>
@@ -8458,7 +8573,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>172</v>
@@ -8469,7 +8584,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C51" s="33" t="s">
         <v>172</v>
@@ -8480,7 +8595,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>172</v>
@@ -8491,7 +8606,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>172</v>
@@ -8502,7 +8617,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C54" s="33" t="s">
         <v>172</v>
@@ -8513,7 +8628,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C55" s="33" t="s">
         <v>172</v>
@@ -8524,7 +8639,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>172</v>
@@ -8535,7 +8650,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>172</v>
@@ -8546,7 +8661,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>172</v>
@@ -8557,7 +8672,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C59" s="33" t="s">
         <v>172</v>
@@ -8568,7 +8683,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C60" s="33" t="s">
         <v>172</v>
@@ -8579,7 +8694,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>172</v>
@@ -8590,7 +8705,7 @@
     </row>
     <row r="62" spans="2:6">
       <c r="B62" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C62" s="33" t="s">
         <v>172</v>
@@ -8601,7 +8716,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C63" s="33" t="s">
         <v>172</v>
@@ -8612,7 +8727,7 @@
     </row>
     <row r="64" spans="2:6">
       <c r="B64" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C64" s="33" t="s">
         <v>172</v>
@@ -8623,7 +8738,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C65" s="33" t="s">
         <v>172</v>
@@ -8634,7 +8749,7 @@
     </row>
     <row r="66" spans="2:6">
       <c r="B66" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>172</v>
@@ -8645,7 +8760,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C67" s="33" t="s">
         <v>172</v>
@@ -8656,7 +8771,7 @@
     </row>
     <row r="68" spans="2:6">
       <c r="B68" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C68" s="33" t="s">
         <v>172</v>
@@ -8667,7 +8782,7 @@
     </row>
     <row r="69" spans="2:6">
       <c r="B69" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C69" s="33" t="s">
         <v>172</v>
@@ -8678,7 +8793,7 @@
     </row>
     <row r="70" spans="2:6">
       <c r="B70" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C70" s="33" t="s">
         <v>172</v>
@@ -8689,7 +8804,7 @@
     </row>
     <row r="71" spans="2:6">
       <c r="B71" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>172</v>
@@ -8700,7 +8815,7 @@
     </row>
     <row r="72" spans="2:6">
       <c r="B72" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>172</v>
@@ -8711,7 +8826,7 @@
     </row>
     <row r="73" spans="2:6">
       <c r="B73" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" s="33" t="s">
         <v>172</v>
@@ -8722,7 +8837,7 @@
     </row>
     <row r="74" spans="2:6">
       <c r="B74" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C74" s="33" t="s">
         <v>172</v>
@@ -8733,7 +8848,7 @@
     </row>
     <row r="75" spans="2:6">
       <c r="B75" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>172</v>
@@ -8744,7 +8859,7 @@
     </row>
     <row r="76" spans="2:6">
       <c r="B76" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C76" s="33" t="s">
         <v>172</v>
@@ -8755,7 +8870,7 @@
     </row>
     <row r="77" spans="2:6">
       <c r="B77" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C77" s="33" t="s">
         <v>172</v>
@@ -8766,7 +8881,7 @@
     </row>
     <row r="78" spans="2:6">
       <c r="B78" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C78" s="33" t="s">
         <v>172</v>
@@ -8777,7 +8892,7 @@
     </row>
     <row r="79" spans="2:6">
       <c r="B79" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C79" s="33" t="s">
         <v>172</v>
@@ -8788,7 +8903,7 @@
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>172</v>
@@ -8799,7 +8914,7 @@
     </row>
     <row r="81" spans="2:6">
       <c r="B81" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C81" s="33" t="s">
         <v>172</v>
@@ -8810,7 +8925,7 @@
     </row>
     <row r="82" spans="2:6">
       <c r="B82" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>172</v>
@@ -8821,7 +8936,7 @@
     </row>
     <row r="83" spans="2:6">
       <c r="B83" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>172</v>
@@ -8832,7 +8947,7 @@
     </row>
     <row r="84" spans="2:6">
       <c r="B84" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C84" s="33" t="s">
         <v>172</v>
@@ -8843,7 +8958,7 @@
     </row>
     <row r="85" spans="2:6">
       <c r="B85" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C85" s="33" t="s">
         <v>172</v>
@@ -8854,7 +8969,7 @@
     </row>
     <row r="86" spans="2:6">
       <c r="B86" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C86" s="33" t="s">
         <v>172</v>
@@ -8865,7 +8980,7 @@
     </row>
     <row r="87" spans="2:6">
       <c r="B87" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C87" s="33" t="s">
         <v>172</v>
@@ -8876,7 +8991,7 @@
     </row>
     <row r="88" spans="2:6">
       <c r="B88" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C88" s="33" t="s">
         <v>172</v>
@@ -8887,7 +9002,7 @@
     </row>
     <row r="89" spans="2:6">
       <c r="B89" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>172</v>
@@ -8898,7 +9013,7 @@
     </row>
     <row r="90" spans="2:6">
       <c r="B90" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>172</v>
@@ -8909,7 +9024,7 @@
     </row>
     <row r="91" spans="2:6">
       <c r="B91" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C91" s="33" t="s">
         <v>172</v>
@@ -8920,7 +9035,7 @@
     </row>
     <row r="92" spans="2:6">
       <c r="B92" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>172</v>
@@ -8931,7 +9046,7 @@
     </row>
     <row r="93" spans="2:6">
       <c r="B93" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C93" s="33" t="s">
         <v>172</v>
@@ -8942,7 +9057,7 @@
     </row>
     <row r="94" spans="2:6">
       <c r="B94" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C94" s="33" t="s">
         <v>172</v>
@@ -8953,7 +9068,7 @@
     </row>
     <row r="95" spans="2:6">
       <c r="B95" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C95" s="33" t="s">
         <v>172</v>
@@ -8964,7 +9079,7 @@
     </row>
     <row r="96" spans="2:6">
       <c r="B96" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>172</v>
@@ -8975,7 +9090,7 @@
     </row>
     <row r="97" spans="2:6">
       <c r="B97" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C97" s="33" t="s">
         <v>172</v>
@@ -8986,7 +9101,7 @@
     </row>
     <row r="98" spans="2:6">
       <c r="B98" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C98" s="33" t="s">
         <v>172</v>
@@ -8997,7 +9112,7 @@
     </row>
     <row r="99" spans="2:6">
       <c r="B99" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>172</v>
@@ -9008,7 +9123,7 @@
     </row>
     <row r="100" spans="2:6">
       <c r="B100" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C100" s="33" t="s">
         <v>172</v>
@@ -9019,7 +9134,7 @@
     </row>
     <row r="101" spans="2:6">
       <c r="B101" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C101" s="33" t="s">
         <v>172</v>
@@ -9030,7 +9145,7 @@
     </row>
     <row r="102" spans="2:6">
       <c r="B102" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C102" s="33" t="s">
         <v>172</v>
@@ -9041,7 +9156,7 @@
     </row>
     <row r="103" spans="2:6">
       <c r="B103" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -9052,7 +9167,7 @@
     </row>
     <row r="104" spans="2:6">
       <c r="B104" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -9063,7 +9178,7 @@
     </row>
     <row r="105" spans="2:6">
       <c r="B105" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -9074,7 +9189,7 @@
     </row>
     <row r="106" spans="2:6">
       <c r="B106" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -9085,7 +9200,7 @@
     </row>
     <row r="107" spans="2:6">
       <c r="B107" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -9096,7 +9211,7 @@
     </row>
     <row r="108" spans="2:6">
       <c r="B108" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -9107,7 +9222,7 @@
     </row>
     <row r="109" spans="2:6">
       <c r="B109" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -9118,7 +9233,7 @@
     </row>
     <row r="110" spans="2:6">
       <c r="B110" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -9129,7 +9244,7 @@
     </row>
     <row r="111" spans="2:6">
       <c r="B111" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -9140,7 +9255,7 @@
     </row>
     <row r="112" spans="2:6">
       <c r="B112" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -9151,7 +9266,7 @@
     </row>
     <row r="113" spans="2:6">
       <c r="B113" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -9162,7 +9277,7 @@
     </row>
     <row r="114" spans="2:6">
       <c r="B114" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -9173,7 +9288,7 @@
     </row>
     <row r="115" spans="2:6">
       <c r="B115" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -9184,7 +9299,7 @@
     </row>
     <row r="116" spans="2:6">
       <c r="B116" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -9195,7 +9310,7 @@
     </row>
     <row r="117" spans="2:6">
       <c r="B117" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -9206,7 +9321,7 @@
     </row>
     <row r="118" spans="2:6">
       <c r="B118" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -9217,7 +9332,7 @@
     </row>
     <row r="119" spans="2:6">
       <c r="B119" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -9228,7 +9343,7 @@
     </row>
     <row r="120" spans="2:6">
       <c r="B120" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -9239,7 +9354,7 @@
     </row>
     <row r="121" spans="2:6">
       <c r="B121" s="74" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C121" s="75" t="s">
         <v>172</v>
@@ -9247,12 +9362,12 @@
       <c r="D121" s="74"/>
       <c r="E121" s="74"/>
       <c r="F121" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="2:6">
       <c r="B122" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C122" s="75" t="s">
         <v>172</v>
@@ -9260,12 +9375,12 @@
       <c r="D122" s="74"/>
       <c r="E122" s="74"/>
       <c r="F122" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="123" spans="2:6">
       <c r="B123" s="74" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C123" s="75" t="s">
         <v>172</v>
@@ -9273,12 +9388,12 @@
       <c r="D123" s="74"/>
       <c r="E123" s="74"/>
       <c r="F123" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="2:6">
       <c r="B124" s="74" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C124" s="32"/>
       <c r="D124" s="32"/>
@@ -9286,7 +9401,7 @@
         <v>172</v>
       </c>
       <c r="F124" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -9302,11 +9417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9587,7 +9702,7 @@
         <v>46</v>
       </c>
       <c r="C3" s="23" t="str">
-        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B3,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>indicatori esperenziali</v>
       </c>
       <c r="D3" s="23"/>
@@ -9627,7 +9742,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="23" t="str">
-        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B4,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v xml:space="preserve">Gestione BR Override Rosso / Arancio </v>
       </c>
       <c r="D4" s="23"/>
@@ -9671,7 +9786,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="23" t="str">
-        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B5,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v xml:space="preserve">trascinamento dello spegnimento segnale BR12 </v>
       </c>
       <c r="D5" s="23"/>
@@ -9711,7 +9826,7 @@
         <v>70</v>
       </c>
       <c r="C6" s="23" t="str">
-        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B6,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>override NOPG</v>
       </c>
       <c r="D6" s="23"/>
@@ -9755,7 +9870,7 @@
         <v>78</v>
       </c>
       <c r="C7" s="23" t="str">
-        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B7,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>override ind.36</v>
       </c>
       <c r="D7" s="23"/>
@@ -9799,7 +9914,7 @@
         <v>95</v>
       </c>
       <c r="C8" s="23" t="str">
-        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B8,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>override Fitch Rosso</v>
       </c>
       <c r="D8" s="23"/>
@@ -9843,7 +9958,7 @@
         <v>104</v>
       </c>
       <c r="C9" s="23" t="str">
-        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B9,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>override Fitch Blu chiaro</v>
       </c>
       <c r="D9" s="23"/>
@@ -9885,7 +10000,7 @@
         <v>117</v>
       </c>
       <c r="C10" s="23" t="str">
-        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B10,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>override NOPG colore blu chiaro</v>
       </c>
       <c r="D10" s="23"/>
@@ -9904,7 +10019,7 @@
       <c r="Q10" s="23"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T10" s="35" t="s">
         <v>201</v>
@@ -9929,7 +10044,7 @@
         <v>110</v>
       </c>
       <c r="C11" s="23" t="str">
-        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B11,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>CR Esperienziali - nuovo indicatore e BR</v>
       </c>
       <c r="D11" s="23"/>
@@ -9971,7 +10086,7 @@
         <v>118</v>
       </c>
       <c r="C12" s="23" t="str">
-        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B12,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>intervento correttivo XRA</v>
       </c>
       <c r="D12" s="23"/>
@@ -10015,7 +10130,7 @@
         <v>80</v>
       </c>
       <c r="C13" s="23" t="str">
-        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B13,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>testare AQR per Banca BIB</v>
       </c>
       <c r="D13" s="23"/>
@@ -10055,7 +10170,7 @@
         <v>82</v>
       </c>
       <c r="C14" s="23" t="str">
-        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B14,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>motore ALEX BANK</v>
       </c>
       <c r="D14" s="23"/>
@@ -10099,7 +10214,7 @@
         <v>83</v>
       </c>
       <c r="C15" s="23" t="str">
-        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B15,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>file test e TCK ALEX BANK</v>
       </c>
       <c r="D15" s="23"/>
@@ -10139,7 +10254,7 @@
         <v>85</v>
       </c>
       <c r="C16" s="23" t="str">
-        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B16,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>motore CIB BANK</v>
       </c>
       <c r="D16" s="23"/>
@@ -10187,7 +10302,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="23" t="str">
-        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B17,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>file test e TCK CIB BANK</v>
       </c>
       <c r="D17" s="23"/>
@@ -10227,7 +10342,7 @@
         <v>89</v>
       </c>
       <c r="C18" s="23" t="str">
-        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B18,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>ISPRO - motore</v>
       </c>
       <c r="D18" s="23"/>
@@ -10273,7 +10388,7 @@
         <v>90</v>
       </c>
       <c r="C19" s="23" t="str">
-        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B19,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>ISPRO - file test e TCK</v>
       </c>
       <c r="D19" s="23"/>
@@ -10313,7 +10428,7 @@
         <v>96</v>
       </c>
       <c r="C20" s="23" t="str">
-        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B20,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>Retail: costruzione file excel interno e verifica presenza Corporate</v>
       </c>
       <c r="D20" s="23"/>
@@ -10355,7 +10470,7 @@
         <v>97</v>
       </c>
       <c r="C21" s="23" t="str">
-        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B21,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>Retail: test di performance (2 mio di dati)</v>
       </c>
       <c r="D21" s="23"/>
@@ -10395,7 +10510,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="23" t="str">
-        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B22,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>VM - Retail: nodo Riempimento</v>
       </c>
       <c r="D22" s="23"/>
@@ -10435,7 +10550,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="23" t="str">
-        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B23,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>Retail: sviluppo indicatori</v>
       </c>
       <c r="D23" s="23"/>
@@ -10489,7 +10604,7 @@
         <v>102</v>
       </c>
       <c r="C24" s="23" t="str">
-        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B24,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>Retail: configurazione start-up app (excel)</v>
       </c>
       <c r="D24" s="23"/>
@@ -10531,7 +10646,7 @@
         <v>103</v>
       </c>
       <c r="C25" s="23" t="str">
-        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B25,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>Retail: configurazione iniziale app e VM  (BR, Matrice e FT)</v>
       </c>
       <c r="D25" s="23"/>
@@ -10573,7 +10688,7 @@
         <v>114</v>
       </c>
       <c r="C26" s="23" t="str">
-        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B26,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>ISBA - motore</v>
       </c>
       <c r="D26" s="23"/>
@@ -10619,7 +10734,7 @@
         <v>115</v>
       </c>
       <c r="C27" s="23" t="str">
-        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$304,2,FALSE)</f>
+        <f>VLOOKUP(B27,Elenco_attività!$B$47:$C$306,2,FALSE)</f>
         <v>ISBA - file test e TCK</v>
       </c>
       <c r="D27" s="23"/>
@@ -10765,11 +10880,11 @@
   <dimension ref="B1:DR23"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="CO14" sqref="BD14:CO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8"/>
@@ -10843,7 +10958,7 @@
       </c>
       <c r="N1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="O1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10859,7 +10974,7 @@
       </c>
       <c r="R1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="S1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -12041,10 +12156,10 @@
       <c r="P5" s="51"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="51"/>
-      <c r="S5" s="48" t="s">
+      <c r="S5" s="51"/>
+      <c r="T5" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="T5" s="51"/>
       <c r="U5" s="51"/>
       <c r="V5" s="51"/>
       <c r="W5" s="51"/>
@@ -12191,7 +12306,7 @@
       <c r="AF6" s="51"/>
       <c r="AG6" s="51"/>
       <c r="AH6" s="51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI6" s="51"/>
       <c r="AJ6" s="51"/>
@@ -12208,7 +12323,7 @@
       <c r="AU6" s="51"/>
       <c r="AV6" s="51"/>
       <c r="AW6" s="51" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AX6" s="51"/>
       <c r="AY6" s="51"/>
@@ -13779,10 +13894,10 @@
   <dimension ref="B1:FU16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13802,7 +13917,7 @@
     <row r="1" spans="2:177">
       <c r="C1" s="65" t="str">
         <f t="shared" ref="C1" ca="1" si="0">IF(TODAY()=C2,"]","")</f>
-        <v>]</v>
+        <v/>
       </c>
       <c r="D1" s="65" t="str">
         <f t="shared" ref="D1:V1" ca="1" si="1">IF(TODAY()&gt;=D2,IF(TODAY()&lt;E2,"]",""),"")</f>
@@ -13818,7 +13933,7 @@
       </c>
       <c r="G1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="H1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -14939,51 +15054,51 @@
       </c>
       <c r="C3" s="62"/>
       <c r="D3" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="I3" s="69"/>
       <c r="J3" s="69"/>
       <c r="K3" s="69"/>
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
       <c r="O3" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P3" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R3" s="70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S3" s="69"/>
       <c r="T3" s="69"/>
       <c r="U3" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V3" s="63" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="W3" s="69"/>
       <c r="X3" s="69"/>
       <c r="Y3" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Z3" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AA3" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AB3" s="69"/>
       <c r="AC3" s="69"/>
@@ -15004,29 +15119,29 @@
       <c r="AR3" s="69"/>
       <c r="AS3" s="69"/>
       <c r="AT3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AV3" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW3" s="69"/>
       <c r="AX3" s="69"/>
       <c r="AY3" s="69"/>
       <c r="AZ3" s="69"/>
       <c r="BA3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BB3" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC3" s="69"/>
       <c r="BD3" s="69"/>
       <c r="BE3" s="69"/>
       <c r="BF3" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BG3" s="69"/>
       <c r="BH3" s="69"/>
@@ -15052,7 +15167,7 @@
       <c r="CB3" s="69"/>
       <c r="CC3" s="69"/>
       <c r="CD3" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CE3" s="69"/>
       <c r="CF3" s="69"/>
@@ -15100,34 +15215,34 @@
       <c r="DV3" s="69"/>
       <c r="DW3" s="69"/>
       <c r="DX3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DY3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DZ3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EA3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EB3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EC3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="ED3" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EE3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EF3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EG3" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EH3" s="69"/>
       <c r="EI3" s="69"/>
@@ -15176,17 +15291,17 @@
       </c>
       <c r="C4" s="69"/>
       <c r="D4" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69"/>
       <c r="I4" s="69"/>
       <c r="J4" s="70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
@@ -15224,29 +15339,29 @@
       <c r="AR4" s="69"/>
       <c r="AS4" s="69"/>
       <c r="AT4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AV4" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW4" s="69"/>
       <c r="AX4" s="69"/>
       <c r="AY4" s="69"/>
       <c r="AZ4" s="69"/>
       <c r="BA4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BB4" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC4" s="69"/>
       <c r="BD4" s="69"/>
       <c r="BE4" s="69"/>
       <c r="BF4" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BG4" s="69"/>
       <c r="BH4" s="69"/>
@@ -15256,10 +15371,10 @@
       <c r="BL4" s="69"/>
       <c r="BM4" s="69"/>
       <c r="BN4" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BO4" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BP4" s="69"/>
       <c r="BQ4" s="69"/>
@@ -15276,7 +15391,7 @@
       <c r="CB4" s="69"/>
       <c r="CC4" s="69"/>
       <c r="CD4" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CE4" s="69"/>
       <c r="CF4" s="69"/>
@@ -15292,10 +15407,10 @@
       <c r="CP4" s="69"/>
       <c r="CQ4" s="69"/>
       <c r="CR4" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CS4" s="67" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="CT4" s="69"/>
       <c r="CU4" s="69"/>
@@ -15328,34 +15443,34 @@
       <c r="DV4" s="69"/>
       <c r="DW4" s="69"/>
       <c r="DX4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DY4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DZ4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EA4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EB4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EC4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="ED4" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EE4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EF4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EG4" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EH4" s="69"/>
       <c r="EI4" s="69"/>
@@ -15400,7 +15515,7 @@
     </row>
     <row r="5" spans="2:177">
       <c r="B5" s="49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" s="62"/>
       <c r="D5" s="62"/>
@@ -15446,29 +15561,29 @@
       <c r="AR5" s="62"/>
       <c r="AS5" s="62"/>
       <c r="AT5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AV5" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW5" s="62"/>
       <c r="AX5" s="62"/>
       <c r="AY5" s="62"/>
       <c r="AZ5" s="62"/>
       <c r="BA5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BB5" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC5" s="62"/>
       <c r="BD5" s="62"/>
       <c r="BE5" s="62"/>
       <c r="BF5" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BG5" s="62"/>
       <c r="BH5" s="62"/>
@@ -15494,7 +15609,7 @@
       <c r="CB5" s="62"/>
       <c r="CC5" s="62"/>
       <c r="CD5" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CE5" s="62"/>
       <c r="CF5" s="62"/>
@@ -15542,34 +15657,34 @@
       <c r="DV5" s="62"/>
       <c r="DW5" s="62"/>
       <c r="DX5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DY5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DZ5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EA5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EB5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EC5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="ED5" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EE5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EF5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EG5" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EH5" s="62"/>
       <c r="EI5" s="62"/>
@@ -15614,22 +15729,16 @@
     </row>
     <row r="6" spans="2:177">
       <c r="B6" s="66" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
-      <c r="H6" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>264</v>
-      </c>
-      <c r="J6" s="67" t="s">
-        <v>264</v>
-      </c>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
       <c r="M6" s="69"/>
@@ -15666,29 +15775,29 @@
       <c r="AR6" s="69"/>
       <c r="AS6" s="69"/>
       <c r="AT6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AV6" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW6" s="69"/>
       <c r="AX6" s="69"/>
       <c r="AY6" s="69"/>
       <c r="AZ6" s="69"/>
       <c r="BA6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BB6" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC6" s="69"/>
       <c r="BD6" s="69"/>
       <c r="BE6" s="69"/>
       <c r="BF6" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BG6" s="69"/>
       <c r="BH6" s="69"/>
@@ -15714,7 +15823,7 @@
       <c r="CB6" s="69"/>
       <c r="CC6" s="69"/>
       <c r="CD6" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CE6" s="69"/>
       <c r="CF6" s="69"/>
@@ -15762,34 +15871,34 @@
       <c r="DV6" s="69"/>
       <c r="DW6" s="69"/>
       <c r="DX6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DY6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DZ6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EA6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EB6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EC6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="ED6" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EE6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EF6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EG6" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EH6" s="69"/>
       <c r="EI6" s="69"/>
@@ -15834,7 +15943,7 @@
     </row>
     <row r="7" spans="2:177">
       <c r="B7" s="66" t="s">
-        <v>263</v>
+        <v>410</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
@@ -15880,29 +15989,29 @@
       <c r="AR7" s="69"/>
       <c r="AS7" s="69"/>
       <c r="AT7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AV7" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AW7" s="69"/>
       <c r="AX7" s="69"/>
       <c r="AY7" s="69"/>
       <c r="AZ7" s="69"/>
       <c r="BA7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="BB7" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BC7" s="69"/>
       <c r="BD7" s="69"/>
       <c r="BE7" s="69"/>
       <c r="BF7" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="BG7" s="69"/>
       <c r="BH7" s="69"/>
@@ -15928,7 +16037,7 @@
       <c r="CB7" s="69"/>
       <c r="CC7" s="69"/>
       <c r="CD7" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="CE7" s="69"/>
       <c r="CF7" s="69"/>
@@ -15976,34 +16085,34 @@
       <c r="DV7" s="69"/>
       <c r="DW7" s="69"/>
       <c r="DX7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DY7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DZ7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EA7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EB7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EC7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="ED7" s="76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="EE7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EF7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EG7" s="71" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="EH7" s="69"/>
       <c r="EI7" s="69"/>
@@ -16048,7 +16157,7 @@
     </row>
     <row r="8" spans="2:177">
       <c r="B8" s="64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="62">
         <f t="shared" ref="C8" si="77">COUNTBLANK(C3:C7)</f>
@@ -16072,7 +16181,7 @@
       </c>
       <c r="H8" s="62">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" s="62">
         <f t="shared" si="78"/>
@@ -16080,7 +16189,7 @@
       </c>
       <c r="J8" s="62">
         <f t="shared" si="78"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="62">
         <f t="shared" si="78"/>
@@ -16702,50 +16811,50 @@
     </row>
     <row r="11" spans="2:177">
       <c r="B11" s="77" t="s">
-        <v>271</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>265</v>
+        <v>270</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="2:177">
       <c r="B12" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="C12" s="78" t="s">
-        <v>269</v>
+        <v>271</v>
+      </c>
+      <c r="C12" s="84" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:177">
       <c r="B13" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="79" t="s">
-        <v>264</v>
+        <v>266</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:177">
       <c r="B14" s="80" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="86" t="s">
         <v>273</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="15" spans="2:177">
       <c r="B15" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="81" t="s">
-        <v>266</v>
+        <v>267</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:177">
       <c r="B16" s="82" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" s="88" t="s">
         <v>403</v>
-      </c>
-      <c r="C16" s="82" t="s">
-        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -3765,8 +3765,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6177,7 +6177,7 @@
         <v>131</v>
       </c>
       <c r="E84" s="13">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -6300,7 +6300,9 @@
       <c r="D89" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E89" s="13"/>
+      <c r="E89" s="13">
+        <v>0.75</v>
+      </c>
       <c r="F89" s="13"/>
       <c r="G89" s="13"/>
       <c r="H89" s="5">
@@ -7055,7 +7057,7 @@
         <v>258</v>
       </c>
       <c r="E119" s="13">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F119" s="13"/>
       <c r="G119" s="13"/>
@@ -7078,7 +7080,9 @@
       <c r="D120" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E120" s="13"/>
+      <c r="E120" s="13">
+        <v>1</v>
+      </c>
       <c r="F120" s="13"/>
       <c r="G120" s="13"/>
       <c r="H120" s="5">
@@ -9421,7 +9425,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -9487,11 +9491,11 @@
       </c>
       <c r="O1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="P1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="Q1" s="26" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -10879,12 +10883,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="CO14" sqref="BD14:CO14"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8"/>
@@ -10974,11 +10978,11 @@
       </c>
       <c r="R1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="S1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="T1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13933,11 +13937,11 @@
       </c>
       <c r="G1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="H1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="I1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="414">
   <si>
     <t>Verificare/Cambiare tutte le formule indeterminate</t>
   </si>
@@ -1488,6 +1488,15 @@
   </si>
   <si>
     <t>Alberto Collu</t>
+  </si>
+  <si>
+    <t>IND_88</t>
+  </si>
+  <si>
+    <t>ERROR_MSG_IND_88</t>
+  </si>
+  <si>
+    <t>BR149</t>
   </si>
 </sst>
 </file>
@@ -3765,8 +3774,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -8025,10 +8034,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F124"/>
+  <dimension ref="B2:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -9408,6 +9417,39 @@
         <v>350</v>
       </c>
     </row>
+    <row r="125" spans="2:6">
+      <c r="B125" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="1"/>
+    </row>
   </sheetData>
   <sortState ref="B3:F124">
     <sortCondition descending="1" ref="F3"/>
@@ -9422,10 +9464,10 @@
   <dimension ref="B1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="G16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P23" sqref="P23"/>
+      <selection pane="bottomRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -10883,12 +10925,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="BP2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="BS9" sqref="BS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="13.8"/>
@@ -10982,11 +11024,11 @@
       </c>
       <c r="S1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="T1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="U1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13941,11 +13983,11 @@
       </c>
       <c r="H1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="I1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="J1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>

--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/SpecificheIndicatori/Attivita.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340" activeTab="4"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="9216" windowHeight="5340"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco_attività" sheetId="1" r:id="rId1"/>
@@ -3765,8 +3765,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AE128"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -6177,7 +6177,7 @@
         <v>131</v>
       </c>
       <c r="E84" s="13">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F84" s="13"/>
       <c r="G84" s="13"/>
@@ -6229,7 +6229,7 @@
         <v>131</v>
       </c>
       <c r="E86" s="13">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
@@ -10883,7 +10883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:DR23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="S1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="T1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -10994,7 +10994,7 @@
       </c>
       <c r="V1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="W1" s="26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13941,7 +13941,7 @@
       </c>
       <c r="H1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>]</v>
+        <v/>
       </c>
       <c r="I1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -13953,7 +13953,7 @@
       </c>
       <c r="K1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>]</v>
       </c>
       <c r="L1" s="65" t="str">
         <f t="shared" ca="1" si="1"/>
